--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_16_39.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_16_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2472838.262163322</v>
+        <v>2472099.990214567</v>
       </c>
     </row>
     <row r="7">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>287.5922136851231</v>
       </c>
       <c r="C11" t="n">
-        <v>275.6035306428048</v>
+        <v>158.6589172558566</v>
       </c>
       <c r="D11" t="n">
         <v>266.5848346873328</v>
       </c>
       <c r="E11" t="n">
-        <v>288.3269722572383</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>307.4987883452155</v>
       </c>
       <c r="G11" t="n">
-        <v>86.75992964820119</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>221.4703505509402</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>47.82925645536288</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>70.58160735762588</v>
       </c>
       <c r="T11" t="n">
         <v>117.248504451536</v>
@@ -1464,10 +1464,10 @@
         <v>127.1532536392214</v>
       </c>
       <c r="H12" t="n">
-        <v>96.15737859072273</v>
+        <v>96.15737859072274</v>
       </c>
       <c r="I12" t="n">
-        <v>57.78400411843695</v>
+        <v>57.78400411843769</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>41.30756351047143</v>
+        <v>41.30756351047144</v>
       </c>
       <c r="S12" t="n">
         <v>145.9227365679431</v>
@@ -1509,7 +1509,7 @@
         <v>226.1116663261494</v>
       </c>
       <c r="W12" t="n">
-        <v>238.9027100790236</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X12" t="n">
         <v>195.9378182409833</v>
@@ -1604,13 +1604,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>116.9210066730654</v>
+        <v>287.5922136851231</v>
       </c>
       <c r="C14" t="n">
-        <v>275.6035306428048</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>266.5848346873328</v>
+        <v>217.1763224552491</v>
       </c>
       <c r="E14" t="n">
         <v>288.3269722572383</v>
@@ -1622,10 +1622,10 @@
         <v>308.8938582033354</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>221.4703505509402</v>
       </c>
       <c r="I14" t="n">
-        <v>47.82925645536285</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>70.58160735762586</v>
+        <v>70.58160735762587</v>
       </c>
       <c r="T14" t="n">
         <v>117.248504451536</v>
@@ -1667,10 +1667,10 @@
         <v>231.0985909253022</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>256.3986904032591</v>
       </c>
       <c r="X14" t="n">
-        <v>275.6989486360057</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1701,7 +1701,7 @@
         <v>127.1532536392214</v>
       </c>
       <c r="H15" t="n">
-        <v>96.15737859072273</v>
+        <v>96.15737859072274</v>
       </c>
       <c r="I15" t="n">
         <v>57.78400411843695</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>41.30756351047143</v>
+        <v>41.30756351047144</v>
       </c>
       <c r="S15" t="n">
         <v>145.9227365679431</v>
@@ -1762,25 +1762,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>79.20892455982015</v>
+        <v>79.20892455982013</v>
       </c>
       <c r="C16" t="n">
-        <v>65.40891940522063</v>
+        <v>65.40891940522062</v>
       </c>
       <c r="D16" t="n">
-        <v>49.03028380279902</v>
+        <v>49.030283802799</v>
       </c>
       <c r="E16" t="n">
-        <v>47.97803365857847</v>
+        <v>47.97803365857845</v>
       </c>
       <c r="F16" t="n">
-        <v>48.44495798676478</v>
+        <v>48.44495798676476</v>
       </c>
       <c r="G16" t="n">
-        <v>64.4782435958107</v>
+        <v>64.47824359581068</v>
       </c>
       <c r="H16" t="n">
-        <v>53.12161073233686</v>
+        <v>53.12161073233685</v>
       </c>
       <c r="I16" t="n">
         <v>32.99005253840733</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>34.66068188454695</v>
+        <v>34.66068188454693</v>
       </c>
       <c r="S16" t="n">
         <v>104.8545326755172</v>
@@ -1859,7 +1859,7 @@
         <v>245.479105493114</v>
       </c>
       <c r="H17" t="n">
-        <v>158.0555978407189</v>
+        <v>158.0555978407188</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>7.166854647404454</v>
+        <v>7.166854647404467</v>
       </c>
       <c r="T17" t="n">
         <v>53.83375174131456</v>
@@ -1938,7 +1938,7 @@
         <v>127.1532536392214</v>
       </c>
       <c r="H18" t="n">
-        <v>96.15737859072273</v>
+        <v>96.15737859072274</v>
       </c>
       <c r="I18" t="n">
         <v>57.78400411843695</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>41.30756351047143</v>
+        <v>41.30756351047144</v>
       </c>
       <c r="S18" t="n">
         <v>145.9227365679431</v>
@@ -2050,13 +2050,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>41.43977996529582</v>
+        <v>197.17012255775</v>
       </c>
       <c r="T19" t="n">
-        <v>63.89001102470518</v>
+        <v>63.89001102470519</v>
       </c>
       <c r="U19" t="n">
-        <v>274.1098683541825</v>
+        <v>118.3795257617283</v>
       </c>
       <c r="V19" t="n">
         <v>92.20230824922433</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>224.1774609749017</v>
+        <v>224.1774609749021</v>
       </c>
       <c r="C20" t="n">
         <v>212.1887779325834</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>7.166854647404449</v>
+        <v>7.166854647404477</v>
       </c>
       <c r="T20" t="n">
         <v>53.83375174131456</v>
@@ -2175,7 +2175,7 @@
         <v>127.1532536392214</v>
       </c>
       <c r="H21" t="n">
-        <v>96.15737859072273</v>
+        <v>96.15737859072274</v>
       </c>
       <c r="I21" t="n">
         <v>57.78400411843695</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>41.30756351047143</v>
+        <v>41.30756351047144</v>
       </c>
       <c r="S21" t="n">
         <v>145.9227365679431</v>
@@ -2287,10 +2287,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>41.43977996529582</v>
+        <v>197.17012255775</v>
       </c>
       <c r="T22" t="n">
-        <v>63.89001102470518</v>
+        <v>63.89001102470519</v>
       </c>
       <c r="U22" t="n">
         <v>118.3795257617283</v>
@@ -2305,7 +2305,7 @@
         <v>63.01429631564071</v>
       </c>
       <c r="Y22" t="n">
-        <v>209.6195066641627</v>
+        <v>53.88916407170839</v>
       </c>
     </row>
     <row r="23">
@@ -2333,7 +2333,7 @@
         <v>245.479105493114</v>
       </c>
       <c r="H23" t="n">
-        <v>158.0555978407188</v>
+        <v>158.0555978407189</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>7.166854647404449</v>
+        <v>7.166854647404467</v>
       </c>
       <c r="T23" t="n">
         <v>53.83375174131456</v>
@@ -2375,7 +2375,7 @@
         <v>86.36778393206441</v>
       </c>
       <c r="V23" t="n">
-        <v>167.6838382150808</v>
+        <v>167.6838382150812</v>
       </c>
       <c r="W23" t="n">
         <v>192.9839376930377</v>
@@ -2415,7 +2415,7 @@
         <v>96.15737859072274</v>
       </c>
       <c r="I24" t="n">
-        <v>57.78400411843681</v>
+        <v>57.78400411843769</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>41.43977996529582</v>
+        <v>41.43977996529583</v>
       </c>
       <c r="T25" t="n">
         <v>63.89001102470519</v>
@@ -2536,10 +2536,10 @@
         <v>92.20230824922433</v>
       </c>
       <c r="W25" t="n">
-        <v>117.3691943198376</v>
+        <v>273.0995369122917</v>
       </c>
       <c r="X25" t="n">
-        <v>218.7446389080949</v>
+        <v>63.01429631564071</v>
       </c>
       <c r="Y25" t="n">
         <v>53.88916407170839</v>
@@ -2561,7 +2561,7 @@
         <v>266.5848346873328</v>
       </c>
       <c r="E26" t="n">
-        <v>288.3269722572383</v>
+        <v>288.3269722572384</v>
       </c>
       <c r="F26" t="n">
         <v>307.4987883452155</v>
@@ -2573,7 +2573,7 @@
         <v>221.4703505509403</v>
       </c>
       <c r="I26" t="n">
-        <v>47.82925645536285</v>
+        <v>47.82925645536289</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.58160735762586</v>
+        <v>70.5816073576259</v>
       </c>
       <c r="T26" t="n">
         <v>117.248504451536</v>
@@ -2618,7 +2618,7 @@
         <v>256.3986904032591</v>
       </c>
       <c r="X26" t="n">
-        <v>275.6989486360057</v>
+        <v>275.6989486360058</v>
       </c>
       <c r="Y26" t="n">
         <v>287.0955464322045</v>
@@ -2649,10 +2649,10 @@
         <v>127.1532536392214</v>
       </c>
       <c r="H27" t="n">
-        <v>96.15737859072273</v>
+        <v>96.15737859072274</v>
       </c>
       <c r="I27" t="n">
-        <v>57.78400411843694</v>
+        <v>57.78400411843695</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>41.30756351047142</v>
+        <v>41.30756351047144</v>
       </c>
       <c r="S27" t="n">
         <v>145.9227365679431</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>79.20892455982015</v>
+        <v>79.20892455982016</v>
       </c>
       <c r="C28" t="n">
-        <v>65.40891940522063</v>
+        <v>65.40891940522064</v>
       </c>
       <c r="D28" t="n">
-        <v>49.03028380279902</v>
+        <v>49.03028380279903</v>
       </c>
       <c r="E28" t="n">
-        <v>47.97803365857847</v>
+        <v>47.97803365857848</v>
       </c>
       <c r="F28" t="n">
-        <v>48.44495798676478</v>
+        <v>48.44495798676479</v>
       </c>
       <c r="G28" t="n">
-        <v>64.4782435958107</v>
+        <v>64.47824359581071</v>
       </c>
       <c r="H28" t="n">
-        <v>53.12161073233686</v>
+        <v>53.12161073233688</v>
       </c>
       <c r="I28" t="n">
-        <v>32.99005253840733</v>
+        <v>32.99005253840735</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>34.66068188454694</v>
+        <v>34.66068188454696</v>
       </c>
       <c r="S28" t="n">
         <v>104.8545326755172</v>
@@ -2770,7 +2770,7 @@
         <v>181.7942784719497</v>
       </c>
       <c r="V28" t="n">
-        <v>155.6170609594457</v>
+        <v>155.6170609594458</v>
       </c>
       <c r="W28" t="n">
         <v>180.783947030059</v>
@@ -2792,25 +2792,25 @@
         <v>287.5922136851231</v>
       </c>
       <c r="C29" t="n">
-        <v>275.6035306428048</v>
+        <v>275.6035306428049</v>
       </c>
       <c r="D29" t="n">
         <v>266.5848346873328</v>
       </c>
       <c r="E29" t="n">
-        <v>288.3269722572383</v>
+        <v>288.3269722572384</v>
       </c>
       <c r="F29" t="n">
         <v>307.4987883452155</v>
       </c>
       <c r="G29" t="n">
-        <v>308.8938582033354</v>
+        <v>308.8938582033355</v>
       </c>
       <c r="H29" t="n">
         <v>221.4703505509403</v>
       </c>
       <c r="I29" t="n">
-        <v>47.82925645536285</v>
+        <v>47.82925645536291</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.58160735762587</v>
+        <v>70.58160735762591</v>
       </c>
       <c r="T29" t="n">
         <v>117.248504451536</v>
@@ -2855,7 +2855,7 @@
         <v>256.3986904032591</v>
       </c>
       <c r="X29" t="n">
-        <v>275.6989486360057</v>
+        <v>275.6989486360058</v>
       </c>
       <c r="Y29" t="n">
         <v>287.0955464322045</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>79.20892455982015</v>
+        <v>79.20892455982018</v>
       </c>
       <c r="C31" t="n">
-        <v>65.40891940522063</v>
+        <v>65.40891940522066</v>
       </c>
       <c r="D31" t="n">
-        <v>49.03028380279902</v>
+        <v>49.03028380279905</v>
       </c>
       <c r="E31" t="n">
-        <v>47.97803365857847</v>
+        <v>47.9780336585785</v>
       </c>
       <c r="F31" t="n">
-        <v>48.44495798676478</v>
+        <v>48.44495798676481</v>
       </c>
       <c r="G31" t="n">
-        <v>64.4782435958107</v>
+        <v>64.47824359581072</v>
       </c>
       <c r="H31" t="n">
-        <v>53.12161073233686</v>
+        <v>53.12161073233689</v>
       </c>
       <c r="I31" t="n">
-        <v>32.99005253840733</v>
+        <v>32.99005253840736</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>34.66068188454695</v>
+        <v>34.66068188454698</v>
       </c>
       <c r="S31" t="n">
-        <v>104.8545326755172</v>
+        <v>104.8545326755173</v>
       </c>
       <c r="T31" t="n">
         <v>127.3047637349266</v>
@@ -3007,7 +3007,7 @@
         <v>181.7942784719497</v>
       </c>
       <c r="V31" t="n">
-        <v>155.6170609594457</v>
+        <v>155.6170609594458</v>
       </c>
       <c r="W31" t="n">
         <v>180.783947030059</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>287.5922136851231</v>
+        <v>287.5922136851232</v>
       </c>
       <c r="C32" t="n">
-        <v>275.6035306428048</v>
+        <v>275.603530642805</v>
       </c>
       <c r="D32" t="n">
-        <v>266.5848346873328</v>
+        <v>266.5848346873329</v>
       </c>
       <c r="E32" t="n">
-        <v>288.3269722572383</v>
+        <v>288.3269722572385</v>
       </c>
       <c r="F32" t="n">
-        <v>307.4987883452155</v>
+        <v>307.4987883452156</v>
       </c>
       <c r="G32" t="n">
-        <v>308.8938582033354</v>
+        <v>308.8938582033356</v>
       </c>
       <c r="H32" t="n">
-        <v>221.4703505509402</v>
+        <v>221.4703505509404</v>
       </c>
       <c r="I32" t="n">
-        <v>47.82925645536282</v>
+        <v>47.82925645536302</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>70.58160735762583</v>
+        <v>70.58160735762603</v>
       </c>
       <c r="T32" t="n">
-        <v>117.2485044515359</v>
+        <v>117.2485044515361</v>
       </c>
       <c r="U32" t="n">
-        <v>149.7825366422858</v>
+        <v>149.7825366422859</v>
       </c>
       <c r="V32" t="n">
-        <v>231.0985909253022</v>
+        <v>231.0985909253023</v>
       </c>
       <c r="W32" t="n">
-        <v>256.3986904032591</v>
+        <v>256.3986904032593</v>
       </c>
       <c r="X32" t="n">
-        <v>275.6989486360057</v>
+        <v>275.6989486360059</v>
       </c>
       <c r="Y32" t="n">
-        <v>287.0955464322045</v>
+        <v>287.0955464322046</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>79.20892455982012</v>
+        <v>79.20892455982029</v>
       </c>
       <c r="C34" t="n">
-        <v>65.4089194052206</v>
+        <v>65.40891940522077</v>
       </c>
       <c r="D34" t="n">
-        <v>49.03028380279899</v>
+        <v>49.03028380279916</v>
       </c>
       <c r="E34" t="n">
-        <v>47.97803365857844</v>
+        <v>47.97803365857861</v>
       </c>
       <c r="F34" t="n">
-        <v>48.44495798676475</v>
+        <v>48.44495798676492</v>
       </c>
       <c r="G34" t="n">
-        <v>64.47824359581067</v>
+        <v>64.47824359581084</v>
       </c>
       <c r="H34" t="n">
-        <v>53.12161073233683</v>
+        <v>53.121610732337</v>
       </c>
       <c r="I34" t="n">
-        <v>32.9900525384073</v>
+        <v>32.99005253840748</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>34.66068188454692</v>
+        <v>34.6606818845471</v>
       </c>
       <c r="S34" t="n">
-        <v>104.8545326755172</v>
+        <v>104.8545326755174</v>
       </c>
       <c r="T34" t="n">
-        <v>127.3047637349266</v>
+        <v>127.3047637349268</v>
       </c>
       <c r="U34" t="n">
-        <v>181.7942784719497</v>
+        <v>181.7942784719498</v>
       </c>
       <c r="V34" t="n">
-        <v>155.6170609594457</v>
+        <v>155.6170609594459</v>
       </c>
       <c r="W34" t="n">
-        <v>180.783947030059</v>
+        <v>180.7839470300592</v>
       </c>
       <c r="X34" t="n">
-        <v>126.4290490258621</v>
+        <v>126.4290490258623</v>
       </c>
       <c r="Y34" t="n">
-        <v>117.3039167819298</v>
+        <v>117.3039167819299</v>
       </c>
     </row>
     <row r="35">
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>224.1774609749016</v>
+        <v>224.1774609749017</v>
       </c>
       <c r="C35" t="n">
         <v>212.1887779325834</v>
@@ -3281,7 +3281,7 @@
         <v>245.479105493114</v>
       </c>
       <c r="H35" t="n">
-        <v>158.0555978407188</v>
+        <v>158.0555978407189</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>7.166854647404421</v>
+        <v>7.166854647404495</v>
       </c>
       <c r="T35" t="n">
-        <v>53.83375174131453</v>
+        <v>53.83375174131459</v>
       </c>
       <c r="U35" t="n">
-        <v>86.36778393206438</v>
+        <v>86.36778393206444</v>
       </c>
       <c r="V35" t="n">
         <v>167.6838382150808</v>
@@ -3332,7 +3332,7 @@
         <v>212.2841959257843</v>
       </c>
       <c r="Y35" t="n">
-        <v>223.680793721983</v>
+        <v>223.6807937219831</v>
       </c>
     </row>
     <row r="36">
@@ -3421,10 +3421,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>15.79417184959871</v>
+        <v>15.79417184959877</v>
       </c>
       <c r="C37" t="n">
-        <v>1.994166694999194</v>
+        <v>1.994166694999251</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3436,7 +3436,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.063490885589257</v>
+        <v>1.063490885589313</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.1701225577502</v>
+        <v>41.43977996529586</v>
       </c>
       <c r="T37" t="n">
-        <v>63.89001102470516</v>
+        <v>63.89001102470522</v>
       </c>
       <c r="U37" t="n">
-        <v>118.3795257617282</v>
+        <v>118.3795257617283</v>
       </c>
       <c r="V37" t="n">
-        <v>92.2023082492243</v>
+        <v>92.20230824922436</v>
       </c>
       <c r="W37" t="n">
         <v>117.3691943198376</v>
       </c>
       <c r="X37" t="n">
-        <v>63.01429631564068</v>
+        <v>63.01429631564073</v>
       </c>
       <c r="Y37" t="n">
-        <v>53.88916407170836</v>
+        <v>209.6195066641623</v>
       </c>
     </row>
     <row r="38">
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>224.1774609749016</v>
+        <v>224.1774609749017</v>
       </c>
       <c r="C38" t="n">
         <v>212.1887779325834</v>
@@ -3518,7 +3518,7 @@
         <v>245.479105493114</v>
       </c>
       <c r="H38" t="n">
-        <v>158.0555978407188</v>
+        <v>158.0555978407189</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>7.166854647404421</v>
+        <v>7.166854647404506</v>
       </c>
       <c r="T38" t="n">
-        <v>53.83375174131453</v>
+        <v>53.83375174131459</v>
       </c>
       <c r="U38" t="n">
-        <v>86.36778393206438</v>
+        <v>86.36778393206444</v>
       </c>
       <c r="V38" t="n">
         <v>167.6838382150808</v>
@@ -3569,7 +3569,7 @@
         <v>212.2841959257843</v>
       </c>
       <c r="Y38" t="n">
-        <v>223.680793721983</v>
+        <v>223.6807937219831</v>
       </c>
     </row>
     <row r="39">
@@ -3658,10 +3658,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>15.79417184959871</v>
+        <v>15.79417184959877</v>
       </c>
       <c r="C40" t="n">
-        <v>1.994166694999194</v>
+        <v>1.994166694999251</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3673,7 +3673,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.063490885589257</v>
+        <v>1.063490885589313</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3703,31 +3703,31 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>17.93657682909335</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.1701225577502</v>
+        <v>41.43977996529586</v>
       </c>
       <c r="T40" t="n">
-        <v>63.89001102470516</v>
+        <v>201.6837767880657</v>
       </c>
       <c r="U40" t="n">
-        <v>118.3795257617282</v>
+        <v>118.3795257617283</v>
       </c>
       <c r="V40" t="n">
-        <v>92.2023082492243</v>
+        <v>92.20230824922436</v>
       </c>
       <c r="W40" t="n">
         <v>117.3691943198376</v>
       </c>
       <c r="X40" t="n">
-        <v>63.01429631564068</v>
+        <v>63.01429631564073</v>
       </c>
       <c r="Y40" t="n">
-        <v>53.88916407170836</v>
+        <v>53.88916407170842</v>
       </c>
     </row>
     <row r="41">
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>245.2002906584729</v>
+        <v>245.2002906584728</v>
       </c>
       <c r="C41" t="n">
-        <v>198.5615239360113</v>
+        <v>233.2116076161545</v>
       </c>
       <c r="D41" t="n">
-        <v>224.1929116606826</v>
+        <v>224.1929116606825</v>
       </c>
       <c r="E41" t="n">
-        <v>245.9350492305881</v>
+        <v>245.935049230588</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>237.2891849252555</v>
       </c>
       <c r="G41" t="n">
-        <v>266.5019351766852</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>179.07842752429</v>
       </c>
       <c r="I41" t="n">
-        <v>5.437333428712648</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>28.18968433097565</v>
+        <v>28.1896843309756</v>
       </c>
       <c r="T41" t="n">
-        <v>74.85658142488575</v>
+        <v>74.85658142488569</v>
       </c>
       <c r="U41" t="n">
-        <v>107.3906136156356</v>
+        <v>107.3906136156355</v>
       </c>
       <c r="V41" t="n">
-        <v>188.706667898652</v>
+        <v>188.7066678986519</v>
       </c>
       <c r="W41" t="n">
-        <v>214.0067673766089</v>
+        <v>214.0067673766088</v>
       </c>
       <c r="X41" t="n">
-        <v>233.3070256093555</v>
+        <v>233.3070256093554</v>
       </c>
       <c r="Y41" t="n">
-        <v>244.7036234055543</v>
+        <v>244.7036234055542</v>
       </c>
     </row>
     <row r="42">
@@ -3895,25 +3895,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>36.81700153316993</v>
+        <v>36.81700153316987</v>
       </c>
       <c r="C43" t="n">
-        <v>23.01699637857041</v>
+        <v>23.01699637857035</v>
       </c>
       <c r="D43" t="n">
-        <v>6.638360776148801</v>
+        <v>6.638360776148744</v>
       </c>
       <c r="E43" t="n">
-        <v>5.58611063192825</v>
+        <v>5.586110631928193</v>
       </c>
       <c r="F43" t="n">
-        <v>6.053034960114559</v>
+        <v>6.053034960114502</v>
       </c>
       <c r="G43" t="n">
-        <v>22.08632056916047</v>
+        <v>22.08632056916042</v>
       </c>
       <c r="H43" t="n">
-        <v>10.72968770568664</v>
+        <v>10.72968770568659</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>62.46260964886701</v>
+        <v>62.46260964886696</v>
       </c>
       <c r="T43" t="n">
-        <v>84.91284070827638</v>
+        <v>84.91284070827632</v>
       </c>
       <c r="U43" t="n">
-        <v>139.4023554452995</v>
+        <v>139.4023554452994</v>
       </c>
       <c r="V43" t="n">
         <v>113.2251379327955</v>
       </c>
       <c r="W43" t="n">
-        <v>138.3920240034088</v>
+        <v>138.3920240034087</v>
       </c>
       <c r="X43" t="n">
-        <v>84.0371259992119</v>
+        <v>84.03712599921184</v>
       </c>
       <c r="Y43" t="n">
-        <v>74.91199375527958</v>
+        <v>74.91199375527952</v>
       </c>
     </row>
     <row r="44">
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>191.3783908903532</v>
+        <v>245.2002906584728</v>
       </c>
       <c r="C44" t="n">
-        <v>233.2116076161546</v>
+        <v>233.2116076161545</v>
       </c>
       <c r="D44" t="n">
-        <v>224.1929116606826</v>
+        <v>224.1929116606825</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>218.1173688372778</v>
       </c>
       <c r="F44" t="n">
-        <v>265.1068653185653</v>
+        <v>265.1068653185652</v>
       </c>
       <c r="G44" t="n">
-        <v>266.5019351766852</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>179.07842752429</v>
       </c>
       <c r="I44" t="n">
-        <v>5.437333428712648</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>28.18968433097565</v>
+        <v>28.18968433097561</v>
       </c>
       <c r="T44" t="n">
-        <v>74.85658142488575</v>
+        <v>74.85658142488569</v>
       </c>
       <c r="U44" t="n">
-        <v>107.3906136156356</v>
+        <v>107.3906136156355</v>
       </c>
       <c r="V44" t="n">
-        <v>188.706667898652</v>
+        <v>188.7066678986519</v>
       </c>
       <c r="W44" t="n">
-        <v>214.0067673766089</v>
+        <v>214.0067673766088</v>
       </c>
       <c r="X44" t="n">
-        <v>233.3070256093555</v>
+        <v>233.3070256093554</v>
       </c>
       <c r="Y44" t="n">
-        <v>244.7036234055543</v>
+        <v>244.7036234055542</v>
       </c>
     </row>
     <row r="45">
@@ -4132,25 +4132,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>36.81700153316993</v>
+        <v>36.81700153316987</v>
       </c>
       <c r="C46" t="n">
-        <v>23.01699637857041</v>
+        <v>23.01699637857035</v>
       </c>
       <c r="D46" t="n">
-        <v>6.638360776148801</v>
+        <v>6.638360776148744</v>
       </c>
       <c r="E46" t="n">
-        <v>5.58611063192825</v>
+        <v>5.586110631928193</v>
       </c>
       <c r="F46" t="n">
-        <v>6.053034960114559</v>
+        <v>6.053034960114502</v>
       </c>
       <c r="G46" t="n">
-        <v>22.08632056916047</v>
+        <v>22.08632056916042</v>
       </c>
       <c r="H46" t="n">
-        <v>10.72968770568664</v>
+        <v>10.72968770568659</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>62.46260964886701</v>
+        <v>62.46260964886696</v>
       </c>
       <c r="T46" t="n">
-        <v>84.91284070827638</v>
+        <v>84.91284070827632</v>
       </c>
       <c r="U46" t="n">
-        <v>139.4023554452995</v>
+        <v>139.4023554452994</v>
       </c>
       <c r="V46" t="n">
         <v>113.2251379327955</v>
       </c>
       <c r="W46" t="n">
-        <v>138.3920240034088</v>
+        <v>138.3920240034087</v>
       </c>
       <c r="X46" t="n">
-        <v>84.0371259992119</v>
+        <v>84.03712599921184</v>
       </c>
       <c r="Y46" t="n">
-        <v>74.91199375527958</v>
+        <v>74.91199375527952</v>
       </c>
     </row>
   </sheetData>
@@ -5015,49 +5015,49 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1200.878245863048</v>
+        <v>839.0865074360281</v>
       </c>
       <c r="C11" t="n">
-        <v>922.4908411733462</v>
+        <v>678.8249748543551</v>
       </c>
       <c r="D11" t="n">
-        <v>653.2132303780605</v>
+        <v>409.5473640590693</v>
       </c>
       <c r="E11" t="n">
-        <v>361.9738644616582</v>
+        <v>409.5473640590693</v>
       </c>
       <c r="F11" t="n">
-        <v>361.9738644616582</v>
+        <v>98.94252734673046</v>
       </c>
       <c r="G11" t="n">
-        <v>274.3375718877176</v>
+        <v>98.94252734673046</v>
       </c>
       <c r="H11" t="n">
-        <v>50.63014708878809</v>
+        <v>98.94252734673046</v>
       </c>
       <c r="I11" t="n">
         <v>50.63014708878809</v>
       </c>
       <c r="J11" t="n">
-        <v>167.8507883414696</v>
+        <v>50.63014708878809</v>
       </c>
       <c r="K11" t="n">
-        <v>439.7849389961412</v>
+        <v>358.5467198870886</v>
       </c>
       <c r="L11" t="n">
-        <v>871.7526822974589</v>
+        <v>790.5144631884061</v>
       </c>
       <c r="M11" t="n">
-        <v>1358.549686354551</v>
+        <v>1206.579292486445</v>
       </c>
       <c r="N11" t="n">
-        <v>1831.952746473648</v>
+        <v>1679.982352605542</v>
       </c>
       <c r="O11" t="n">
-        <v>2226.730842692082</v>
+        <v>2074.760448823975</v>
       </c>
       <c r="P11" t="n">
-        <v>2531.507354439404</v>
+        <v>2379.536960571297</v>
       </c>
       <c r="Q11" t="n">
         <v>2531.507354439404</v>
@@ -5066,25 +5066,25 @@
         <v>2531.507354439404</v>
       </c>
       <c r="S11" t="n">
-        <v>2531.507354439404</v>
+        <v>2460.212801552913</v>
       </c>
       <c r="T11" t="n">
-        <v>2413.074521660075</v>
+        <v>2341.779968773584</v>
       </c>
       <c r="U11" t="n">
-        <v>2261.779030102211</v>
+        <v>2190.48447721572</v>
       </c>
       <c r="V11" t="n">
-        <v>2028.346109975643</v>
+        <v>1957.051557089152</v>
       </c>
       <c r="W11" t="n">
-        <v>1769.357533810735</v>
+        <v>1698.062980924244</v>
       </c>
       <c r="X11" t="n">
-        <v>1490.873747309719</v>
+        <v>1419.579194423228</v>
       </c>
       <c r="Y11" t="n">
-        <v>1200.878245863048</v>
+        <v>1129.583692976556</v>
       </c>
     </row>
     <row r="12">
@@ -5094,46 +5094,46 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>916.8282409603515</v>
+        <v>916.8282409603523</v>
       </c>
       <c r="C12" t="n">
-        <v>755.1245682013063</v>
+        <v>755.1245682013071</v>
       </c>
       <c r="D12" t="n">
-        <v>616.2859311915183</v>
+        <v>616.2859311915191</v>
       </c>
       <c r="E12" t="n">
-        <v>469.2579212483896</v>
+        <v>469.2579212483903</v>
       </c>
       <c r="F12" t="n">
-        <v>334.5641231982639</v>
+        <v>334.5641231982647</v>
       </c>
       <c r="G12" t="n">
-        <v>206.1264932596565</v>
+        <v>206.1264932596572</v>
       </c>
       <c r="H12" t="n">
-        <v>108.9978280165022</v>
+        <v>108.9978280165029</v>
       </c>
       <c r="I12" t="n">
         <v>50.63014708878809</v>
       </c>
       <c r="J12" t="n">
-        <v>102.5809113729908</v>
+        <v>137.8182647807294</v>
       </c>
       <c r="K12" t="n">
-        <v>378.105910623437</v>
+        <v>306.9190959167647</v>
       </c>
       <c r="L12" t="n">
-        <v>378.105910623437</v>
+        <v>734.6399356655041</v>
       </c>
       <c r="M12" t="n">
-        <v>935.3724712199598</v>
+        <v>1291.906496262027</v>
       </c>
       <c r="N12" t="n">
-        <v>1520.783122484337</v>
+        <v>1877.317147526404</v>
       </c>
       <c r="O12" t="n">
-        <v>1980.811267570207</v>
+        <v>2337.345292612274</v>
       </c>
       <c r="P12" t="n">
         <v>2337.345292612274</v>
@@ -5157,13 +5157,13 @@
         <v>1708.001866980929</v>
       </c>
       <c r="W12" t="n">
-        <v>1466.685998214239</v>
+        <v>1466.68599821424</v>
       </c>
       <c r="X12" t="n">
         <v>1268.769010092034</v>
       </c>
       <c r="Y12" t="n">
-        <v>1076.247683741612</v>
+        <v>1076.247683741613</v>
       </c>
     </row>
     <row r="13">
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>415.7332801392106</v>
+        <v>415.7332801392099</v>
       </c>
       <c r="C13" t="n">
-        <v>349.6636645783817</v>
+        <v>349.663664578381</v>
       </c>
       <c r="D13" t="n">
-        <v>300.1381253836352</v>
+        <v>300.1381253836345</v>
       </c>
       <c r="E13" t="n">
-        <v>251.6754651224448</v>
+        <v>251.6754651224441</v>
       </c>
       <c r="F13" t="n">
-        <v>202.7411641257125</v>
+        <v>202.741164125712</v>
       </c>
       <c r="G13" t="n">
         <v>137.6116251400449</v>
@@ -5200,49 +5200,49 @@
         <v>110.1513370255059</v>
       </c>
       <c r="K13" t="n">
-        <v>273.0091025604551</v>
+        <v>273.0091025604547</v>
       </c>
       <c r="L13" t="n">
-        <v>510.6351825853238</v>
+        <v>510.6351825853235</v>
       </c>
       <c r="M13" t="n">
-        <v>767.5792676530623</v>
+        <v>767.5792676530621</v>
       </c>
       <c r="N13" t="n">
-        <v>1024.061359198406</v>
+        <v>1024.061359198405</v>
       </c>
       <c r="O13" t="n">
-        <v>1257.792766586067</v>
+        <v>1257.792766586066</v>
       </c>
       <c r="P13" t="n">
-        <v>1451.153351206126</v>
+        <v>1451.153351206125</v>
       </c>
       <c r="Q13" t="n">
-        <v>1534.881921678662</v>
+        <v>1534.881921678661</v>
       </c>
       <c r="R13" t="n">
-        <v>1499.871131896292</v>
+        <v>1499.871131896291</v>
       </c>
       <c r="S13" t="n">
         <v>1393.957462527082</v>
       </c>
       <c r="T13" t="n">
-        <v>1265.366792087763</v>
+        <v>1265.366792087762</v>
       </c>
       <c r="U13" t="n">
-        <v>1081.736207772662</v>
+        <v>1081.736207772661</v>
       </c>
       <c r="V13" t="n">
-        <v>924.5472573085752</v>
+        <v>924.5472573085746</v>
       </c>
       <c r="W13" t="n">
-        <v>741.9372098034653</v>
+        <v>741.9372098034645</v>
       </c>
       <c r="X13" t="n">
-        <v>614.2310996763318</v>
+        <v>614.231099676331</v>
       </c>
       <c r="Y13" t="n">
-        <v>495.7422948460997</v>
+        <v>495.742294846099</v>
       </c>
     </row>
     <row r="14">
@@ -5252,49 +5252,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1560.465743645646</v>
+        <v>1407.565795383716</v>
       </c>
       <c r="C14" t="n">
-        <v>1282.078338955944</v>
+        <v>1407.565795383716</v>
       </c>
       <c r="D14" t="n">
-        <v>1012.800728160659</v>
+        <v>1188.195772701646</v>
       </c>
       <c r="E14" t="n">
-        <v>721.5613622442564</v>
+        <v>896.9564067852438</v>
       </c>
       <c r="F14" t="n">
-        <v>410.9565255319176</v>
+        <v>586.3515700729049</v>
       </c>
       <c r="G14" t="n">
-        <v>98.94252734673037</v>
+        <v>274.3375718877176</v>
       </c>
       <c r="H14" t="n">
-        <v>98.94252734673037</v>
+        <v>50.63014708878809</v>
       </c>
       <c r="I14" t="n">
         <v>50.63014708878809</v>
       </c>
       <c r="J14" t="n">
-        <v>131.8683661978407</v>
+        <v>167.8507883414696</v>
       </c>
       <c r="K14" t="n">
-        <v>439.7849389961412</v>
+        <v>475.7673611397701</v>
       </c>
       <c r="L14" t="n">
-        <v>871.7526822974589</v>
+        <v>907.7351044410877</v>
       </c>
       <c r="M14" t="n">
-        <v>1358.549686354551</v>
+        <v>1394.53210849818</v>
       </c>
       <c r="N14" t="n">
-        <v>1831.952746473648</v>
+        <v>1867.935168617277</v>
       </c>
       <c r="O14" t="n">
-        <v>2226.730842692082</v>
+        <v>2262.713264835711</v>
       </c>
       <c r="P14" t="n">
-        <v>2531.507354439404</v>
+        <v>2379.536960571297</v>
       </c>
       <c r="Q14" t="n">
         <v>2531.507354439404</v>
@@ -5315,13 +5315,13 @@
         <v>1957.051557089152</v>
       </c>
       <c r="W14" t="n">
-        <v>1957.051557089152</v>
+        <v>1698.062980924244</v>
       </c>
       <c r="X14" t="n">
-        <v>1678.567770588136</v>
+        <v>1698.062980924244</v>
       </c>
       <c r="Y14" t="n">
-        <v>1678.567770588136</v>
+        <v>1698.062980924244</v>
       </c>
     </row>
     <row r="15">
@@ -5358,13 +5358,13 @@
         <v>50.63014708878809</v>
       </c>
       <c r="K15" t="n">
-        <v>50.63014708878809</v>
+        <v>326.1551463392342</v>
       </c>
       <c r="L15" t="n">
-        <v>478.3509868375276</v>
+        <v>753.8759860879736</v>
       </c>
       <c r="M15" t="n">
-        <v>1035.61754743405</v>
+        <v>935.3724712199593</v>
       </c>
       <c r="N15" t="n">
         <v>1520.783122484336</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>415.7332801392101</v>
+        <v>415.7332801392105</v>
       </c>
       <c r="C16" t="n">
-        <v>349.6636645783812</v>
+        <v>349.6636645783816</v>
       </c>
       <c r="D16" t="n">
-        <v>300.1381253836347</v>
+        <v>300.1381253836351</v>
       </c>
       <c r="E16" t="n">
-        <v>251.6754651224443</v>
+        <v>251.6754651224447</v>
       </c>
       <c r="F16" t="n">
-        <v>202.7411641257122</v>
+        <v>202.7411641257124</v>
       </c>
       <c r="G16" t="n">
         <v>137.6116251400449</v>
@@ -5434,19 +5434,19 @@
         <v>50.63014708878809</v>
       </c>
       <c r="J16" t="n">
-        <v>110.1513370255059</v>
+        <v>110.1513370255058</v>
       </c>
       <c r="K16" t="n">
         <v>273.0091025604549</v>
       </c>
       <c r="L16" t="n">
-        <v>510.6351825853231</v>
+        <v>510.6351825853237</v>
       </c>
       <c r="M16" t="n">
-        <v>767.5792676530618</v>
+        <v>767.5792676530623</v>
       </c>
       <c r="N16" t="n">
-        <v>1024.061359198405</v>
+        <v>1024.061359198406</v>
       </c>
       <c r="O16" t="n">
         <v>1257.792766586066</v>
@@ -5467,19 +5467,19 @@
         <v>1265.366792087762</v>
       </c>
       <c r="U16" t="n">
-        <v>1081.736207772661</v>
+        <v>1081.736207772662</v>
       </c>
       <c r="V16" t="n">
-        <v>924.5472573085748</v>
+        <v>924.547257308575</v>
       </c>
       <c r="W16" t="n">
-        <v>741.9372098034647</v>
+        <v>741.9372098034651</v>
       </c>
       <c r="X16" t="n">
-        <v>614.2310996763313</v>
+        <v>614.2310996763316</v>
       </c>
       <c r="Y16" t="n">
-        <v>495.7422948460992</v>
+        <v>495.7422948460995</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1351.528953579231</v>
+        <v>1351.528953579232</v>
       </c>
       <c r="C17" t="n">
         <v>1137.19685465743</v>
       </c>
       <c r="D17" t="n">
-        <v>931.9745496300446</v>
+        <v>931.974549630045</v>
       </c>
       <c r="E17" t="n">
-        <v>704.7904894815426</v>
+        <v>704.7904894815429</v>
       </c>
       <c r="F17" t="n">
-        <v>458.2409585371042</v>
+        <v>458.2409585371045</v>
       </c>
       <c r="G17" t="n">
-        <v>210.2822661198173</v>
+        <v>210.2822661198172</v>
       </c>
       <c r="H17" t="n">
         <v>50.63014708878809</v>
@@ -5516,19 +5516,19 @@
         <v>167.8507883414696</v>
       </c>
       <c r="K17" t="n">
-        <v>475.7673611397702</v>
+        <v>475.7673611397701</v>
       </c>
       <c r="L17" t="n">
-        <v>719.7822884293516</v>
+        <v>907.7351044410877</v>
       </c>
       <c r="M17" t="n">
-        <v>1206.579292486444</v>
+        <v>1394.53210849818</v>
       </c>
       <c r="N17" t="n">
-        <v>1679.982352605541</v>
+        <v>1679.982352605542</v>
       </c>
       <c r="O17" t="n">
-        <v>2074.760448823974</v>
+        <v>2074.760448823975</v>
       </c>
       <c r="P17" t="n">
         <v>2379.536960571297</v>
@@ -5540,16 +5540,16 @@
         <v>2531.507354439404</v>
       </c>
       <c r="S17" t="n">
-        <v>2524.268107320814</v>
+        <v>2524.268107320815</v>
       </c>
       <c r="T17" t="n">
-        <v>2469.890580309385</v>
+        <v>2469.890580309386</v>
       </c>
       <c r="U17" t="n">
         <v>2382.650394519421</v>
       </c>
       <c r="V17" t="n">
-        <v>2213.272780160753</v>
+        <v>2213.272780160754</v>
       </c>
       <c r="W17" t="n">
         <v>2018.339509763746</v>
@@ -5592,13 +5592,13 @@
         <v>50.63014708878809</v>
       </c>
       <c r="J18" t="n">
-        <v>137.8182647807295</v>
+        <v>137.8182647807294</v>
       </c>
       <c r="K18" t="n">
-        <v>413.3432640311756</v>
+        <v>413.3432640311755</v>
       </c>
       <c r="L18" t="n">
-        <v>841.0641037799152</v>
+        <v>841.0641037799151</v>
       </c>
       <c r="M18" t="n">
         <v>1398.330664376438</v>
@@ -5677,31 +5677,31 @@
         <v>112.0021310903985</v>
       </c>
       <c r="L19" t="n">
-        <v>248.1424295819286</v>
+        <v>248.1424295819285</v>
       </c>
       <c r="M19" t="n">
-        <v>403.6007331163286</v>
+        <v>403.6007331163285</v>
       </c>
       <c r="N19" t="n">
-        <v>558.5970431283331</v>
+        <v>558.597043128333</v>
       </c>
       <c r="O19" t="n">
-        <v>690.8426689826553</v>
+        <v>690.8426689826551</v>
       </c>
       <c r="P19" t="n">
-        <v>782.7174720693758</v>
+        <v>782.7174720693757</v>
       </c>
       <c r="Q19" t="n">
-        <v>782.7174720693758</v>
+        <v>782.7174720693757</v>
       </c>
       <c r="R19" t="n">
-        <v>782.7174720693758</v>
+        <v>782.7174720693757</v>
       </c>
       <c r="S19" t="n">
-        <v>740.8591084680669</v>
+        <v>583.5557321120525</v>
       </c>
       <c r="T19" t="n">
-        <v>676.3237437966475</v>
+        <v>519.0203674406331</v>
       </c>
       <c r="U19" t="n">
         <v>399.4450888934328</v>
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1351.528953579233</v>
+        <v>1351.528953579231</v>
       </c>
       <c r="C20" t="n">
-        <v>1137.196854657431</v>
+        <v>1137.19685465743</v>
       </c>
       <c r="D20" t="n">
-        <v>931.9745496300461</v>
+        <v>931.9745496300447</v>
       </c>
       <c r="E20" t="n">
-        <v>704.790489481544</v>
+        <v>704.7904894815429</v>
       </c>
       <c r="F20" t="n">
-        <v>458.2409585371056</v>
+        <v>458.2409585371042</v>
       </c>
       <c r="G20" t="n">
         <v>210.2822661198172</v>
@@ -5753,19 +5753,19 @@
         <v>167.8507883414696</v>
       </c>
       <c r="K20" t="n">
-        <v>475.7673611397702</v>
+        <v>475.7673611397701</v>
       </c>
       <c r="L20" t="n">
-        <v>719.7822884293516</v>
+        <v>907.7351044410877</v>
       </c>
       <c r="M20" t="n">
-        <v>1206.579292486444</v>
+        <v>1206.579292486445</v>
       </c>
       <c r="N20" t="n">
-        <v>1679.982352605541</v>
+        <v>1679.982352605542</v>
       </c>
       <c r="O20" t="n">
-        <v>2074.760448823974</v>
+        <v>2074.760448823975</v>
       </c>
       <c r="P20" t="n">
         <v>2379.536960571297</v>
@@ -5777,25 +5777,25 @@
         <v>2531.507354439404</v>
       </c>
       <c r="S20" t="n">
-        <v>2524.268107320814</v>
+        <v>2524.268107320815</v>
       </c>
       <c r="T20" t="n">
         <v>2469.890580309386</v>
       </c>
       <c r="U20" t="n">
-        <v>2382.650394519422</v>
+        <v>2382.650394519421</v>
       </c>
       <c r="V20" t="n">
         <v>2213.272780160754</v>
       </c>
       <c r="W20" t="n">
-        <v>2018.339509763747</v>
+        <v>2018.339509763746</v>
       </c>
       <c r="X20" t="n">
         <v>1803.911029030631</v>
       </c>
       <c r="Y20" t="n">
-        <v>1577.970833351861</v>
+        <v>1577.97083335186</v>
       </c>
     </row>
     <row r="21">
@@ -5820,7 +5820,7 @@
         <v>334.5641231982639</v>
       </c>
       <c r="G21" t="n">
-        <v>206.1264932596564</v>
+        <v>206.1264932596566</v>
       </c>
       <c r="H21" t="n">
         <v>108.9978280165022</v>
@@ -5829,16 +5829,16 @@
         <v>50.63014708878809</v>
       </c>
       <c r="J21" t="n">
-        <v>137.8182647807295</v>
+        <v>137.8182647807294</v>
       </c>
       <c r="K21" t="n">
-        <v>413.3432640311756</v>
+        <v>413.3432640311755</v>
       </c>
       <c r="L21" t="n">
-        <v>841.0641037799152</v>
+        <v>841.0641037799151</v>
       </c>
       <c r="M21" t="n">
-        <v>1398.330664376438</v>
+        <v>935.3724712199602</v>
       </c>
       <c r="N21" t="n">
         <v>1520.783122484337</v>
@@ -5914,43 +5914,43 @@
         <v>112.0021310903985</v>
       </c>
       <c r="L22" t="n">
-        <v>248.1424295819286</v>
+        <v>248.1424295819285</v>
       </c>
       <c r="M22" t="n">
-        <v>403.6007331163286</v>
+        <v>403.6007331163285</v>
       </c>
       <c r="N22" t="n">
-        <v>558.5970431283331</v>
+        <v>558.597043128333</v>
       </c>
       <c r="O22" t="n">
-        <v>690.8426689826553</v>
+        <v>690.8426689826551</v>
       </c>
       <c r="P22" t="n">
-        <v>782.7174720693758</v>
+        <v>782.7174720693757</v>
       </c>
       <c r="Q22" t="n">
-        <v>782.7174720693758</v>
+        <v>782.7174720693757</v>
       </c>
       <c r="R22" t="n">
-        <v>782.7174720693758</v>
+        <v>782.7174720693757</v>
       </c>
       <c r="S22" t="n">
-        <v>740.8591084680669</v>
+        <v>583.5557321120525</v>
       </c>
       <c r="T22" t="n">
-        <v>676.3237437966475</v>
+        <v>519.0203674406331</v>
       </c>
       <c r="U22" t="n">
-        <v>556.7484652494472</v>
+        <v>399.4450888934328</v>
       </c>
       <c r="V22" t="n">
-        <v>463.614820553261</v>
+        <v>306.3114441972466</v>
       </c>
       <c r="W22" t="n">
-        <v>345.0600788160514</v>
+        <v>187.7567024600369</v>
       </c>
       <c r="X22" t="n">
-        <v>281.4092744568183</v>
+        <v>124.1058981008039</v>
       </c>
       <c r="Y22" t="n">
         <v>69.67239903847218</v>
@@ -5969,22 +5969,22 @@
         <v>1137.19685465743</v>
       </c>
       <c r="D23" t="n">
-        <v>931.9745496300447</v>
+        <v>931.9745496300445</v>
       </c>
       <c r="E23" t="n">
-        <v>704.7904894815424</v>
+        <v>704.7904894815426</v>
       </c>
       <c r="F23" t="n">
         <v>458.2409585371042</v>
       </c>
       <c r="G23" t="n">
-        <v>210.2822661198172</v>
+        <v>210.2822661198173</v>
       </c>
       <c r="H23" t="n">
-        <v>50.63014708878807</v>
+        <v>50.63014708878809</v>
       </c>
       <c r="I23" t="n">
-        <v>50.63014708878807</v>
+        <v>50.63014708878809</v>
       </c>
       <c r="J23" t="n">
         <v>167.8507883414696</v>
@@ -5999,13 +5999,13 @@
         <v>1394.53210849818</v>
       </c>
       <c r="N23" t="n">
-        <v>1679.98235260554</v>
+        <v>1679.982352605542</v>
       </c>
       <c r="O23" t="n">
-        <v>2074.760448823974</v>
+        <v>2074.760448823975</v>
       </c>
       <c r="P23" t="n">
-        <v>2379.536960571296</v>
+        <v>2379.536960571297</v>
       </c>
       <c r="Q23" t="n">
         <v>2531.507354439404</v>
@@ -6014,10 +6014,10 @@
         <v>2531.507354439404</v>
       </c>
       <c r="S23" t="n">
-        <v>2524.268107320813</v>
+        <v>2524.268107320814</v>
       </c>
       <c r="T23" t="n">
-        <v>2469.890580309384</v>
+        <v>2469.890580309385</v>
       </c>
       <c r="U23" t="n">
         <v>2382.650394519421</v>
@@ -6029,7 +6029,7 @@
         <v>2018.339509763746</v>
       </c>
       <c r="X23" t="n">
-        <v>1803.911029030631</v>
+        <v>1803.91102903063</v>
       </c>
       <c r="Y23" t="n">
         <v>1577.970833351859</v>
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>916.8282409603514</v>
+        <v>916.8282409603523</v>
       </c>
       <c r="C24" t="n">
-        <v>755.1245682013061</v>
+        <v>755.1245682013071</v>
       </c>
       <c r="D24" t="n">
-        <v>616.2859311915182</v>
+        <v>616.2859311915191</v>
       </c>
       <c r="E24" t="n">
-        <v>469.2579212483894</v>
+        <v>469.2579212483903</v>
       </c>
       <c r="F24" t="n">
-        <v>334.5641231982638</v>
+        <v>334.5641231982647</v>
       </c>
       <c r="G24" t="n">
-        <v>206.1264932596563</v>
+        <v>206.1264932596572</v>
       </c>
       <c r="H24" t="n">
-        <v>108.997828016502</v>
+        <v>108.9978280165029</v>
       </c>
       <c r="I24" t="n">
-        <v>50.63014708878807</v>
+        <v>50.63014708878809</v>
       </c>
       <c r="J24" t="n">
         <v>137.8182647807294</v>
       </c>
       <c r="K24" t="n">
-        <v>137.8182647807294</v>
+        <v>413.3432640311755</v>
       </c>
       <c r="L24" t="n">
-        <v>378.1059106234362</v>
+        <v>841.0641037799151</v>
       </c>
       <c r="M24" t="n">
-        <v>935.3724712199589</v>
+        <v>1398.330664376438</v>
       </c>
       <c r="N24" t="n">
-        <v>1520.783122484336</v>
+        <v>1520.783122484337</v>
       </c>
       <c r="O24" t="n">
-        <v>1980.811267570206</v>
+        <v>1980.811267570207</v>
       </c>
       <c r="P24" t="n">
-        <v>2337.345292612273</v>
+        <v>2337.345292612274</v>
       </c>
       <c r="Q24" t="n">
         <v>2531.507354439404</v>
       </c>
       <c r="R24" t="n">
-        <v>2489.782542812665</v>
+        <v>2489.782542812666</v>
       </c>
       <c r="S24" t="n">
-        <v>2342.385839208682</v>
+        <v>2342.385839208683</v>
       </c>
       <c r="T24" t="n">
-        <v>2154.873145747567</v>
+        <v>2154.873145747568</v>
       </c>
       <c r="U24" t="n">
-        <v>1936.397489532595</v>
+        <v>1936.397489532596</v>
       </c>
       <c r="V24" t="n">
         <v>1708.001866980929</v>
       </c>
       <c r="W24" t="n">
-        <v>1466.685998214239</v>
+        <v>1466.68599821424</v>
       </c>
       <c r="X24" t="n">
-        <v>1268.769010092033</v>
+        <v>1268.769010092034</v>
       </c>
       <c r="Y24" t="n">
-        <v>1076.247683741612</v>
+        <v>1076.247683741613</v>
       </c>
     </row>
     <row r="25">
@@ -6121,34 +6121,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>53.71869009948353</v>
+        <v>53.71869009948355</v>
       </c>
       <c r="C25" t="n">
-        <v>51.70438030655502</v>
+        <v>51.70438030655504</v>
       </c>
       <c r="D25" t="n">
-        <v>51.70438030655502</v>
+        <v>51.70438030655504</v>
       </c>
       <c r="E25" t="n">
-        <v>51.70438030655502</v>
+        <v>51.70438030655504</v>
       </c>
       <c r="F25" t="n">
-        <v>51.70438030655502</v>
+        <v>51.70438030655504</v>
       </c>
       <c r="G25" t="n">
-        <v>50.63014708878807</v>
+        <v>50.63014708878809</v>
       </c>
       <c r="H25" t="n">
-        <v>50.63014708878807</v>
+        <v>50.63014708878809</v>
       </c>
       <c r="I25" t="n">
-        <v>50.63014708878807</v>
+        <v>50.63014708878809</v>
       </c>
       <c r="J25" t="n">
-        <v>50.63014708878807</v>
+        <v>50.63014708878809</v>
       </c>
       <c r="K25" t="n">
-        <v>112.0021310903984</v>
+        <v>112.0021310903985</v>
       </c>
       <c r="L25" t="n">
         <v>248.1424295819285</v>
@@ -6184,13 +6184,13 @@
         <v>463.6148205532609</v>
       </c>
       <c r="W25" t="n">
-        <v>345.0600788160513</v>
+        <v>187.7567024600369</v>
       </c>
       <c r="X25" t="n">
         <v>124.1058981008039</v>
       </c>
       <c r="Y25" t="n">
-        <v>69.67239903847216</v>
+        <v>69.67239903847218</v>
       </c>
     </row>
     <row r="26">
@@ -6209,13 +6209,13 @@
         <v>1255.795635837315</v>
       </c>
       <c r="E26" t="n">
-        <v>964.5562699209128</v>
+        <v>964.5562699209124</v>
       </c>
       <c r="F26" t="n">
-        <v>653.9514332085739</v>
+        <v>653.9514332085736</v>
       </c>
       <c r="G26" t="n">
-        <v>341.9374350233866</v>
+        <v>341.9374350233854</v>
       </c>
       <c r="H26" t="n">
         <v>118.2300102244559</v>
@@ -6224,31 +6224,31 @@
         <v>69.91762996651357</v>
       </c>
       <c r="J26" t="n">
-        <v>288.6240527525338</v>
+        <v>187.7509417915346</v>
       </c>
       <c r="K26" t="n">
-        <v>698.0264070841731</v>
+        <v>597.1532961231738</v>
       </c>
       <c r="L26" t="n">
-        <v>1231.47993191883</v>
+        <v>1130.60682095783</v>
       </c>
       <c r="M26" t="n">
-        <v>1819.762717509261</v>
+        <v>1718.889606548261</v>
       </c>
       <c r="N26" t="n">
-        <v>2394.651559161696</v>
+        <v>2293.778448200697</v>
       </c>
       <c r="O26" t="n">
-        <v>2890.915436913468</v>
+        <v>2790.042325952469</v>
       </c>
       <c r="P26" t="n">
-        <v>3297.177730194129</v>
+        <v>3196.30461923313</v>
       </c>
       <c r="Q26" t="n">
         <v>3449.760794634576</v>
       </c>
       <c r="R26" t="n">
-        <v>3495.881498325678</v>
+        <v>3495.881498325679</v>
       </c>
       <c r="S26" t="n">
         <v>3424.586945439188</v>
@@ -6288,28 +6288,28 @@
         <v>635.5734140692439</v>
       </c>
       <c r="E27" t="n">
-        <v>488.545404126115</v>
+        <v>488.5454041261152</v>
       </c>
       <c r="F27" t="n">
-        <v>353.8516060759894</v>
+        <v>353.8516060759895</v>
       </c>
       <c r="G27" t="n">
-        <v>225.4139761373819</v>
+        <v>225.413976137382</v>
       </c>
       <c r="H27" t="n">
-        <v>128.2853108942276</v>
+        <v>128.2853108942277</v>
       </c>
       <c r="I27" t="n">
         <v>69.91762996651357</v>
       </c>
       <c r="J27" t="n">
-        <v>157.105747658455</v>
+        <v>157.1057476584549</v>
       </c>
       <c r="K27" t="n">
-        <v>432.6307469089011</v>
+        <v>432.630746908901</v>
       </c>
       <c r="L27" t="n">
-        <v>860.3515866576406</v>
+        <v>860.3515866576405</v>
       </c>
       <c r="M27" t="n">
         <v>1417.618147254163</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>435.0207630169357</v>
+        <v>435.0207630169353</v>
       </c>
       <c r="C28" t="n">
-        <v>368.9511474561068</v>
+        <v>368.9511474561064</v>
       </c>
       <c r="D28" t="n">
-        <v>319.4256082613603</v>
+        <v>319.4256082613599</v>
       </c>
       <c r="E28" t="n">
-        <v>270.9629480001699</v>
+        <v>270.9629480001695</v>
       </c>
       <c r="F28" t="n">
-        <v>222.0286470034378</v>
+        <v>222.0286470034374</v>
       </c>
       <c r="G28" t="n">
-        <v>156.8991080177705</v>
+        <v>156.89910801777</v>
       </c>
       <c r="H28" t="n">
         <v>103.2409153588442</v>
@@ -6382,16 +6382,16 @@
         <v>69.91762996651357</v>
       </c>
       <c r="J28" t="n">
-        <v>129.4388199032311</v>
+        <v>129.4388199032313</v>
       </c>
       <c r="K28" t="n">
         <v>292.2965854381804</v>
       </c>
       <c r="L28" t="n">
-        <v>529.9226654630493</v>
+        <v>529.9226654630492</v>
       </c>
       <c r="M28" t="n">
-        <v>786.8667505307878</v>
+        <v>786.8667505307877</v>
       </c>
       <c r="N28" t="n">
         <v>1043.348842076131</v>
@@ -6403,10 +6403,10 @@
         <v>1470.440834083851</v>
       </c>
       <c r="Q28" t="n">
-        <v>1554.169404556388</v>
+        <v>1554.169404556387</v>
       </c>
       <c r="R28" t="n">
-        <v>1519.158614774017</v>
+        <v>1519.158614774016</v>
       </c>
       <c r="S28" t="n">
         <v>1413.244945404807</v>
@@ -6418,16 +6418,16 @@
         <v>1101.023690650387</v>
       </c>
       <c r="V28" t="n">
-        <v>943.8347401863003</v>
+        <v>943.8347401863002</v>
       </c>
       <c r="W28" t="n">
-        <v>761.2246926811903</v>
+        <v>761.22469268119</v>
       </c>
       <c r="X28" t="n">
-        <v>633.5185825540568</v>
+        <v>633.5185825540566</v>
       </c>
       <c r="Y28" t="n">
-        <v>515.0297777238247</v>
+        <v>515.0297777238244</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1803.460651322301</v>
+        <v>1803.460651322303</v>
       </c>
       <c r="C29" t="n">
-        <v>1525.073246632599</v>
+        <v>1525.073246632601</v>
       </c>
       <c r="D29" t="n">
-        <v>1255.795635837314</v>
+        <v>1255.795635837315</v>
       </c>
       <c r="E29" t="n">
-        <v>964.5562699209113</v>
+        <v>964.5562699209124</v>
       </c>
       <c r="F29" t="n">
-        <v>653.9514332085723</v>
+        <v>653.9514332085736</v>
       </c>
       <c r="G29" t="n">
-        <v>341.9374350233852</v>
+        <v>341.9374350233861</v>
       </c>
       <c r="H29" t="n">
-        <v>118.2300102244558</v>
+        <v>118.2300102244559</v>
       </c>
       <c r="I29" t="n">
-        <v>69.91762996651356</v>
+        <v>69.91762996651357</v>
       </c>
       <c r="J29" t="n">
-        <v>288.6240527525338</v>
+        <v>288.6240527525337</v>
       </c>
       <c r="K29" t="n">
-        <v>597.1532961231727</v>
+        <v>698.0264070841729</v>
       </c>
       <c r="L29" t="n">
-        <v>1130.606820957829</v>
+        <v>1231.479931918829</v>
       </c>
       <c r="M29" t="n">
-        <v>1718.88960654826</v>
+        <v>1718.889606548261</v>
       </c>
       <c r="N29" t="n">
-        <v>2293.778448200696</v>
+        <v>2293.778448200697</v>
       </c>
       <c r="O29" t="n">
-        <v>2790.042325952468</v>
+        <v>2790.042325952469</v>
       </c>
       <c r="P29" t="n">
-        <v>3196.304619233129</v>
+        <v>3196.30461923313</v>
       </c>
       <c r="Q29" t="n">
-        <v>3449.760794634575</v>
+        <v>3449.760794634576</v>
       </c>
       <c r="R29" t="n">
-        <v>3495.881498325678</v>
+        <v>3495.881498325679</v>
       </c>
       <c r="S29" t="n">
-        <v>3424.586945439187</v>
+        <v>3424.586945439188</v>
       </c>
       <c r="T29" t="n">
-        <v>3306.154112659858</v>
+        <v>3306.154112659859</v>
       </c>
       <c r="U29" t="n">
-        <v>3154.858621101993</v>
+        <v>3154.858621101994</v>
       </c>
       <c r="V29" t="n">
         <v>2921.425700975426</v>
       </c>
       <c r="W29" t="n">
-        <v>2662.437124810517</v>
+        <v>2662.437124810518</v>
       </c>
       <c r="X29" t="n">
-        <v>2383.953338309501</v>
+        <v>2383.953338309502</v>
       </c>
       <c r="Y29" t="n">
-        <v>2093.957836862829</v>
+        <v>2093.957836862831</v>
       </c>
     </row>
     <row r="30">
@@ -6534,31 +6534,31 @@
         <v>225.413976137382</v>
       </c>
       <c r="H30" t="n">
-        <v>128.2853108942276</v>
+        <v>128.2853108942277</v>
       </c>
       <c r="I30" t="n">
-        <v>69.91762996651356</v>
+        <v>69.91762996651357</v>
       </c>
       <c r="J30" t="n">
-        <v>69.91762996651356</v>
+        <v>157.1057476584549</v>
       </c>
       <c r="K30" t="n">
-        <v>345.4426292169597</v>
+        <v>432.630746908901</v>
       </c>
       <c r="L30" t="n">
-        <v>773.1634689656992</v>
+        <v>860.3515866576405</v>
       </c>
       <c r="M30" t="n">
-        <v>1330.430029562222</v>
+        <v>1417.618147254163</v>
       </c>
       <c r="N30" t="n">
-        <v>1915.840680826599</v>
+        <v>1540.070605362062</v>
       </c>
       <c r="O30" t="n">
-        <v>2194.260812275063</v>
+        <v>2000.098750447932</v>
       </c>
       <c r="P30" t="n">
-        <v>2550.794837317129</v>
+        <v>2356.632775489998</v>
       </c>
       <c r="Q30" t="n">
         <v>2550.794837317129</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>435.0207630169356</v>
+        <v>435.0207630169358</v>
       </c>
       <c r="C31" t="n">
-        <v>368.9511474561067</v>
+        <v>368.9511474561069</v>
       </c>
       <c r="D31" t="n">
-        <v>319.4256082613602</v>
+        <v>319.4256082613604</v>
       </c>
       <c r="E31" t="n">
-        <v>270.9629480001698</v>
+        <v>270.9629480001699</v>
       </c>
       <c r="F31" t="n">
-        <v>222.0286470034377</v>
+        <v>222.0286470034378</v>
       </c>
       <c r="G31" t="n">
-        <v>156.8991080177703</v>
+        <v>156.8991080177704</v>
       </c>
       <c r="H31" t="n">
         <v>103.2409153588442</v>
       </c>
       <c r="I31" t="n">
-        <v>69.91762996651356</v>
+        <v>69.91762996651357</v>
       </c>
       <c r="J31" t="n">
         <v>129.4388199032313</v>
@@ -6631,13 +6631,13 @@
         <v>786.8667505307878</v>
       </c>
       <c r="N31" t="n">
-        <v>1043.348842076131</v>
+        <v>1043.348842076132</v>
       </c>
       <c r="O31" t="n">
         <v>1277.080249463792</v>
       </c>
       <c r="P31" t="n">
-        <v>1470.440834083851</v>
+        <v>1470.440834083852</v>
       </c>
       <c r="Q31" t="n">
         <v>1554.169404556388</v>
@@ -6655,16 +6655,16 @@
         <v>1101.023690650387</v>
       </c>
       <c r="V31" t="n">
-        <v>943.8347401863003</v>
+        <v>943.8347401863007</v>
       </c>
       <c r="W31" t="n">
-        <v>761.2246926811903</v>
+        <v>761.2246926811905</v>
       </c>
       <c r="X31" t="n">
-        <v>633.5185825540568</v>
+        <v>633.518582554057</v>
       </c>
       <c r="Y31" t="n">
-        <v>515.0297777238247</v>
+        <v>515.0297777238248</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1803.460651322301</v>
+        <v>1803.460651322303</v>
       </c>
       <c r="C32" t="n">
-        <v>1525.073246632599</v>
+        <v>1525.073246632601</v>
       </c>
       <c r="D32" t="n">
-        <v>1255.795635837314</v>
+        <v>1255.795635837315</v>
       </c>
       <c r="E32" t="n">
-        <v>964.5562699209113</v>
+        <v>964.5562699209124</v>
       </c>
       <c r="F32" t="n">
-        <v>653.951433208573</v>
+        <v>653.9514332085733</v>
       </c>
       <c r="G32" t="n">
-        <v>341.9374350233857</v>
+        <v>341.9374350233859</v>
       </c>
       <c r="H32" t="n">
-        <v>118.2300102244558</v>
+        <v>118.230010224456</v>
       </c>
       <c r="I32" t="n">
-        <v>69.91762996651356</v>
+        <v>69.91762996651357</v>
       </c>
       <c r="J32" t="n">
-        <v>288.6240527525338</v>
+        <v>288.6240527525336</v>
       </c>
       <c r="K32" t="n">
-        <v>698.0264070841731</v>
+        <v>698.0264070841727</v>
       </c>
       <c r="L32" t="n">
-        <v>1231.47993191883</v>
+        <v>1231.479931918829</v>
       </c>
       <c r="M32" t="n">
-        <v>1765.010310239363</v>
+        <v>1718.889606548262</v>
       </c>
       <c r="N32" t="n">
-        <v>2339.899151891799</v>
+        <v>2293.778448200697</v>
       </c>
       <c r="O32" t="n">
-        <v>2836.163029643571</v>
+        <v>2790.042325952469</v>
       </c>
       <c r="P32" t="n">
-        <v>3242.425322924232</v>
+        <v>3196.30461923313</v>
       </c>
       <c r="Q32" t="n">
-        <v>3495.881498325678</v>
+        <v>3449.760794634577</v>
       </c>
       <c r="R32" t="n">
-        <v>3495.881498325678</v>
+        <v>3495.881498325679</v>
       </c>
       <c r="S32" t="n">
-        <v>3424.586945439187</v>
+        <v>3424.586945439188</v>
       </c>
       <c r="T32" t="n">
-        <v>3306.154112659858</v>
+        <v>3306.154112659859</v>
       </c>
       <c r="U32" t="n">
-        <v>3154.858621101993</v>
+        <v>3154.858621101995</v>
       </c>
       <c r="V32" t="n">
-        <v>2921.425700975425</v>
+        <v>2921.425700975427</v>
       </c>
       <c r="W32" t="n">
-        <v>2662.437124810516</v>
+        <v>2662.437124810519</v>
       </c>
       <c r="X32" t="n">
-        <v>2383.9533383095</v>
+        <v>2383.953338309502</v>
       </c>
       <c r="Y32" t="n">
-        <v>2093.957836862829</v>
+        <v>2093.957836862831</v>
       </c>
     </row>
     <row r="33">
@@ -6771,13 +6771,13 @@
         <v>225.413976137382</v>
       </c>
       <c r="H33" t="n">
-        <v>128.2853108942276</v>
+        <v>128.2853108942277</v>
       </c>
       <c r="I33" t="n">
-        <v>69.91762996651356</v>
+        <v>69.91762996651357</v>
       </c>
       <c r="J33" t="n">
-        <v>69.91762996651356</v>
+        <v>69.91762996651357</v>
       </c>
       <c r="K33" t="n">
         <v>345.4426292169597</v>
@@ -6789,13 +6789,13 @@
         <v>1330.430029562222</v>
       </c>
       <c r="N33" t="n">
-        <v>1915.840680826599</v>
+        <v>1540.070605362062</v>
       </c>
       <c r="O33" t="n">
-        <v>2375.868825912469</v>
+        <v>2000.098750447932</v>
       </c>
       <c r="P33" t="n">
-        <v>2550.794837317129</v>
+        <v>2356.632775489998</v>
       </c>
       <c r="Q33" t="n">
         <v>2550.794837317129</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>435.0207630169354</v>
+        <v>435.0207630169366</v>
       </c>
       <c r="C34" t="n">
-        <v>368.9511474561065</v>
+        <v>368.9511474561075</v>
       </c>
       <c r="D34" t="n">
-        <v>319.4256082613601</v>
+        <v>319.4256082613609</v>
       </c>
       <c r="E34" t="n">
-        <v>270.9629480001697</v>
+        <v>270.9629480001704</v>
       </c>
       <c r="F34" t="n">
-        <v>222.0286470034376</v>
+        <v>222.0286470034382</v>
       </c>
       <c r="G34" t="n">
-        <v>156.8991080177703</v>
+        <v>156.8991080177706</v>
       </c>
       <c r="H34" t="n">
-        <v>103.2409153588442</v>
+        <v>103.2409153588444</v>
       </c>
       <c r="I34" t="n">
-        <v>69.91762996651356</v>
+        <v>69.91762996651357</v>
       </c>
       <c r="J34" t="n">
-        <v>129.4388199032313</v>
+        <v>129.4388199032312</v>
       </c>
       <c r="K34" t="n">
-        <v>292.2965854381796</v>
+        <v>292.2965854381802</v>
       </c>
       <c r="L34" t="n">
-        <v>529.9226654630485</v>
+        <v>529.9226654630488</v>
       </c>
       <c r="M34" t="n">
-        <v>786.8667505307872</v>
+        <v>786.8667505307874</v>
       </c>
       <c r="N34" t="n">
         <v>1043.34884207613</v>
       </c>
       <c r="O34" t="n">
-        <v>1277.080249463791</v>
+        <v>1277.080249463794</v>
       </c>
       <c r="P34" t="n">
-        <v>1470.440834083851</v>
+        <v>1470.440834083853</v>
       </c>
       <c r="Q34" t="n">
-        <v>1554.169404556387</v>
+        <v>1554.16940455639</v>
       </c>
       <c r="R34" t="n">
-        <v>1519.158614774017</v>
+        <v>1519.158614774019</v>
       </c>
       <c r="S34" t="n">
-        <v>1413.244945404807</v>
+        <v>1413.244945404809</v>
       </c>
       <c r="T34" t="n">
-        <v>1284.654274965487</v>
+        <v>1284.65427496549</v>
       </c>
       <c r="U34" t="n">
-        <v>1101.023690650386</v>
+        <v>1101.023690650389</v>
       </c>
       <c r="V34" t="n">
-        <v>943.8347401863</v>
+        <v>943.8347401863019</v>
       </c>
       <c r="W34" t="n">
-        <v>761.2246926811899</v>
+        <v>761.2246926811916</v>
       </c>
       <c r="X34" t="n">
-        <v>633.5185825540565</v>
+        <v>633.5185825540581</v>
       </c>
       <c r="Y34" t="n">
-        <v>515.0297777238244</v>
+        <v>515.0297777238258</v>
       </c>
     </row>
     <row r="35">
@@ -6911,28 +6911,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1351.528953579232</v>
+        <v>1351.528953579231</v>
       </c>
       <c r="C35" t="n">
-        <v>1137.196854657431</v>
+        <v>1137.19685465743</v>
       </c>
       <c r="D35" t="n">
-        <v>931.9745496300454</v>
+        <v>931.9745496300445</v>
       </c>
       <c r="E35" t="n">
-        <v>704.7904894815435</v>
+        <v>704.7904894815425</v>
       </c>
       <c r="F35" t="n">
-        <v>458.2409585371053</v>
+        <v>458.240958537104</v>
       </c>
       <c r="G35" t="n">
-        <v>210.2822661198172</v>
+        <v>210.2822661198173</v>
       </c>
       <c r="H35" t="n">
-        <v>50.6301470887881</v>
+        <v>50.63014708878808</v>
       </c>
       <c r="I35" t="n">
-        <v>50.6301470887881</v>
+        <v>50.63014708878808</v>
       </c>
       <c r="J35" t="n">
         <v>167.8507883414696</v>
@@ -6947,40 +6947,40 @@
         <v>1394.53210849818</v>
       </c>
       <c r="N35" t="n">
-        <v>1679.982352605542</v>
+        <v>1867.935168617277</v>
       </c>
       <c r="O35" t="n">
-        <v>2074.760448823975</v>
+        <v>2226.730842692082</v>
       </c>
       <c r="P35" t="n">
-        <v>2379.536960571298</v>
+        <v>2531.507354439404</v>
       </c>
       <c r="Q35" t="n">
-        <v>2531.507354439405</v>
+        <v>2531.507354439404</v>
       </c>
       <c r="R35" t="n">
-        <v>2531.507354439405</v>
+        <v>2531.507354439404</v>
       </c>
       <c r="S35" t="n">
-        <v>2524.268107320815</v>
+        <v>2524.268107320813</v>
       </c>
       <c r="T35" t="n">
-        <v>2469.890580309386</v>
+        <v>2469.890580309384</v>
       </c>
       <c r="U35" t="n">
-        <v>2382.650394519422</v>
+        <v>2382.650394519421</v>
       </c>
       <c r="V35" t="n">
-        <v>2213.272780160754</v>
+        <v>2213.272780160753</v>
       </c>
       <c r="W35" t="n">
-        <v>2018.339509763747</v>
+        <v>2018.339509763746</v>
       </c>
       <c r="X35" t="n">
-        <v>1803.911029030631</v>
+        <v>1803.91102903063</v>
       </c>
       <c r="Y35" t="n">
-        <v>1577.97083335186</v>
+        <v>1577.970833351859</v>
       </c>
     </row>
     <row r="36">
@@ -6990,28 +6990,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>916.8282409603524</v>
+        <v>916.8282409603515</v>
       </c>
       <c r="C36" t="n">
-        <v>755.1245682013073</v>
+        <v>755.1245682013063</v>
       </c>
       <c r="D36" t="n">
-        <v>616.2859311915192</v>
+        <v>616.2859311915183</v>
       </c>
       <c r="E36" t="n">
-        <v>469.2579212483904</v>
+        <v>469.2579212483896</v>
       </c>
       <c r="F36" t="n">
-        <v>334.5641231982648</v>
+        <v>334.5641231982639</v>
       </c>
       <c r="G36" t="n">
-        <v>206.1264932596573</v>
+        <v>206.1264932596565</v>
       </c>
       <c r="H36" t="n">
         <v>108.9978280165022</v>
       </c>
       <c r="I36" t="n">
-        <v>50.6301470887881</v>
+        <v>50.63014708878808</v>
       </c>
       <c r="J36" t="n">
         <v>137.8182647807294</v>
@@ -7029,37 +7029,37 @@
         <v>1983.741315640814</v>
       </c>
       <c r="O36" t="n">
-        <v>2337.345292612274</v>
+        <v>2443.769460726684</v>
       </c>
       <c r="P36" t="n">
-        <v>2337.345292612274</v>
+        <v>2531.507354439404</v>
       </c>
       <c r="Q36" t="n">
-        <v>2531.507354439405</v>
+        <v>2531.507354439404</v>
       </c>
       <c r="R36" t="n">
-        <v>2489.782542812666</v>
+        <v>2489.782542812665</v>
       </c>
       <c r="S36" t="n">
-        <v>2342.385839208683</v>
+        <v>2342.385839208682</v>
       </c>
       <c r="T36" t="n">
-        <v>2154.873145747568</v>
+        <v>2154.873145747567</v>
       </c>
       <c r="U36" t="n">
-        <v>1936.397489532596</v>
+        <v>1936.397489532595</v>
       </c>
       <c r="V36" t="n">
-        <v>1708.00186698093</v>
+        <v>1708.001866980929</v>
       </c>
       <c r="W36" t="n">
-        <v>1466.68599821424</v>
+        <v>1466.685998214239</v>
       </c>
       <c r="X36" t="n">
         <v>1268.769010092034</v>
       </c>
       <c r="Y36" t="n">
-        <v>1076.247683741613</v>
+        <v>1076.247683741612</v>
       </c>
     </row>
     <row r="37">
@@ -7069,34 +7069,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>53.7186900994835</v>
+        <v>53.7186900994836</v>
       </c>
       <c r="C37" t="n">
-        <v>51.70438030655502</v>
+        <v>51.70438030655506</v>
       </c>
       <c r="D37" t="n">
-        <v>51.70438030655502</v>
+        <v>51.70438030655506</v>
       </c>
       <c r="E37" t="n">
-        <v>51.70438030655502</v>
+        <v>51.70438030655506</v>
       </c>
       <c r="F37" t="n">
-        <v>51.70438030655502</v>
+        <v>51.70438030655506</v>
       </c>
       <c r="G37" t="n">
-        <v>50.6301470887881</v>
+        <v>50.63014708878808</v>
       </c>
       <c r="H37" t="n">
-        <v>50.6301470887881</v>
+        <v>50.63014708878808</v>
       </c>
       <c r="I37" t="n">
-        <v>50.6301470887881</v>
+        <v>50.63014708878808</v>
       </c>
       <c r="J37" t="n">
-        <v>50.6301470887881</v>
+        <v>50.63014708878808</v>
       </c>
       <c r="K37" t="n">
-        <v>112.0021310903985</v>
+        <v>112.0021310903984</v>
       </c>
       <c r="L37" t="n">
         <v>248.1424295819285</v>
@@ -7120,25 +7120,25 @@
         <v>782.7174720693757</v>
       </c>
       <c r="S37" t="n">
-        <v>583.5557321120523</v>
+        <v>740.8591084680668</v>
       </c>
       <c r="T37" t="n">
-        <v>519.0203674406329</v>
+        <v>676.3237437966474</v>
       </c>
       <c r="U37" t="n">
-        <v>399.4450888934326</v>
+        <v>556.748465249447</v>
       </c>
       <c r="V37" t="n">
-        <v>306.3114441972465</v>
+        <v>463.6148205532608</v>
       </c>
       <c r="W37" t="n">
-        <v>187.7567024600368</v>
+        <v>345.060078816051</v>
       </c>
       <c r="X37" t="n">
-        <v>124.1058981008038</v>
+        <v>281.409274456818</v>
       </c>
       <c r="Y37" t="n">
-        <v>69.67239903847211</v>
+        <v>69.67239903847225</v>
       </c>
     </row>
     <row r="38">
@@ -7148,37 +7148,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1351.528953579232</v>
+        <v>1351.528953579231</v>
       </c>
       <c r="C38" t="n">
-        <v>1137.196854657431</v>
+        <v>1137.196854657429</v>
       </c>
       <c r="D38" t="n">
-        <v>931.9745496300454</v>
+        <v>931.9745496300441</v>
       </c>
       <c r="E38" t="n">
-        <v>704.7904894815437</v>
+        <v>704.7904894815421</v>
       </c>
       <c r="F38" t="n">
-        <v>458.2409585371051</v>
+        <v>458.2409585371036</v>
       </c>
       <c r="G38" t="n">
-        <v>210.2822661198172</v>
+        <v>210.2822661198173</v>
       </c>
       <c r="H38" t="n">
-        <v>50.6301470887881</v>
+        <v>50.63014708878809</v>
       </c>
       <c r="I38" t="n">
-        <v>50.6301470887881</v>
+        <v>50.63014708878809</v>
       </c>
       <c r="J38" t="n">
         <v>167.8507883414696</v>
       </c>
       <c r="K38" t="n">
-        <v>287.8145451280344</v>
+        <v>475.7673611397701</v>
       </c>
       <c r="L38" t="n">
-        <v>719.7822884293521</v>
+        <v>907.7351044410877</v>
       </c>
       <c r="M38" t="n">
         <v>1206.579292486445</v>
@@ -7190,34 +7190,34 @@
         <v>2074.760448823975</v>
       </c>
       <c r="P38" t="n">
-        <v>2379.536960571298</v>
+        <v>2379.536960571297</v>
       </c>
       <c r="Q38" t="n">
-        <v>2531.507354439405</v>
+        <v>2531.507354439404</v>
       </c>
       <c r="R38" t="n">
-        <v>2531.507354439405</v>
+        <v>2531.507354439404</v>
       </c>
       <c r="S38" t="n">
-        <v>2524.268107320815</v>
+        <v>2524.268107320814</v>
       </c>
       <c r="T38" t="n">
-        <v>2469.890580309386</v>
+        <v>2469.890580309385</v>
       </c>
       <c r="U38" t="n">
-        <v>2382.650394519421</v>
+        <v>2382.65039451942</v>
       </c>
       <c r="V38" t="n">
-        <v>2213.272780160754</v>
+        <v>2213.272780160753</v>
       </c>
       <c r="W38" t="n">
-        <v>2018.339509763746</v>
+        <v>2018.339509763745</v>
       </c>
       <c r="X38" t="n">
-        <v>1803.911029030631</v>
+        <v>1803.91102903063</v>
       </c>
       <c r="Y38" t="n">
-        <v>1577.97083335186</v>
+        <v>1577.970833351859</v>
       </c>
     </row>
     <row r="39">
@@ -7239,7 +7239,7 @@
         <v>469.2579212483896</v>
       </c>
       <c r="F39" t="n">
-        <v>334.564123198264</v>
+        <v>334.5641231982639</v>
       </c>
       <c r="G39" t="n">
         <v>206.1264932596565</v>
@@ -7248,22 +7248,22 @@
         <v>108.9978280165022</v>
       </c>
       <c r="I39" t="n">
-        <v>50.6301470887881</v>
+        <v>50.63014708878809</v>
       </c>
       <c r="J39" t="n">
         <v>137.8182647807294</v>
       </c>
       <c r="K39" t="n">
-        <v>137.8182647807294</v>
+        <v>413.3432640311755</v>
       </c>
       <c r="L39" t="n">
-        <v>565.5391045294689</v>
+        <v>838.1340557093066</v>
       </c>
       <c r="M39" t="n">
-        <v>1122.805665125992</v>
+        <v>1395.400616305829</v>
       </c>
       <c r="N39" t="n">
-        <v>1708.216316390369</v>
+        <v>1980.811267570206</v>
       </c>
       <c r="O39" t="n">
         <v>1980.811267570206</v>
@@ -7306,31 +7306,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>53.7186900994835</v>
+        <v>53.71869009948361</v>
       </c>
       <c r="C40" t="n">
-        <v>51.70438030655502</v>
+        <v>51.70438030655507</v>
       </c>
       <c r="D40" t="n">
-        <v>51.70438030655502</v>
+        <v>51.70438030655507</v>
       </c>
       <c r="E40" t="n">
-        <v>51.70438030655502</v>
+        <v>51.70438030655507</v>
       </c>
       <c r="F40" t="n">
-        <v>51.70438030655502</v>
+        <v>51.70438030655507</v>
       </c>
       <c r="G40" t="n">
-        <v>50.6301470887881</v>
+        <v>50.63014708878809</v>
       </c>
       <c r="H40" t="n">
-        <v>50.6301470887881</v>
+        <v>50.63014708878809</v>
       </c>
       <c r="I40" t="n">
-        <v>50.6301470887881</v>
+        <v>50.63014708878809</v>
       </c>
       <c r="J40" t="n">
-        <v>50.6301470887881</v>
+        <v>50.63014708878809</v>
       </c>
       <c r="K40" t="n">
         <v>112.0021310903985</v>
@@ -7351,31 +7351,31 @@
         <v>782.7174720693757</v>
       </c>
       <c r="Q40" t="n">
-        <v>782.7174720693757</v>
+        <v>764.5997176965542</v>
       </c>
       <c r="R40" t="n">
-        <v>782.7174720693757</v>
+        <v>764.5997176965542</v>
       </c>
       <c r="S40" t="n">
-        <v>583.5557321120523</v>
+        <v>722.7413540952452</v>
       </c>
       <c r="T40" t="n">
-        <v>519.0203674406329</v>
+        <v>519.0203674406334</v>
       </c>
       <c r="U40" t="n">
-        <v>399.4450888934326</v>
+        <v>399.4450888934331</v>
       </c>
       <c r="V40" t="n">
-        <v>306.3114441972465</v>
+        <v>306.3114441972468</v>
       </c>
       <c r="W40" t="n">
-        <v>187.7567024600368</v>
+        <v>187.7567024600371</v>
       </c>
       <c r="X40" t="n">
-        <v>124.1058981008038</v>
+        <v>124.105898100804</v>
       </c>
       <c r="Y40" t="n">
-        <v>69.67239903847211</v>
+        <v>69.67239903847226</v>
       </c>
     </row>
     <row r="41">
@@ -7388,25 +7388,25 @@
         <v>1181.647501590778</v>
       </c>
       <c r="C41" t="n">
-        <v>981.0803056958168</v>
+        <v>946.0802211704197</v>
       </c>
       <c r="D41" t="n">
-        <v>754.6228191698749</v>
+        <v>719.6227346444778</v>
       </c>
       <c r="E41" t="n">
-        <v>506.2035775228163</v>
+        <v>471.2034929974191</v>
       </c>
       <c r="F41" t="n">
-        <v>506.2035775228163</v>
+        <v>231.5174476183739</v>
       </c>
       <c r="G41" t="n">
-        <v>237.0097036069726</v>
+        <v>231.5174476183739</v>
       </c>
       <c r="H41" t="n">
-        <v>56.12240307738674</v>
+        <v>50.63014708878809</v>
       </c>
       <c r="I41" t="n">
-        <v>50.6301470887881</v>
+        <v>50.63014708878809</v>
       </c>
       <c r="J41" t="n">
         <v>167.8507883414696</v>
@@ -7427,16 +7427,16 @@
         <v>2226.730842692082</v>
       </c>
       <c r="P41" t="n">
-        <v>2531.507354439405</v>
+        <v>2531.507354439404</v>
       </c>
       <c r="Q41" t="n">
-        <v>2531.507354439405</v>
+        <v>2531.507354439404</v>
       </c>
       <c r="R41" t="n">
-        <v>2531.507354439405</v>
+        <v>2531.507354439404</v>
       </c>
       <c r="S41" t="n">
-        <v>2503.032925822258</v>
+        <v>2503.032925822257</v>
       </c>
       <c r="T41" t="n">
         <v>2427.420217312272</v>
@@ -7476,7 +7476,7 @@
         <v>469.2579212483896</v>
       </c>
       <c r="F42" t="n">
-        <v>334.564123198264</v>
+        <v>334.5641231982639</v>
       </c>
       <c r="G42" t="n">
         <v>206.1264932596565</v>
@@ -7485,7 +7485,7 @@
         <v>108.9978280165022</v>
       </c>
       <c r="I42" t="n">
-        <v>50.6301470887881</v>
+        <v>50.63014708878809</v>
       </c>
       <c r="J42" t="n">
         <v>137.8182647807294</v>
@@ -7494,13 +7494,13 @@
         <v>413.3432640311755</v>
       </c>
       <c r="L42" t="n">
-        <v>413.3432640311755</v>
+        <v>838.1340557093066</v>
       </c>
       <c r="M42" t="n">
-        <v>970.6098246276982</v>
+        <v>1395.400616305829</v>
       </c>
       <c r="N42" t="n">
-        <v>1520.783122484336</v>
+        <v>1980.811267570206</v>
       </c>
       <c r="O42" t="n">
         <v>1980.811267570206</v>
@@ -7543,31 +7543,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>125.4892491308175</v>
+        <v>125.4892491308172</v>
       </c>
       <c r="C43" t="n">
-        <v>102.2397578393323</v>
+        <v>102.239757839332</v>
       </c>
       <c r="D43" t="n">
-        <v>95.53434291392944</v>
+        <v>95.53434291392919</v>
       </c>
       <c r="E43" t="n">
-        <v>89.89180692208272</v>
+        <v>89.89180692208254</v>
       </c>
       <c r="F43" t="n">
-        <v>83.77763019469428</v>
+        <v>83.77763019469415</v>
       </c>
       <c r="G43" t="n">
-        <v>61.46821547837057</v>
+        <v>61.4682154783705</v>
       </c>
       <c r="H43" t="n">
-        <v>50.6301470887881</v>
+        <v>50.63014708878809</v>
       </c>
       <c r="I43" t="n">
-        <v>50.6301470887881</v>
+        <v>50.63014708878809</v>
       </c>
       <c r="J43" t="n">
-        <v>50.6301470887881</v>
+        <v>50.63014708878809</v>
       </c>
       <c r="K43" t="n">
         <v>112.0021310903985</v>
@@ -7588,31 +7588,31 @@
         <v>782.7174720693757</v>
       </c>
       <c r="Q43" t="n">
-        <v>867.0661067331495</v>
+        <v>859.4121780024664</v>
       </c>
       <c r="R43" t="n">
-        <v>867.0661067331495</v>
+        <v>867.0661067331487</v>
       </c>
       <c r="S43" t="n">
-        <v>803.9725616332838</v>
+        <v>803.972561633283</v>
       </c>
       <c r="T43" t="n">
-        <v>718.2020154633077</v>
+        <v>718.2020154633069</v>
       </c>
       <c r="U43" t="n">
-        <v>577.3915554175506</v>
+        <v>577.3915554175499</v>
       </c>
       <c r="V43" t="n">
-        <v>463.0227292228077</v>
+        <v>463.022729222807</v>
       </c>
       <c r="W43" t="n">
-        <v>323.2328059870412</v>
+        <v>323.2328059870406</v>
       </c>
       <c r="X43" t="n">
-        <v>238.3468201292514</v>
+        <v>238.3468201292509</v>
       </c>
       <c r="Y43" t="n">
-        <v>162.6781395683629</v>
+        <v>162.6781395683625</v>
       </c>
     </row>
     <row r="44">
@@ -7622,25 +7622,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1236.013056912111</v>
+        <v>1181.647501590778</v>
       </c>
       <c r="C44" t="n">
-        <v>1000.445776491753</v>
+        <v>946.0802211704199</v>
       </c>
       <c r="D44" t="n">
-        <v>773.9882899658114</v>
+        <v>719.622734644478</v>
       </c>
       <c r="E44" t="n">
-        <v>773.9882899658114</v>
+        <v>499.3021600613692</v>
       </c>
       <c r="F44" t="n">
-        <v>506.2035775228163</v>
+        <v>231.517447618374</v>
       </c>
       <c r="G44" t="n">
-        <v>237.0097036069726</v>
+        <v>231.517447618374</v>
       </c>
       <c r="H44" t="n">
-        <v>56.12240307738674</v>
+        <v>50.6301470887881</v>
       </c>
       <c r="I44" t="n">
         <v>50.6301470887881</v>
@@ -7658,10 +7658,10 @@
         <v>1394.53210849818</v>
       </c>
       <c r="N44" t="n">
-        <v>1867.935168617277</v>
+        <v>1679.982352605542</v>
       </c>
       <c r="O44" t="n">
-        <v>2262.713264835711</v>
+        <v>2074.760448823975</v>
       </c>
       <c r="P44" t="n">
         <v>2379.536960571298</v>
@@ -7685,7 +7685,7 @@
         <v>2128.332054166527</v>
       </c>
       <c r="W44" t="n">
-        <v>1912.163602270963</v>
+        <v>1912.163602270962</v>
       </c>
       <c r="X44" t="n">
         <v>1676.49994003929</v>
@@ -7701,22 +7701,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>916.8282409603515</v>
+        <v>916.8282409603524</v>
       </c>
       <c r="C45" t="n">
-        <v>755.1245682013063</v>
+        <v>755.1245682013073</v>
       </c>
       <c r="D45" t="n">
-        <v>616.2859311915183</v>
+        <v>616.2859311915192</v>
       </c>
       <c r="E45" t="n">
-        <v>469.2579212483896</v>
+        <v>469.2579212483904</v>
       </c>
       <c r="F45" t="n">
-        <v>334.564123198264</v>
+        <v>334.5641231982648</v>
       </c>
       <c r="G45" t="n">
-        <v>206.1264932596565</v>
+        <v>206.1264932596573</v>
       </c>
       <c r="H45" t="n">
         <v>108.9978280165022</v>
@@ -7725,52 +7725,52 @@
         <v>50.6301470887881</v>
       </c>
       <c r="J45" t="n">
-        <v>50.6301470887881</v>
+        <v>102.5809113729918</v>
       </c>
       <c r="K45" t="n">
-        <v>326.1551463392342</v>
+        <v>378.1059106234379</v>
       </c>
       <c r="L45" t="n">
-        <v>753.8759860879736</v>
+        <v>378.1059106234379</v>
       </c>
       <c r="M45" t="n">
-        <v>1311.142546684496</v>
+        <v>935.3724712199606</v>
       </c>
       <c r="N45" t="n">
-        <v>1896.553197948873</v>
+        <v>1520.783122484337</v>
       </c>
       <c r="O45" t="n">
-        <v>2356.581343034743</v>
+        <v>1980.811267570207</v>
       </c>
       <c r="P45" t="n">
-        <v>2356.581343034743</v>
+        <v>2337.345292612274</v>
       </c>
       <c r="Q45" t="n">
-        <v>2531.507354439404</v>
+        <v>2531.507354439405</v>
       </c>
       <c r="R45" t="n">
-        <v>2489.782542812665</v>
+        <v>2489.782542812666</v>
       </c>
       <c r="S45" t="n">
-        <v>2342.385839208682</v>
+        <v>2342.385839208683</v>
       </c>
       <c r="T45" t="n">
-        <v>2154.873145747567</v>
+        <v>2154.873145747568</v>
       </c>
       <c r="U45" t="n">
-        <v>1936.397489532595</v>
+        <v>1936.397489532596</v>
       </c>
       <c r="V45" t="n">
-        <v>1708.001866980929</v>
+        <v>1708.00186698093</v>
       </c>
       <c r="W45" t="n">
-        <v>1466.685998214239</v>
+        <v>1466.68599821424</v>
       </c>
       <c r="X45" t="n">
         <v>1268.769010092034</v>
       </c>
       <c r="Y45" t="n">
-        <v>1076.247683741612</v>
+        <v>1076.247683741613</v>
       </c>
     </row>
     <row r="46">
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>125.4892491308175</v>
+        <v>125.4892491308172</v>
       </c>
       <c r="C46" t="n">
-        <v>102.2397578393323</v>
+        <v>102.239757839332</v>
       </c>
       <c r="D46" t="n">
-        <v>95.53434291392944</v>
+        <v>95.53434291392921</v>
       </c>
       <c r="E46" t="n">
-        <v>89.89180692208272</v>
+        <v>89.89180692208255</v>
       </c>
       <c r="F46" t="n">
-        <v>83.77763019469428</v>
+        <v>83.77763019469417</v>
       </c>
       <c r="G46" t="n">
-        <v>61.46821547837057</v>
+        <v>61.46821547837051</v>
       </c>
       <c r="H46" t="n">
         <v>50.6301470887881</v>
@@ -7804,52 +7804,52 @@
         <v>50.6301470887881</v>
       </c>
       <c r="J46" t="n">
-        <v>134.9787817525618</v>
+        <v>50.6301470887881</v>
       </c>
       <c r="K46" t="n">
-        <v>196.3507657541722</v>
+        <v>196.3507657541716</v>
       </c>
       <c r="L46" t="n">
-        <v>332.4910642457023</v>
+        <v>332.4910642457017</v>
       </c>
       <c r="M46" t="n">
-        <v>487.9493677801022</v>
+        <v>487.9493677801016</v>
       </c>
       <c r="N46" t="n">
-        <v>642.9456777921067</v>
+        <v>642.9456777921062</v>
       </c>
       <c r="O46" t="n">
-        <v>775.1913036464289</v>
+        <v>775.1913036464283</v>
       </c>
       <c r="P46" t="n">
-        <v>867.0661067331495</v>
+        <v>867.0661067331489</v>
       </c>
       <c r="Q46" t="n">
-        <v>867.0661067331495</v>
+        <v>867.0661067331489</v>
       </c>
       <c r="R46" t="n">
-        <v>867.0661067331495</v>
+        <v>867.0661067331489</v>
       </c>
       <c r="S46" t="n">
-        <v>803.9725616332838</v>
+        <v>803.9725616332832</v>
       </c>
       <c r="T46" t="n">
-        <v>718.2020154633077</v>
+        <v>718.2020154633071</v>
       </c>
       <c r="U46" t="n">
-        <v>577.3915554175506</v>
+        <v>577.3915554175501</v>
       </c>
       <c r="V46" t="n">
-        <v>463.0227292228077</v>
+        <v>463.0227292228071</v>
       </c>
       <c r="W46" t="n">
-        <v>323.2328059870412</v>
+        <v>323.2328059870407</v>
       </c>
       <c r="X46" t="n">
-        <v>238.3468201292514</v>
+        <v>238.3468201292509</v>
       </c>
       <c r="Y46" t="n">
-        <v>162.6781395683629</v>
+        <v>162.6781395683625</v>
       </c>
     </row>
   </sheetData>
@@ -8687,16 +8687,16 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>219.8255997236959</v>
+        <v>101.4209115896742</v>
       </c>
       <c r="K11" t="n">
-        <v>385.0431553893536</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L11" t="n">
         <v>542.9595789155856</v>
       </c>
       <c r="M11" t="n">
-        <v>584.3675935406823</v>
+        <v>512.9209523699211</v>
       </c>
       <c r="N11" t="n">
         <v>568.5510017355793</v>
@@ -8708,7 +8708,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q11" t="n">
-        <v>122.5040395062523</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R11" t="n">
         <v>85.43134583487716</v>
@@ -8766,13 +8766,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J12" t="n">
-        <v>128.3250596720885</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K12" t="n">
-        <v>343.8048081163522</v>
+        <v>236.3056484048261</v>
       </c>
       <c r="L12" t="n">
-        <v>50.05119662304285</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M12" t="n">
         <v>605.4165828749999</v>
@@ -8784,7 +8784,7 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P12" t="n">
-        <v>414.0015992319183</v>
+        <v>53.86622040154784</v>
       </c>
       <c r="Q12" t="n">
         <v>273.1004740566038</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>183.4797187705354</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K14" t="n">
         <v>421.3890363425141</v>
@@ -8942,10 +8942,10 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P14" t="n">
-        <v>418.3383206229274</v>
+        <v>228.4869913181437</v>
       </c>
       <c r="Q14" t="n">
-        <v>122.5040395062523</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R14" t="n">
         <v>85.43134583487716</v>
@@ -9003,19 +9003,19 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J15" t="n">
-        <v>75.84954019309578</v>
+        <v>75.84954019309581</v>
       </c>
       <c r="K15" t="n">
-        <v>65.49672806539651</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L15" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M15" t="n">
-        <v>605.4165828749999</v>
+        <v>225.8508500825382</v>
       </c>
       <c r="N15" t="n">
-        <v>521.8874339051129</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O15" t="n">
         <v>512.0210150597484</v>
@@ -9167,13 +9167,13 @@
         <v>421.3890363425141</v>
       </c>
       <c r="L17" t="n">
-        <v>353.1082496108014</v>
+        <v>542.9595789155856</v>
       </c>
       <c r="M17" t="n">
         <v>584.3675935406823</v>
       </c>
       <c r="N17" t="n">
-        <v>568.5510017355793</v>
+        <v>378.6996724307962</v>
       </c>
       <c r="O17" t="n">
         <v>495.0402356415689</v>
@@ -9252,7 +9252,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N18" t="n">
-        <v>155.5105481047214</v>
+        <v>155.5105481047221</v>
       </c>
       <c r="O18" t="n">
         <v>512.0210150597484</v>
@@ -9404,10 +9404,10 @@
         <v>421.3890363425141</v>
       </c>
       <c r="L20" t="n">
-        <v>353.1082496108014</v>
+        <v>542.9595789155856</v>
       </c>
       <c r="M20" t="n">
-        <v>584.3675935406823</v>
+        <v>394.5162642358993</v>
       </c>
       <c r="N20" t="n">
         <v>568.5510017355793</v>
@@ -9486,10 +9486,10 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M21" t="n">
-        <v>605.4165828749999</v>
+        <v>137.7820443331034</v>
       </c>
       <c r="N21" t="n">
-        <v>155.5105481047223</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O21" t="n">
         <v>512.0210150597484</v>
@@ -9647,7 +9647,7 @@
         <v>584.3675935406823</v>
       </c>
       <c r="N23" t="n">
-        <v>378.6996724307945</v>
+        <v>378.6996724307962</v>
       </c>
       <c r="O23" t="n">
         <v>495.0402356415689</v>
@@ -9717,16 +9717,16 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K24" t="n">
-        <v>65.49672806539655</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L24" t="n">
-        <v>292.7659904035548</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M24" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N24" t="n">
-        <v>623.1450866466196</v>
+        <v>155.510548104723</v>
       </c>
       <c r="O24" t="n">
         <v>512.0210150597484</v>
@@ -9963,7 +9963,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N27" t="n">
-        <v>155.5105481047217</v>
+        <v>155.5105481047223</v>
       </c>
       <c r="O27" t="n">
         <v>512.0210150597484</v>
@@ -10188,7 +10188,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J30" t="n">
-        <v>75.84954019309579</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K30" t="n">
         <v>343.8048081163522</v>
@@ -10200,16 +10200,16 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N30" t="n">
-        <v>623.1450866466196</v>
+        <v>155.5105481047223</v>
       </c>
       <c r="O30" t="n">
-        <v>328.5785770421662</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P30" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q30" t="n">
-        <v>76.97717928172423</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R30" t="n">
         <v>59.17817075471706</v>
@@ -10425,7 +10425,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J33" t="n">
-        <v>75.84954019309579</v>
+        <v>75.84954019309581</v>
       </c>
       <c r="K33" t="n">
         <v>343.8048081163522</v>
@@ -10437,16 +10437,16 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N33" t="n">
-        <v>623.1450866466196</v>
+        <v>243.5793538541579</v>
       </c>
       <c r="O33" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P33" t="n">
-        <v>230.5591612143363</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q33" t="n">
-        <v>76.97717928172423</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R33" t="n">
         <v>59.17817075471706</v>
@@ -10595,16 +10595,16 @@
         <v>584.3675935406823</v>
       </c>
       <c r="N35" t="n">
-        <v>378.6996724307959</v>
+        <v>568.5510017355793</v>
       </c>
       <c r="O35" t="n">
-        <v>495.0402356415689</v>
+        <v>458.6943546884087</v>
       </c>
       <c r="P35" t="n">
         <v>418.3383206229274</v>
       </c>
       <c r="Q35" t="n">
-        <v>276.0094878578761</v>
+        <v>122.5040395062524</v>
       </c>
       <c r="R35" t="n">
         <v>85.43134583487716</v>
@@ -10677,13 +10677,13 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O36" t="n">
-        <v>404.5218553482226</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P36" t="n">
-        <v>53.86622040154781</v>
+        <v>142.4903554649005</v>
       </c>
       <c r="Q36" t="n">
-        <v>273.1004740566038</v>
+        <v>76.97717928172425</v>
       </c>
       <c r="R36" t="n">
         <v>59.17817075471706</v>
@@ -10823,13 +10823,13 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K38" t="n">
-        <v>231.5377070377306</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L38" t="n">
         <v>542.9595789155856</v>
       </c>
       <c r="M38" t="n">
-        <v>584.3675935406823</v>
+        <v>394.5162642358993</v>
       </c>
       <c r="N38" t="n">
         <v>568.5510017355793</v>
@@ -10902,10 +10902,10 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K39" t="n">
-        <v>65.49672806539655</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L39" t="n">
-        <v>482.0924488944969</v>
+        <v>479.1328043787309</v>
       </c>
       <c r="M39" t="n">
         <v>605.4165828749999</v>
@@ -10914,7 +10914,7 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O39" t="n">
-        <v>322.6945565688063</v>
+        <v>47.34612103361702</v>
       </c>
       <c r="P39" t="n">
         <v>414.0015992319183</v>
@@ -11142,16 +11142,16 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L42" t="n">
-        <v>50.05119662304288</v>
+        <v>479.1328043787309</v>
       </c>
       <c r="M42" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N42" t="n">
-        <v>587.5518003761758</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O42" t="n">
-        <v>512.0210150597484</v>
+        <v>47.34612103361702</v>
       </c>
       <c r="P42" t="n">
         <v>414.0015992319183</v>
@@ -11306,13 +11306,13 @@
         <v>584.3675935406823</v>
       </c>
       <c r="N44" t="n">
-        <v>568.5510017355793</v>
+        <v>378.6996724307962</v>
       </c>
       <c r="O44" t="n">
         <v>495.0402356415689</v>
       </c>
       <c r="P44" t="n">
-        <v>228.4869913181441</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q44" t="n">
         <v>276.0094878578761</v>
@@ -11373,13 +11373,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J45" t="n">
-        <v>75.84954019309579</v>
+        <v>128.3250596720895</v>
       </c>
       <c r="K45" t="n">
         <v>343.8048081163522</v>
       </c>
       <c r="L45" t="n">
-        <v>482.0924488944969</v>
+        <v>50.05119662304291</v>
       </c>
       <c r="M45" t="n">
         <v>605.4165828749999</v>
@@ -11391,10 +11391,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P45" t="n">
-        <v>53.86622040154781</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q45" t="n">
-        <v>253.6701200945127</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R45" t="n">
         <v>59.17817075471706</v>
@@ -23255,28 +23255,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>287.5922136851231</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>116.9446133869483</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>288.3269722572383</v>
       </c>
       <c r="F11" t="n">
-        <v>307.4987883452155</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>222.1339285551342</v>
+        <v>308.8938582033354</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>221.4703505509402</v>
       </c>
       <c r="I11" t="n">
-        <v>47.82925645536285</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>70.58160735762586</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23492,13 +23492,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>170.6712070120577</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>275.6035306428048</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>49.40851223208369</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23510,10 +23510,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>221.4703505509402</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>47.82925645536287</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23555,10 +23555,10 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>256.3986904032591</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>275.6989486360057</v>
       </c>
       <c r="Y14" t="n">
         <v>287.0955464322045</v>
@@ -25628,7 +25628,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>34.65008368014333</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25637,16 +25637,16 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>265.1068653185653</v>
+        <v>27.81768039330976</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>266.5019351766852</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>5.437333428712599</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25862,7 +25862,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>53.82189976811964</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25871,19 +25871,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>245.9350492305881</v>
+        <v>27.81768039331024</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>266.5019351766852</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>5.437333428712606</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>710091.1659236208</v>
+        <v>710091.1659236209</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>710091.1659236208</v>
+        <v>710091.1659236209</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>767810.5380800618</v>
+        <v>767810.5380800619</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>767810.5380800618</v>
+        <v>767810.5380800619</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>767810.5380800618</v>
+        <v>767810.5380800619</v>
       </c>
     </row>
     <row r="10">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>749318.5318963316</v>
+        <v>749318.5318963317</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>746729.7157196216</v>
+      </c>
+      <c r="C2" t="n">
+        <v>746729.7157196214</v>
+      </c>
+      <c r="D2" t="n">
         <v>746729.7157196219</v>
       </c>
-      <c r="C2" t="n">
-        <v>746729.7157196217</v>
-      </c>
-      <c r="D2" t="n">
-        <v>746729.7157196216</v>
-      </c>
       <c r="E2" t="n">
-        <v>675818.7649785628</v>
+        <v>675818.7649785626</v>
       </c>
       <c r="F2" t="n">
-        <v>675818.7649785629</v>
+        <v>675818.7649785626</v>
       </c>
       <c r="G2" t="n">
-        <v>748433.4589818279</v>
+        <v>748433.4589818282</v>
       </c>
       <c r="H2" t="n">
-        <v>748433.4589818279</v>
+        <v>748433.4589818281</v>
       </c>
       <c r="I2" t="n">
+        <v>748433.4589818283</v>
+      </c>
+      <c r="J2" t="n">
+        <v>748433.4589818252</v>
+      </c>
+      <c r="K2" t="n">
+        <v>748433.4589818252</v>
+      </c>
+      <c r="L2" t="n">
+        <v>748433.4589818255</v>
+      </c>
+      <c r="M2" t="n">
         <v>748433.4589818281</v>
       </c>
-      <c r="J2" t="n">
-        <v>748433.4589818275</v>
-      </c>
-      <c r="K2" t="n">
-        <v>748433.4589818278</v>
-      </c>
-      <c r="L2" t="n">
-        <v>748433.4589818279</v>
-      </c>
-      <c r="M2" t="n">
-        <v>748433.4589818282</v>
-      </c>
       <c r="N2" t="n">
-        <v>748433.4589818283</v>
+        <v>748433.4589818281</v>
       </c>
       <c r="O2" t="n">
-        <v>725169.3221700374</v>
+        <v>725169.3221700373</v>
       </c>
       <c r="P2" t="n">
-        <v>725169.3221700373</v>
+        <v>725169.3221700372</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>378528.8055118679</v>
+        <v>378528.8055118677</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>50731.80216817713</v>
+        <v>50731.80216817711</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,13 +26387,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94357.5873077407</v>
+        <v>94357.58730774066</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>50731.80216817715</v>
+        <v>50731.80216817703</v>
       </c>
       <c r="M3" t="n">
         <v>148365.7683188478</v>
@@ -26402,7 +26402,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>14458.6464351386</v>
+        <v>14458.64643513868</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,19 +26424,19 @@
         <v>406144.6554248994</v>
       </c>
       <c r="E4" t="n">
-        <v>279517.6822054848</v>
+        <v>279517.6822054849</v>
       </c>
       <c r="F4" t="n">
-        <v>279517.6822054848</v>
+        <v>279517.6822054849</v>
       </c>
       <c r="G4" t="n">
-        <v>321792.0173309652</v>
+        <v>321792.0173309653</v>
       </c>
       <c r="H4" t="n">
         <v>321792.0173309653</v>
       </c>
       <c r="I4" t="n">
-        <v>321792.0173309652</v>
+        <v>321792.0173309653</v>
       </c>
       <c r="J4" t="n">
         <v>320422.9022284455</v>
@@ -26445,7 +26445,7 @@
         <v>320422.9022284455</v>
       </c>
       <c r="L4" t="n">
-        <v>320422.9022284455</v>
+        <v>320422.9022284454</v>
       </c>
       <c r="M4" t="n">
         <v>321792.0173309653</v>
@@ -26457,7 +26457,7 @@
         <v>308199.4348946364</v>
       </c>
       <c r="P4" t="n">
-        <v>308199.4348946364</v>
+        <v>308199.4348946365</v>
       </c>
     </row>
     <row r="5">
@@ -26476,7 +26476,7 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>50015.41325331542</v>
+        <v>50015.41325331541</v>
       </c>
       <c r="F5" t="n">
         <v>50015.41325331542</v>
@@ -26488,25 +26488,25 @@
         <v>55346.62809891102</v>
       </c>
       <c r="I5" t="n">
-        <v>55346.62809891101</v>
+        <v>55346.62809891102</v>
       </c>
       <c r="J5" t="n">
         <v>64673.90024038679</v>
       </c>
       <c r="K5" t="n">
-        <v>64673.90024038677</v>
+        <v>64673.90024038679</v>
       </c>
       <c r="L5" t="n">
         <v>64673.90024038678</v>
       </c>
       <c r="M5" t="n">
-        <v>55346.62809891102</v>
+        <v>55346.62809891101</v>
       </c>
       <c r="N5" t="n">
-        <v>55346.62809891102</v>
+        <v>55346.62809891101</v>
       </c>
       <c r="O5" t="n">
-        <v>53579.25983024288</v>
+        <v>53579.25983024287</v>
       </c>
       <c r="P5" t="n">
         <v>53579.25983024288</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>306957.4602947225</v>
+        <v>306953.091722255</v>
       </c>
       <c r="C6" t="n">
-        <v>306957.4602947223</v>
+        <v>306953.0917222548</v>
       </c>
       <c r="D6" t="n">
-        <v>306957.4602947222</v>
+        <v>306953.0917222553</v>
       </c>
       <c r="E6" t="n">
-        <v>-32243.13599210528</v>
+        <v>-32429.32751519074</v>
       </c>
       <c r="F6" t="n">
-        <v>346285.6695197627</v>
+        <v>346099.477996677</v>
       </c>
       <c r="G6" t="n">
-        <v>320563.0113837746</v>
+        <v>320563.0113837748</v>
       </c>
       <c r="H6" t="n">
-        <v>371294.8135519517</v>
+        <v>371294.8135519518</v>
       </c>
       <c r="I6" t="n">
+        <v>371294.813551952</v>
+      </c>
+      <c r="J6" t="n">
+        <v>268979.0692052522</v>
+      </c>
+      <c r="K6" t="n">
+        <v>363336.6565129929</v>
+      </c>
+      <c r="L6" t="n">
+        <v>312604.8543448164</v>
+      </c>
+      <c r="M6" t="n">
+        <v>222929.045233104</v>
+      </c>
+      <c r="N6" t="n">
         <v>371294.8135519518</v>
       </c>
-      <c r="J6" t="n">
-        <v>268979.0692052545</v>
-      </c>
-      <c r="K6" t="n">
-        <v>363336.6565129956</v>
-      </c>
-      <c r="L6" t="n">
-        <v>312604.8543448186</v>
-      </c>
-      <c r="M6" t="n">
-        <v>222929.0452331041</v>
-      </c>
-      <c r="N6" t="n">
-        <v>371294.813551952</v>
-      </c>
       <c r="O6" t="n">
-        <v>348931.9810100195</v>
+        <v>348872.3293771686</v>
       </c>
       <c r="P6" t="n">
-        <v>363390.627445158</v>
+        <v>363330.975812307</v>
       </c>
     </row>
   </sheetData>
@@ -26710,10 +26710,10 @@
         <v>102.5108904377159</v>
       </c>
       <c r="K2" t="n">
-        <v>102.5108904377159</v>
+        <v>102.5108904377158</v>
       </c>
       <c r="L2" t="n">
-        <v>102.5108904377159</v>
+        <v>102.5108904377157</v>
       </c>
       <c r="M2" t="n">
         <v>165.9256431479373</v>
@@ -26744,22 +26744,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>133.87676227652</v>
+        <v>133.8767622765199</v>
       </c>
       <c r="F3" t="n">
-        <v>133.87676227652</v>
+        <v>133.8767622765199</v>
       </c>
       <c r="G3" t="n">
-        <v>133.87676227652</v>
+        <v>133.8767622765199</v>
       </c>
       <c r="H3" t="n">
-        <v>133.87676227652</v>
+        <v>133.8767622765199</v>
       </c>
       <c r="I3" t="n">
         <v>133.8767622765199</v>
       </c>
       <c r="J3" t="n">
-        <v>133.87676227652</v>
+        <v>133.8767622765199</v>
       </c>
       <c r="K3" t="n">
         <v>133.8767622765199</v>
@@ -26808,25 +26808,25 @@
         <v>632.8768386098511</v>
       </c>
       <c r="I4" t="n">
-        <v>632.8768386098509</v>
+        <v>632.8768386098511</v>
       </c>
       <c r="J4" t="n">
-        <v>873.9703745814196</v>
+        <v>873.9703745814197</v>
       </c>
       <c r="K4" t="n">
-        <v>873.9703745814195</v>
+        <v>873.9703745814197</v>
       </c>
       <c r="L4" t="n">
-        <v>873.9703745814195</v>
+        <v>873.9703745814197</v>
       </c>
       <c r="M4" t="n">
-        <v>632.8768386098512</v>
+        <v>632.876838609851</v>
       </c>
       <c r="N4" t="n">
-        <v>632.8768386098512</v>
+        <v>632.8768386098511</v>
       </c>
       <c r="O4" t="n">
-        <v>632.8768386098512</v>
+        <v>632.8768386098511</v>
       </c>
       <c r="P4" t="n">
         <v>632.8768386098512</v>
@@ -26917,10 +26917,10 @@
         <v>102.5108904377159</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>63.41475271022141</v>
+        <v>63.41475271022139</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>39.09613772749447</v>
+        <v>39.09613772749445</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>63.41475271022144</v>
+        <v>63.41475271022128</v>
       </c>
       <c r="M2" t="n">
-        <v>63.41475271022141</v>
+        <v>63.41475271022152</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>18.07330804392325</v>
+        <v>18.07330804392335</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>133.87676227652</v>
+        <v>133.8767622765199</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0935359715687</v>
+        <v>241.0935359715686</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>391.7833026382827</v>
+        <v>391.7833026382824</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27154,10 +27154,10 @@
         <v>102.5108904377159</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>63.41475271022141</v>
+        <v>63.41475271022139</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>39.09613772749447</v>
+        <v>39.09613772749445</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -28135,7 +28135,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>55.92432105276367</v>
+        <v>55.92432105276371</v>
       </c>
       <c r="S11" t="n">
         <v>102.5108904377159</v>
@@ -28187,7 +28187,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>-7.389644451905042e-13</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28229,7 +28229,7 @@
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -28372,7 +28372,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>55.92432105276367</v>
+        <v>55.92432105276371</v>
       </c>
       <c r="S14" t="n">
         <v>102.5108904377159</v>
@@ -28512,7 +28512,7 @@
         <v>102.5108904377159</v>
       </c>
       <c r="L16" t="n">
-        <v>102.5108904377152</v>
+        <v>102.5108904377159</v>
       </c>
       <c r="M16" t="n">
         <v>102.5108904377159</v>
@@ -28582,7 +28582,7 @@
         <v>165.9256431479373</v>
       </c>
       <c r="I17" t="n">
-        <v>150.3401468930787</v>
+        <v>150.3401468930788</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28609,7 +28609,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>55.92432105276367</v>
+        <v>55.92432105276371</v>
       </c>
       <c r="S17" t="n">
         <v>165.9256431479373</v>
@@ -28743,7 +28743,7 @@
         <v>135.5009429761232</v>
       </c>
       <c r="J19" t="n">
-        <v>42.38847636022317</v>
+        <v>42.38847636022318</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28764,19 +28764,19 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>17.93657682909333</v>
+        <v>17.93657682909335</v>
       </c>
       <c r="R19" t="n">
         <v>137.1715723222628</v>
       </c>
       <c r="S19" t="n">
-        <v>165.9256431479373</v>
+        <v>10.19530055548313</v>
       </c>
       <c r="T19" t="n">
         <v>165.9256431479373</v>
       </c>
       <c r="U19" t="n">
-        <v>10.19530055548302</v>
+        <v>165.9256431479373</v>
       </c>
       <c r="V19" t="n">
         <v>165.9256431479373</v>
@@ -28819,7 +28819,7 @@
         <v>165.9256431479373</v>
       </c>
       <c r="I20" t="n">
-        <v>150.3401468930787</v>
+        <v>150.3401468930788</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28846,7 +28846,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>55.92432105276367</v>
+        <v>55.92432105276371</v>
       </c>
       <c r="S20" t="n">
         <v>165.9256431479373</v>
@@ -28980,7 +28980,7 @@
         <v>135.5009429761232</v>
       </c>
       <c r="J22" t="n">
-        <v>42.38847636022317</v>
+        <v>42.38847636022318</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -29001,13 +29001,13 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>17.93657682909333</v>
+        <v>17.93657682909335</v>
       </c>
       <c r="R22" t="n">
         <v>137.1715723222628</v>
       </c>
       <c r="S22" t="n">
-        <v>165.9256431479373</v>
+        <v>10.19530055548313</v>
       </c>
       <c r="T22" t="n">
         <v>165.9256431479373</v>
@@ -29025,7 +29025,7 @@
         <v>165.9256431479373</v>
       </c>
       <c r="Y22" t="n">
-        <v>10.19530055548302</v>
+        <v>165.9256431479373</v>
       </c>
     </row>
     <row r="23">
@@ -29056,7 +29056,7 @@
         <v>165.9256431479373</v>
       </c>
       <c r="I23" t="n">
-        <v>150.3401468930787</v>
+        <v>150.3401468930788</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29083,7 +29083,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>55.92432105276369</v>
+        <v>55.92432105276371</v>
       </c>
       <c r="S23" t="n">
         <v>165.9256431479373</v>
@@ -29095,7 +29095,7 @@
         <v>165.9256431479373</v>
       </c>
       <c r="V23" t="n">
-        <v>165.9256431479373</v>
+        <v>165.9256431479369</v>
       </c>
       <c r="W23" t="n">
         <v>165.9256431479373</v>
@@ -29135,7 +29135,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.4210854715202e-13</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -29256,10 +29256,10 @@
         <v>165.9256431479373</v>
       </c>
       <c r="W25" t="n">
+        <v>10.19530055548313</v>
+      </c>
+      <c r="X25" t="n">
         <v>165.9256431479373</v>
-      </c>
-      <c r="X25" t="n">
-        <v>10.19530055548307</v>
       </c>
       <c r="Y25" t="n">
         <v>165.9256431479373</v>
@@ -29296,7 +29296,7 @@
         <v>102.5108904377159</v>
       </c>
       <c r="J26" t="n">
-        <v>102.5108904377159</v>
+        <v>0.6188591639793515</v>
       </c>
       <c r="K26" t="n">
         <v>102.5108904377159</v>
@@ -29317,7 +29317,7 @@
         <v>102.5108904377159</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.6188591639786409</v>
+        <v>102.5108904377159</v>
       </c>
       <c r="R26" t="n">
         <v>102.5108904377159</v>
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>102.5108904377159</v>
+        <v>102.5108904377158</v>
       </c>
       <c r="C29" t="n">
-        <v>102.5108904377159</v>
+        <v>102.5108904377158</v>
       </c>
       <c r="D29" t="n">
-        <v>102.5108904377159</v>
+        <v>102.5108904377158</v>
       </c>
       <c r="E29" t="n">
-        <v>102.5108904377159</v>
+        <v>102.5108904377158</v>
       </c>
       <c r="F29" t="n">
-        <v>102.5108904377159</v>
+        <v>102.5108904377158</v>
       </c>
       <c r="G29" t="n">
-        <v>102.5108904377159</v>
+        <v>102.5108904377158</v>
       </c>
       <c r="H29" t="n">
-        <v>102.5108904377159</v>
+        <v>102.5108904377158</v>
       </c>
       <c r="I29" t="n">
-        <v>102.5108904377159</v>
+        <v>102.5108904377158</v>
       </c>
       <c r="J29" t="n">
-        <v>102.5108904377159</v>
+        <v>102.5108904377158</v>
       </c>
       <c r="K29" t="n">
-        <v>0.6188591639781862</v>
+        <v>102.5108904377158</v>
       </c>
       <c r="L29" t="n">
-        <v>102.5108904377159</v>
+        <v>102.5108904377158</v>
       </c>
       <c r="M29" t="n">
-        <v>102.5108904377159</v>
+        <v>0.6188591639796073</v>
       </c>
       <c r="N29" t="n">
-        <v>102.5108904377159</v>
+        <v>102.5108904377158</v>
       </c>
       <c r="O29" t="n">
-        <v>102.5108904377159</v>
+        <v>102.5108904377158</v>
       </c>
       <c r="P29" t="n">
-        <v>102.5108904377159</v>
+        <v>102.5108904377158</v>
       </c>
       <c r="Q29" t="n">
-        <v>102.5108904377159</v>
+        <v>102.5108904377158</v>
       </c>
       <c r="R29" t="n">
-        <v>102.5108904377159</v>
+        <v>102.5108904377158</v>
       </c>
       <c r="S29" t="n">
-        <v>102.5108904377159</v>
+        <v>102.5108904377158</v>
       </c>
       <c r="T29" t="n">
-        <v>102.5108904377159</v>
+        <v>102.5108904377158</v>
       </c>
       <c r="U29" t="n">
-        <v>102.5108904377159</v>
+        <v>102.5108904377158</v>
       </c>
       <c r="V29" t="n">
-        <v>102.5108904377159</v>
+        <v>102.5108904377158</v>
       </c>
       <c r="W29" t="n">
-        <v>102.5108904377159</v>
+        <v>102.5108904377158</v>
       </c>
       <c r="X29" t="n">
-        <v>102.5108904377159</v>
+        <v>102.5108904377158</v>
       </c>
       <c r="Y29" t="n">
-        <v>102.5108904377159</v>
+        <v>102.5108904377158</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>102.5108904377159</v>
+        <v>102.5108904377158</v>
       </c>
       <c r="C31" t="n">
-        <v>102.5108904377159</v>
+        <v>102.5108904377158</v>
       </c>
       <c r="D31" t="n">
-        <v>102.5108904377159</v>
+        <v>102.5108904377158</v>
       </c>
       <c r="E31" t="n">
-        <v>102.5108904377159</v>
+        <v>102.5108904377158</v>
       </c>
       <c r="F31" t="n">
-        <v>102.5108904377159</v>
+        <v>102.5108904377158</v>
       </c>
       <c r="G31" t="n">
-        <v>102.5108904377159</v>
+        <v>102.5108904377158</v>
       </c>
       <c r="H31" t="n">
-        <v>102.5108904377159</v>
+        <v>102.5108904377158</v>
       </c>
       <c r="I31" t="n">
-        <v>102.5108904377159</v>
+        <v>102.5108904377158</v>
       </c>
       <c r="J31" t="n">
-        <v>102.5108904377159</v>
+        <v>102.5108904377158</v>
       </c>
       <c r="K31" t="n">
-        <v>102.5108904377159</v>
+        <v>102.5108904377158</v>
       </c>
       <c r="L31" t="n">
-        <v>102.5108904377159</v>
+        <v>102.5108904377158</v>
       </c>
       <c r="M31" t="n">
-        <v>102.5108904377159</v>
+        <v>102.5108904377158</v>
       </c>
       <c r="N31" t="n">
-        <v>102.5108904377159</v>
+        <v>102.5108904377165</v>
       </c>
       <c r="O31" t="n">
-        <v>102.510890437716</v>
+        <v>102.5108904377158</v>
       </c>
       <c r="P31" t="n">
-        <v>102.5108904377159</v>
+        <v>102.5108904377158</v>
       </c>
       <c r="Q31" t="n">
-        <v>102.5108904377159</v>
+        <v>102.5108904377158</v>
       </c>
       <c r="R31" t="n">
-        <v>102.5108904377159</v>
+        <v>102.5108904377158</v>
       </c>
       <c r="S31" t="n">
-        <v>102.5108904377159</v>
+        <v>102.5108904377158</v>
       </c>
       <c r="T31" t="n">
-        <v>102.5108904377159</v>
+        <v>102.5108904377158</v>
       </c>
       <c r="U31" t="n">
-        <v>102.5108904377159</v>
+        <v>102.5108904377158</v>
       </c>
       <c r="V31" t="n">
-        <v>102.5108904377159</v>
+        <v>102.5108904377158</v>
       </c>
       <c r="W31" t="n">
-        <v>102.5108904377159</v>
+        <v>102.5108904377158</v>
       </c>
       <c r="X31" t="n">
-        <v>102.5108904377159</v>
+        <v>102.5108904377158</v>
       </c>
       <c r="Y31" t="n">
-        <v>102.5108904377159</v>
+        <v>102.5108904377158</v>
       </c>
     </row>
     <row r="32">
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>102.5108904377159</v>
+        <v>102.5108904377157</v>
       </c>
       <c r="C32" t="n">
-        <v>102.5108904377159</v>
+        <v>102.5108904377157</v>
       </c>
       <c r="D32" t="n">
-        <v>102.5108904377159</v>
+        <v>102.5108904377157</v>
       </c>
       <c r="E32" t="n">
-        <v>102.5108904377159</v>
+        <v>102.5108904377157</v>
       </c>
       <c r="F32" t="n">
-        <v>102.5108904377159</v>
+        <v>102.5108904377157</v>
       </c>
       <c r="G32" t="n">
-        <v>102.5108904377159</v>
+        <v>102.5108904377157</v>
       </c>
       <c r="H32" t="n">
-        <v>102.5108904377159</v>
+        <v>102.5108904377157</v>
       </c>
       <c r="I32" t="n">
-        <v>102.5108904377159</v>
+        <v>102.5108904377157</v>
       </c>
       <c r="J32" t="n">
-        <v>102.5108904377159</v>
+        <v>102.5108904377157</v>
       </c>
       <c r="K32" t="n">
-        <v>102.5108904377159</v>
+        <v>102.5108904377157</v>
       </c>
       <c r="L32" t="n">
-        <v>102.5108904377159</v>
+        <v>102.5108904377157</v>
       </c>
       <c r="M32" t="n">
-        <v>47.20542854893023</v>
+        <v>0.6188591639805736</v>
       </c>
       <c r="N32" t="n">
-        <v>102.5108904377159</v>
+        <v>102.5108904377157</v>
       </c>
       <c r="O32" t="n">
-        <v>102.5108904377159</v>
+        <v>102.5108904377157</v>
       </c>
       <c r="P32" t="n">
-        <v>102.5108904377159</v>
+        <v>102.5108904377157</v>
       </c>
       <c r="Q32" t="n">
-        <v>102.5108904377159</v>
+        <v>102.5108904377157</v>
       </c>
       <c r="R32" t="n">
-        <v>55.92432105276369</v>
+        <v>102.5108904377157</v>
       </c>
       <c r="S32" t="n">
-        <v>102.5108904377159</v>
+        <v>102.5108904377157</v>
       </c>
       <c r="T32" t="n">
-        <v>102.5108904377159</v>
+        <v>102.5108904377157</v>
       </c>
       <c r="U32" t="n">
-        <v>102.5108904377159</v>
+        <v>102.5108904377157</v>
       </c>
       <c r="V32" t="n">
-        <v>102.5108904377159</v>
+        <v>102.5108904377157</v>
       </c>
       <c r="W32" t="n">
-        <v>102.5108904377159</v>
+        <v>102.5108904377157</v>
       </c>
       <c r="X32" t="n">
-        <v>102.5108904377159</v>
+        <v>102.5108904377157</v>
       </c>
       <c r="Y32" t="n">
-        <v>102.5108904377159</v>
+        <v>102.5108904377157</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>102.5108904377159</v>
+        <v>102.5108904377157</v>
       </c>
       <c r="C34" t="n">
-        <v>102.5108904377159</v>
+        <v>102.5108904377157</v>
       </c>
       <c r="D34" t="n">
-        <v>102.5108904377159</v>
+        <v>102.5108904377157</v>
       </c>
       <c r="E34" t="n">
-        <v>102.5108904377159</v>
+        <v>102.5108904377157</v>
       </c>
       <c r="F34" t="n">
-        <v>102.5108904377159</v>
+        <v>102.5108904377157</v>
       </c>
       <c r="G34" t="n">
-        <v>102.5108904377159</v>
+        <v>102.5108904377157</v>
       </c>
       <c r="H34" t="n">
-        <v>102.5108904377159</v>
+        <v>102.5108904377157</v>
       </c>
       <c r="I34" t="n">
-        <v>102.5108904377159</v>
+        <v>102.5108904377157</v>
       </c>
       <c r="J34" t="n">
-        <v>102.5108904377159</v>
+        <v>102.5108904377157</v>
       </c>
       <c r="K34" t="n">
-        <v>102.5108904377151</v>
+        <v>102.5108904377157</v>
       </c>
       <c r="L34" t="n">
-        <v>102.5108904377159</v>
+        <v>102.5108904377157</v>
       </c>
       <c r="M34" t="n">
-        <v>102.5108904377159</v>
+        <v>102.5108904377157</v>
       </c>
       <c r="N34" t="n">
-        <v>102.5108904377159</v>
+        <v>102.5108904377157</v>
       </c>
       <c r="O34" t="n">
-        <v>102.5108904377159</v>
+        <v>102.5108904377188</v>
       </c>
       <c r="P34" t="n">
-        <v>102.5108904377159</v>
+        <v>102.5108904377157</v>
       </c>
       <c r="Q34" t="n">
-        <v>102.5108904377159</v>
+        <v>102.5108904377157</v>
       </c>
       <c r="R34" t="n">
-        <v>102.5108904377159</v>
+        <v>102.5108904377157</v>
       </c>
       <c r="S34" t="n">
-        <v>102.5108904377159</v>
+        <v>102.5108904377157</v>
       </c>
       <c r="T34" t="n">
-        <v>102.5108904377159</v>
+        <v>102.5108904377157</v>
       </c>
       <c r="U34" t="n">
-        <v>102.5108904377159</v>
+        <v>102.5108904377157</v>
       </c>
       <c r="V34" t="n">
-        <v>102.5108904377159</v>
+        <v>102.5108904377157</v>
       </c>
       <c r="W34" t="n">
-        <v>102.5108904377159</v>
+        <v>102.5108904377157</v>
       </c>
       <c r="X34" t="n">
-        <v>102.5108904377159</v>
+        <v>102.5108904377157</v>
       </c>
       <c r="Y34" t="n">
-        <v>102.5108904377159</v>
+        <v>102.5108904377157</v>
       </c>
     </row>
     <row r="35">
@@ -30004,7 +30004,7 @@
         <v>165.9256431479373</v>
       </c>
       <c r="I35" t="n">
-        <v>150.3401468930787</v>
+        <v>150.3401468930788</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30031,7 +30031,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>55.92432105276369</v>
+        <v>55.92432105276371</v>
       </c>
       <c r="S35" t="n">
         <v>165.9256431479373</v>
@@ -30192,7 +30192,7 @@
         <v>137.1715723222628</v>
       </c>
       <c r="S37" t="n">
-        <v>10.1953005554829</v>
+        <v>165.9256431479373</v>
       </c>
       <c r="T37" t="n">
         <v>165.9256431479373</v>
@@ -30210,7 +30210,7 @@
         <v>165.9256431479373</v>
       </c>
       <c r="Y37" t="n">
-        <v>165.9256431479373</v>
+        <v>10.19530055548341</v>
       </c>
     </row>
     <row r="38">
@@ -30241,7 +30241,7 @@
         <v>165.9256431479373</v>
       </c>
       <c r="I38" t="n">
-        <v>150.3401468930787</v>
+        <v>150.3401468930788</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30268,7 +30268,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>55.92432105276369</v>
+        <v>55.92432105276371</v>
       </c>
       <c r="S38" t="n">
         <v>165.9256431479373</v>
@@ -30423,16 +30423,16 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>17.93657682909335</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>137.1715723222628</v>
       </c>
       <c r="S40" t="n">
-        <v>10.1953005554829</v>
+        <v>165.9256431479373</v>
       </c>
       <c r="T40" t="n">
-        <v>165.9256431479373</v>
+        <v>28.1318773845768</v>
       </c>
       <c r="U40" t="n">
         <v>165.9256431479373</v>
@@ -30505,7 +30505,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>55.92432105276369</v>
+        <v>55.92432105276371</v>
       </c>
       <c r="S41" t="n">
         <v>144.9028134643661</v>
@@ -30660,10 +30660,10 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>103.1372179036123</v>
+        <v>95.40597676150813</v>
       </c>
       <c r="R43" t="n">
-        <v>137.1715723222628</v>
+        <v>144.9028134643661</v>
       </c>
       <c r="S43" t="n">
         <v>144.9028134643661</v>
@@ -30742,7 +30742,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>55.92432105276369</v>
+        <v>55.92432105276371</v>
       </c>
       <c r="S44" t="n">
         <v>144.9028134643661</v>
@@ -30876,10 +30876,10 @@
         <v>135.5009429761232</v>
       </c>
       <c r="J46" t="n">
-        <v>127.5891174347421</v>
+        <v>42.38847636022318</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>85.20064107451836</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5381980393025926</v>
+        <v>0.538198039302592</v>
       </c>
       <c r="H11" t="n">
-        <v>5.511820670007677</v>
+        <v>5.511820670007672</v>
       </c>
       <c r="I11" t="n">
-        <v>20.74887991021322</v>
+        <v>20.7488799102132</v>
       </c>
       <c r="J11" t="n">
-        <v>45.67888583825846</v>
+        <v>45.67888583825841</v>
       </c>
       <c r="K11" t="n">
-        <v>68.46080884193721</v>
+        <v>68.46080884193714</v>
       </c>
       <c r="L11" t="n">
-        <v>84.93168708724394</v>
+        <v>84.93168708724386</v>
       </c>
       <c r="M11" t="n">
-        <v>94.50286646869142</v>
+        <v>94.50286646869132</v>
       </c>
       <c r="N11" t="n">
-        <v>96.03202164785992</v>
+        <v>96.03202164785982</v>
       </c>
       <c r="O11" t="n">
-        <v>90.68031489454476</v>
+        <v>90.68031489454467</v>
       </c>
       <c r="P11" t="n">
-        <v>77.393550799262</v>
+        <v>77.39355079926192</v>
       </c>
       <c r="Q11" t="n">
-        <v>58.11933351673788</v>
+        <v>58.11933351673782</v>
       </c>
       <c r="R11" t="n">
-        <v>33.80758258634151</v>
+        <v>33.80758258634147</v>
       </c>
       <c r="S11" t="n">
-        <v>12.26418782060784</v>
+        <v>12.26418782060783</v>
       </c>
       <c r="T11" t="n">
-        <v>2.3559619170471</v>
+        <v>2.355961917047098</v>
       </c>
       <c r="U11" t="n">
-        <v>0.04305584314420739</v>
+        <v>0.04305584314420735</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2879613377268543</v>
+        <v>0.2879613377268541</v>
       </c>
       <c r="H12" t="n">
-        <v>2.781100288046199</v>
+        <v>2.781100288046196</v>
       </c>
       <c r="I12" t="n">
-        <v>9.914458338402662</v>
+        <v>9.914458338402651</v>
       </c>
       <c r="J12" t="n">
-        <v>27.20603147357092</v>
+        <v>27.20603147357089</v>
       </c>
       <c r="K12" t="n">
-        <v>46.49944110127016</v>
+        <v>46.49944110127011</v>
       </c>
       <c r="L12" t="n">
-        <v>62.52423694810494</v>
+        <v>62.52423694810487</v>
       </c>
       <c r="M12" t="n">
-        <v>72.96283544070339</v>
+        <v>72.96283544070332</v>
       </c>
       <c r="N12" t="n">
-        <v>74.89394458712603</v>
+        <v>74.89394458712596</v>
       </c>
       <c r="O12" t="n">
-        <v>68.51332757749415</v>
+        <v>68.51332757749408</v>
       </c>
       <c r="P12" t="n">
-        <v>54.98798562259555</v>
+        <v>54.98798562259549</v>
       </c>
       <c r="Q12" t="n">
-        <v>36.75801216316829</v>
+        <v>36.75801216316825</v>
       </c>
       <c r="R12" t="n">
-        <v>17.87886270553224</v>
+        <v>17.87886270553222</v>
       </c>
       <c r="S12" t="n">
-        <v>5.34875554944398</v>
+        <v>5.348755549443974</v>
       </c>
       <c r="T12" t="n">
-        <v>1.160686269170961</v>
+        <v>1.160686269170959</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01894482485045095</v>
+        <v>0.01894482485045093</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2414171123019213</v>
+        <v>0.241417112301921</v>
       </c>
       <c r="H13" t="n">
-        <v>2.146417598466174</v>
+        <v>2.146417598466172</v>
       </c>
       <c r="I13" t="n">
-        <v>7.260070977225054</v>
+        <v>7.260070977225046</v>
       </c>
       <c r="J13" t="n">
-        <v>17.06818983974583</v>
+        <v>17.06818983974582</v>
       </c>
       <c r="K13" t="n">
-        <v>28.04827904744139</v>
+        <v>28.04827904744137</v>
       </c>
       <c r="L13" t="n">
-        <v>35.89214049623292</v>
+        <v>35.89214049623288</v>
       </c>
       <c r="M13" t="n">
-        <v>37.84322970383662</v>
+        <v>37.84322970383658</v>
       </c>
       <c r="N13" t="n">
-        <v>36.94340228525676</v>
+        <v>36.94340228525672</v>
       </c>
       <c r="O13" t="n">
-        <v>34.12321147336612</v>
+        <v>34.12321147336608</v>
       </c>
       <c r="P13" t="n">
-        <v>29.1983023824069</v>
+        <v>29.19830238240687</v>
       </c>
       <c r="Q13" t="n">
-        <v>20.21539110375452</v>
+        <v>20.2153911037545</v>
       </c>
       <c r="R13" t="n">
-        <v>10.85499124950275</v>
+        <v>10.85499124950274</v>
       </c>
       <c r="S13" t="n">
-        <v>4.207241857116209</v>
+        <v>4.207241857116204</v>
       </c>
       <c r="T13" t="n">
-        <v>1.031509479835482</v>
+        <v>1.03150947983548</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01316820612555936</v>
+        <v>0.01316820612555934</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5381980393025926</v>
+        <v>0.538198039302592</v>
       </c>
       <c r="H14" t="n">
-        <v>5.511820670007677</v>
+        <v>5.511820670007672</v>
       </c>
       <c r="I14" t="n">
-        <v>20.74887991021322</v>
+        <v>20.7488799102132</v>
       </c>
       <c r="J14" t="n">
-        <v>45.67888583825846</v>
+        <v>45.67888583825841</v>
       </c>
       <c r="K14" t="n">
-        <v>68.46080884193721</v>
+        <v>68.46080884193714</v>
       </c>
       <c r="L14" t="n">
-        <v>84.93168708724394</v>
+        <v>84.93168708724386</v>
       </c>
       <c r="M14" t="n">
-        <v>94.50286646869142</v>
+        <v>94.50286646869132</v>
       </c>
       <c r="N14" t="n">
-        <v>96.03202164785992</v>
+        <v>96.03202164785982</v>
       </c>
       <c r="O14" t="n">
-        <v>90.68031489454476</v>
+        <v>90.68031489454467</v>
       </c>
       <c r="P14" t="n">
-        <v>77.393550799262</v>
+        <v>77.39355079926192</v>
       </c>
       <c r="Q14" t="n">
-        <v>58.11933351673788</v>
+        <v>58.11933351673782</v>
       </c>
       <c r="R14" t="n">
-        <v>33.80758258634151</v>
+        <v>33.80758258634147</v>
       </c>
       <c r="S14" t="n">
-        <v>12.26418782060784</v>
+        <v>12.26418782060783</v>
       </c>
       <c r="T14" t="n">
-        <v>2.3559619170471</v>
+        <v>2.355961917047098</v>
       </c>
       <c r="U14" t="n">
-        <v>0.04305584314420739</v>
+        <v>0.04305584314420735</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2879613377268543</v>
+        <v>0.2879613377268541</v>
       </c>
       <c r="H15" t="n">
-        <v>2.781100288046199</v>
+        <v>2.781100288046196</v>
       </c>
       <c r="I15" t="n">
-        <v>9.914458338402662</v>
+        <v>9.914458338402651</v>
       </c>
       <c r="J15" t="n">
-        <v>27.20603147357092</v>
+        <v>27.20603147357089</v>
       </c>
       <c r="K15" t="n">
-        <v>46.49944110127016</v>
+        <v>46.49944110127011</v>
       </c>
       <c r="L15" t="n">
-        <v>62.52423694810494</v>
+        <v>62.52423694810487</v>
       </c>
       <c r="M15" t="n">
-        <v>72.96283544070339</v>
+        <v>72.96283544070332</v>
       </c>
       <c r="N15" t="n">
-        <v>74.89394458712603</v>
+        <v>74.89394458712596</v>
       </c>
       <c r="O15" t="n">
-        <v>68.51332757749415</v>
+        <v>68.51332757749408</v>
       </c>
       <c r="P15" t="n">
-        <v>54.98798562259555</v>
+        <v>54.98798562259549</v>
       </c>
       <c r="Q15" t="n">
-        <v>36.75801216316829</v>
+        <v>36.75801216316825</v>
       </c>
       <c r="R15" t="n">
-        <v>17.87886270553224</v>
+        <v>17.87886270553222</v>
       </c>
       <c r="S15" t="n">
-        <v>5.34875554944398</v>
+        <v>5.348755549443974</v>
       </c>
       <c r="T15" t="n">
-        <v>1.160686269170961</v>
+        <v>1.160686269170959</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01894482485045095</v>
+        <v>0.01894482485045093</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2414171123019213</v>
+        <v>0.241417112301921</v>
       </c>
       <c r="H16" t="n">
-        <v>2.146417598466174</v>
+        <v>2.146417598466172</v>
       </c>
       <c r="I16" t="n">
-        <v>7.260070977225054</v>
+        <v>7.260070977225046</v>
       </c>
       <c r="J16" t="n">
-        <v>17.06818983974583</v>
+        <v>17.06818983974582</v>
       </c>
       <c r="K16" t="n">
-        <v>28.04827904744139</v>
+        <v>28.04827904744137</v>
       </c>
       <c r="L16" t="n">
-        <v>35.89214049623292</v>
+        <v>35.89214049623288</v>
       </c>
       <c r="M16" t="n">
-        <v>37.84322970383662</v>
+        <v>37.84322970383658</v>
       </c>
       <c r="N16" t="n">
-        <v>36.94340228525676</v>
+        <v>36.94340228525672</v>
       </c>
       <c r="O16" t="n">
-        <v>34.12321147336612</v>
+        <v>34.12321147336608</v>
       </c>
       <c r="P16" t="n">
-        <v>29.1983023824069</v>
+        <v>29.19830238240687</v>
       </c>
       <c r="Q16" t="n">
-        <v>20.21539110375452</v>
+        <v>20.2153911037545</v>
       </c>
       <c r="R16" t="n">
-        <v>10.85499124950275</v>
+        <v>10.85499124950274</v>
       </c>
       <c r="S16" t="n">
-        <v>4.207241857116209</v>
+        <v>4.207241857116204</v>
       </c>
       <c r="T16" t="n">
-        <v>1.031509479835482</v>
+        <v>1.03150947983548</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01316820612555936</v>
+        <v>0.01316820612555934</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5381980393025926</v>
+        <v>0.538198039302592</v>
       </c>
       <c r="H17" t="n">
-        <v>5.511820670007677</v>
+        <v>5.511820670007672</v>
       </c>
       <c r="I17" t="n">
-        <v>20.74887991021322</v>
+        <v>20.7488799102132</v>
       </c>
       <c r="J17" t="n">
-        <v>45.67888583825846</v>
+        <v>45.67888583825841</v>
       </c>
       <c r="K17" t="n">
-        <v>68.46080884193721</v>
+        <v>68.46080884193714</v>
       </c>
       <c r="L17" t="n">
-        <v>84.93168708724394</v>
+        <v>84.93168708724386</v>
       </c>
       <c r="M17" t="n">
-        <v>94.50286646869142</v>
+        <v>94.50286646869132</v>
       </c>
       <c r="N17" t="n">
-        <v>96.03202164785992</v>
+        <v>96.03202164785982</v>
       </c>
       <c r="O17" t="n">
-        <v>90.68031489454476</v>
+        <v>90.68031489454467</v>
       </c>
       <c r="P17" t="n">
-        <v>77.393550799262</v>
+        <v>77.39355079926192</v>
       </c>
       <c r="Q17" t="n">
-        <v>58.11933351673788</v>
+        <v>58.11933351673782</v>
       </c>
       <c r="R17" t="n">
-        <v>33.80758258634151</v>
+        <v>33.80758258634147</v>
       </c>
       <c r="S17" t="n">
-        <v>12.26418782060784</v>
+        <v>12.26418782060783</v>
       </c>
       <c r="T17" t="n">
-        <v>2.3559619170471</v>
+        <v>2.355961917047098</v>
       </c>
       <c r="U17" t="n">
-        <v>0.04305584314420739</v>
+        <v>0.04305584314420735</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2879613377268543</v>
+        <v>0.2879613377268541</v>
       </c>
       <c r="H18" t="n">
-        <v>2.781100288046199</v>
+        <v>2.781100288046196</v>
       </c>
       <c r="I18" t="n">
-        <v>9.914458338402662</v>
+        <v>9.914458338402651</v>
       </c>
       <c r="J18" t="n">
-        <v>27.20603147357092</v>
+        <v>27.20603147357089</v>
       </c>
       <c r="K18" t="n">
-        <v>46.49944110127016</v>
+        <v>46.49944110127011</v>
       </c>
       <c r="L18" t="n">
-        <v>62.52423694810494</v>
+        <v>62.52423694810487</v>
       </c>
       <c r="M18" t="n">
-        <v>72.96283544070339</v>
+        <v>72.96283544070332</v>
       </c>
       <c r="N18" t="n">
-        <v>74.89394458712603</v>
+        <v>74.89394458712596</v>
       </c>
       <c r="O18" t="n">
-        <v>68.51332757749415</v>
+        <v>68.51332757749408</v>
       </c>
       <c r="P18" t="n">
-        <v>54.98798562259555</v>
+        <v>54.98798562259549</v>
       </c>
       <c r="Q18" t="n">
-        <v>36.75801216316829</v>
+        <v>36.75801216316825</v>
       </c>
       <c r="R18" t="n">
-        <v>17.87886270553224</v>
+        <v>17.87886270553222</v>
       </c>
       <c r="S18" t="n">
-        <v>5.34875554944398</v>
+        <v>5.348755549443974</v>
       </c>
       <c r="T18" t="n">
-        <v>1.160686269170961</v>
+        <v>1.160686269170959</v>
       </c>
       <c r="U18" t="n">
-        <v>0.01894482485045095</v>
+        <v>0.01894482485045093</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2414171123019213</v>
+        <v>0.241417112301921</v>
       </c>
       <c r="H19" t="n">
-        <v>2.146417598466174</v>
+        <v>2.146417598466172</v>
       </c>
       <c r="I19" t="n">
-        <v>7.260070977225054</v>
+        <v>7.260070977225046</v>
       </c>
       <c r="J19" t="n">
-        <v>17.06818983974583</v>
+        <v>17.06818983974582</v>
       </c>
       <c r="K19" t="n">
-        <v>28.04827904744139</v>
+        <v>28.04827904744137</v>
       </c>
       <c r="L19" t="n">
-        <v>35.89214049623292</v>
+        <v>35.89214049623288</v>
       </c>
       <c r="M19" t="n">
-        <v>37.84322970383662</v>
+        <v>37.84322970383658</v>
       </c>
       <c r="N19" t="n">
-        <v>36.94340228525676</v>
+        <v>36.94340228525672</v>
       </c>
       <c r="O19" t="n">
-        <v>34.12321147336612</v>
+        <v>34.12321147336608</v>
       </c>
       <c r="P19" t="n">
-        <v>29.1983023824069</v>
+        <v>29.19830238240687</v>
       </c>
       <c r="Q19" t="n">
-        <v>20.21539110375452</v>
+        <v>20.2153911037545</v>
       </c>
       <c r="R19" t="n">
-        <v>10.85499124950275</v>
+        <v>10.85499124950274</v>
       </c>
       <c r="S19" t="n">
-        <v>4.207241857116209</v>
+        <v>4.207241857116204</v>
       </c>
       <c r="T19" t="n">
-        <v>1.031509479835482</v>
+        <v>1.03150947983548</v>
       </c>
       <c r="U19" t="n">
-        <v>0.01316820612555936</v>
+        <v>0.01316820612555934</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5381980393025926</v>
+        <v>0.538198039302592</v>
       </c>
       <c r="H20" t="n">
-        <v>5.511820670007677</v>
+        <v>5.511820670007672</v>
       </c>
       <c r="I20" t="n">
-        <v>20.74887991021322</v>
+        <v>20.7488799102132</v>
       </c>
       <c r="J20" t="n">
-        <v>45.67888583825846</v>
+        <v>45.67888583825841</v>
       </c>
       <c r="K20" t="n">
-        <v>68.46080884193721</v>
+        <v>68.46080884193714</v>
       </c>
       <c r="L20" t="n">
-        <v>84.93168708724394</v>
+        <v>84.93168708724386</v>
       </c>
       <c r="M20" t="n">
-        <v>94.50286646869142</v>
+        <v>94.50286646869132</v>
       </c>
       <c r="N20" t="n">
-        <v>96.03202164785992</v>
+        <v>96.03202164785982</v>
       </c>
       <c r="O20" t="n">
-        <v>90.68031489454476</v>
+        <v>90.68031489454467</v>
       </c>
       <c r="P20" t="n">
-        <v>77.393550799262</v>
+        <v>77.39355079926192</v>
       </c>
       <c r="Q20" t="n">
-        <v>58.11933351673788</v>
+        <v>58.11933351673782</v>
       </c>
       <c r="R20" t="n">
-        <v>33.80758258634151</v>
+        <v>33.80758258634147</v>
       </c>
       <c r="S20" t="n">
-        <v>12.26418782060784</v>
+        <v>12.26418782060783</v>
       </c>
       <c r="T20" t="n">
-        <v>2.3559619170471</v>
+        <v>2.355961917047098</v>
       </c>
       <c r="U20" t="n">
-        <v>0.04305584314420739</v>
+        <v>0.04305584314420735</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2879613377268543</v>
+        <v>0.2879613377268541</v>
       </c>
       <c r="H21" t="n">
-        <v>2.781100288046199</v>
+        <v>2.781100288046196</v>
       </c>
       <c r="I21" t="n">
-        <v>9.914458338402662</v>
+        <v>9.914458338402651</v>
       </c>
       <c r="J21" t="n">
-        <v>27.20603147357092</v>
+        <v>27.20603147357089</v>
       </c>
       <c r="K21" t="n">
-        <v>46.49944110127016</v>
+        <v>46.49944110127011</v>
       </c>
       <c r="L21" t="n">
-        <v>62.52423694810494</v>
+        <v>62.52423694810487</v>
       </c>
       <c r="M21" t="n">
-        <v>72.96283544070339</v>
+        <v>72.96283544070332</v>
       </c>
       <c r="N21" t="n">
-        <v>74.89394458712603</v>
+        <v>74.89394458712596</v>
       </c>
       <c r="O21" t="n">
-        <v>68.51332757749415</v>
+        <v>68.51332757749408</v>
       </c>
       <c r="P21" t="n">
-        <v>54.98798562259555</v>
+        <v>54.98798562259549</v>
       </c>
       <c r="Q21" t="n">
-        <v>36.75801216316829</v>
+        <v>36.75801216316825</v>
       </c>
       <c r="R21" t="n">
-        <v>17.87886270553224</v>
+        <v>17.87886270553222</v>
       </c>
       <c r="S21" t="n">
-        <v>5.34875554944398</v>
+        <v>5.348755549443974</v>
       </c>
       <c r="T21" t="n">
-        <v>1.160686269170961</v>
+        <v>1.160686269170959</v>
       </c>
       <c r="U21" t="n">
-        <v>0.01894482485045095</v>
+        <v>0.01894482485045093</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2414171123019213</v>
+        <v>0.241417112301921</v>
       </c>
       <c r="H22" t="n">
-        <v>2.146417598466174</v>
+        <v>2.146417598466172</v>
       </c>
       <c r="I22" t="n">
-        <v>7.260070977225054</v>
+        <v>7.260070977225046</v>
       </c>
       <c r="J22" t="n">
-        <v>17.06818983974583</v>
+        <v>17.06818983974582</v>
       </c>
       <c r="K22" t="n">
-        <v>28.04827904744139</v>
+        <v>28.04827904744137</v>
       </c>
       <c r="L22" t="n">
-        <v>35.89214049623292</v>
+        <v>35.89214049623288</v>
       </c>
       <c r="M22" t="n">
-        <v>37.84322970383662</v>
+        <v>37.84322970383658</v>
       </c>
       <c r="N22" t="n">
-        <v>36.94340228525676</v>
+        <v>36.94340228525672</v>
       </c>
       <c r="O22" t="n">
-        <v>34.12321147336612</v>
+        <v>34.12321147336608</v>
       </c>
       <c r="P22" t="n">
-        <v>29.1983023824069</v>
+        <v>29.19830238240687</v>
       </c>
       <c r="Q22" t="n">
-        <v>20.21539110375452</v>
+        <v>20.2153911037545</v>
       </c>
       <c r="R22" t="n">
-        <v>10.85499124950275</v>
+        <v>10.85499124950274</v>
       </c>
       <c r="S22" t="n">
-        <v>4.207241857116209</v>
+        <v>4.207241857116204</v>
       </c>
       <c r="T22" t="n">
-        <v>1.031509479835482</v>
+        <v>1.03150947983548</v>
       </c>
       <c r="U22" t="n">
-        <v>0.01316820612555936</v>
+        <v>0.01316820612555934</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,40 +32698,40 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5381980393025922</v>
+        <v>0.538198039302592</v>
       </c>
       <c r="H23" t="n">
-        <v>5.511820670007674</v>
+        <v>5.511820670007672</v>
       </c>
       <c r="I23" t="n">
         <v>20.7488799102132</v>
       </c>
       <c r="J23" t="n">
-        <v>45.67888583825842</v>
+        <v>45.67888583825841</v>
       </c>
       <c r="K23" t="n">
-        <v>68.46080884193717</v>
+        <v>68.46080884193714</v>
       </c>
       <c r="L23" t="n">
-        <v>84.93168708724389</v>
+        <v>84.93168708724386</v>
       </c>
       <c r="M23" t="n">
-        <v>94.50286646869137</v>
+        <v>94.50286646869132</v>
       </c>
       <c r="N23" t="n">
-        <v>96.03202164785986</v>
+        <v>96.03202164785982</v>
       </c>
       <c r="O23" t="n">
-        <v>90.68031489454471</v>
+        <v>90.68031489454467</v>
       </c>
       <c r="P23" t="n">
-        <v>77.39355079926194</v>
+        <v>77.39355079926192</v>
       </c>
       <c r="Q23" t="n">
-        <v>58.11933351673785</v>
+        <v>58.11933351673782</v>
       </c>
       <c r="R23" t="n">
-        <v>33.80758258634149</v>
+        <v>33.80758258634147</v>
       </c>
       <c r="S23" t="n">
         <v>12.26418782060783</v>
@@ -32740,7 +32740,7 @@
         <v>2.355961917047098</v>
       </c>
       <c r="U23" t="n">
-        <v>0.04305584314420736</v>
+        <v>0.04305584314420735</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2879613377268542</v>
+        <v>0.2879613377268541</v>
       </c>
       <c r="H24" t="n">
-        <v>2.781100288046197</v>
+        <v>2.781100288046196</v>
       </c>
       <c r="I24" t="n">
-        <v>9.914458338402655</v>
+        <v>9.914458338402651</v>
       </c>
       <c r="J24" t="n">
-        <v>27.20603147357091</v>
+        <v>27.20603147357089</v>
       </c>
       <c r="K24" t="n">
-        <v>46.49944110127013</v>
+        <v>46.49944110127011</v>
       </c>
       <c r="L24" t="n">
-        <v>62.5242369481049</v>
+        <v>62.52423694810487</v>
       </c>
       <c r="M24" t="n">
-        <v>72.96283544070334</v>
+        <v>72.96283544070332</v>
       </c>
       <c r="N24" t="n">
-        <v>74.89394458712599</v>
+        <v>74.89394458712596</v>
       </c>
       <c r="O24" t="n">
-        <v>68.51332757749411</v>
+        <v>68.51332757749408</v>
       </c>
       <c r="P24" t="n">
-        <v>54.98798562259552</v>
+        <v>54.98798562259549</v>
       </c>
       <c r="Q24" t="n">
-        <v>36.75801216316827</v>
+        <v>36.75801216316825</v>
       </c>
       <c r="R24" t="n">
-        <v>17.87886270553223</v>
+        <v>17.87886270553222</v>
       </c>
       <c r="S24" t="n">
-        <v>5.348755549443976</v>
+        <v>5.348755549443974</v>
       </c>
       <c r="T24" t="n">
-        <v>1.16068626917096</v>
+        <v>1.160686269170959</v>
       </c>
       <c r="U24" t="n">
-        <v>0.01894482485045094</v>
+        <v>0.01894482485045093</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2414171123019211</v>
+        <v>0.241417112301921</v>
       </c>
       <c r="H25" t="n">
-        <v>2.146417598466173</v>
+        <v>2.146417598466172</v>
       </c>
       <c r="I25" t="n">
-        <v>7.260070977225048</v>
+        <v>7.260070977225046</v>
       </c>
       <c r="J25" t="n">
         <v>17.06818983974582</v>
       </c>
       <c r="K25" t="n">
-        <v>28.04827904744138</v>
+        <v>28.04827904744137</v>
       </c>
       <c r="L25" t="n">
-        <v>35.8921404962329</v>
+        <v>35.89214049623288</v>
       </c>
       <c r="M25" t="n">
-        <v>37.84322970383659</v>
+        <v>37.84322970383658</v>
       </c>
       <c r="N25" t="n">
-        <v>36.94340228525674</v>
+        <v>36.94340228525672</v>
       </c>
       <c r="O25" t="n">
-        <v>34.1232114733661</v>
+        <v>34.12321147336608</v>
       </c>
       <c r="P25" t="n">
-        <v>29.19830238240689</v>
+        <v>29.19830238240687</v>
       </c>
       <c r="Q25" t="n">
-        <v>20.21539110375451</v>
+        <v>20.2153911037545</v>
       </c>
       <c r="R25" t="n">
         <v>10.85499124950274</v>
       </c>
       <c r="S25" t="n">
-        <v>4.207241857116206</v>
+        <v>4.207241857116204</v>
       </c>
       <c r="T25" t="n">
-        <v>1.031509479835481</v>
+        <v>1.03150947983548</v>
       </c>
       <c r="U25" t="n">
-        <v>0.01316820612555935</v>
+        <v>0.01316820612555934</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5381980393025927</v>
+        <v>0.538198039302592</v>
       </c>
       <c r="H26" t="n">
-        <v>5.511820670007679</v>
+        <v>5.511820670007672</v>
       </c>
       <c r="I26" t="n">
-        <v>20.74887991021322</v>
+        <v>20.7488799102132</v>
       </c>
       <c r="J26" t="n">
-        <v>45.67888583825847</v>
+        <v>45.67888583825841</v>
       </c>
       <c r="K26" t="n">
-        <v>68.46080884193722</v>
+        <v>68.46080884193714</v>
       </c>
       <c r="L26" t="n">
-        <v>84.93168708724396</v>
+        <v>84.93168708724386</v>
       </c>
       <c r="M26" t="n">
-        <v>94.50286646869144</v>
+        <v>94.50286646869132</v>
       </c>
       <c r="N26" t="n">
-        <v>96.03202164785995</v>
+        <v>96.03202164785982</v>
       </c>
       <c r="O26" t="n">
-        <v>90.68031489454478</v>
+        <v>90.68031489454467</v>
       </c>
       <c r="P26" t="n">
-        <v>77.39355079926202</v>
+        <v>77.39355079926192</v>
       </c>
       <c r="Q26" t="n">
-        <v>58.1193335167379</v>
+        <v>58.11933351673782</v>
       </c>
       <c r="R26" t="n">
-        <v>33.80758258634152</v>
+        <v>33.80758258634147</v>
       </c>
       <c r="S26" t="n">
-        <v>12.26418782060784</v>
+        <v>12.26418782060783</v>
       </c>
       <c r="T26" t="n">
-        <v>2.355961917047101</v>
+        <v>2.355961917047098</v>
       </c>
       <c r="U26" t="n">
-        <v>0.04305584314420741</v>
+        <v>0.04305584314420735</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2879613377268544</v>
+        <v>0.2879613377268541</v>
       </c>
       <c r="H27" t="n">
-        <v>2.7811002880462</v>
+        <v>2.781100288046196</v>
       </c>
       <c r="I27" t="n">
-        <v>9.914458338402664</v>
+        <v>9.914458338402651</v>
       </c>
       <c r="J27" t="n">
-        <v>27.20603147357093</v>
+        <v>27.20603147357089</v>
       </c>
       <c r="K27" t="n">
-        <v>46.49944110127017</v>
+        <v>46.49944110127011</v>
       </c>
       <c r="L27" t="n">
-        <v>62.52423694810495</v>
+        <v>62.52423694810487</v>
       </c>
       <c r="M27" t="n">
-        <v>72.9628354407034</v>
+        <v>72.96283544070332</v>
       </c>
       <c r="N27" t="n">
-        <v>74.89394458712606</v>
+        <v>74.89394458712596</v>
       </c>
       <c r="O27" t="n">
-        <v>68.51332757749417</v>
+        <v>68.51332757749408</v>
       </c>
       <c r="P27" t="n">
-        <v>54.98798562259556</v>
+        <v>54.98798562259549</v>
       </c>
       <c r="Q27" t="n">
-        <v>36.7580121631683</v>
+        <v>36.75801216316825</v>
       </c>
       <c r="R27" t="n">
-        <v>17.87886270553225</v>
+        <v>17.87886270553222</v>
       </c>
       <c r="S27" t="n">
-        <v>5.348755549443981</v>
+        <v>5.348755549443974</v>
       </c>
       <c r="T27" t="n">
-        <v>1.160686269170961</v>
+        <v>1.160686269170959</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01894482485045096</v>
+        <v>0.01894482485045093</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2414171123019213</v>
+        <v>0.241417112301921</v>
       </c>
       <c r="H28" t="n">
-        <v>2.146417598466175</v>
+        <v>2.146417598466172</v>
       </c>
       <c r="I28" t="n">
-        <v>7.260070977225054</v>
+        <v>7.260070977225046</v>
       </c>
       <c r="J28" t="n">
-        <v>17.06818983974584</v>
+        <v>17.06818983974582</v>
       </c>
       <c r="K28" t="n">
-        <v>28.0482790474414</v>
+        <v>28.04827904744137</v>
       </c>
       <c r="L28" t="n">
-        <v>35.89214049623293</v>
+        <v>35.89214049623288</v>
       </c>
       <c r="M28" t="n">
-        <v>37.84322970383663</v>
+        <v>37.84322970383658</v>
       </c>
       <c r="N28" t="n">
-        <v>36.94340228525677</v>
+        <v>36.94340228525672</v>
       </c>
       <c r="O28" t="n">
-        <v>34.12321147336613</v>
+        <v>34.12321147336608</v>
       </c>
       <c r="P28" t="n">
-        <v>29.19830238240691</v>
+        <v>29.19830238240687</v>
       </c>
       <c r="Q28" t="n">
-        <v>20.21539110375452</v>
+        <v>20.2153911037545</v>
       </c>
       <c r="R28" t="n">
-        <v>10.85499124950275</v>
+        <v>10.85499124950274</v>
       </c>
       <c r="S28" t="n">
-        <v>4.20724185711621</v>
+        <v>4.207241857116204</v>
       </c>
       <c r="T28" t="n">
-        <v>1.031509479835482</v>
+        <v>1.03150947983548</v>
       </c>
       <c r="U28" t="n">
-        <v>0.01316820612555936</v>
+        <v>0.01316820612555934</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,40 +33172,40 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5381980393025922</v>
+        <v>0.538198039302592</v>
       </c>
       <c r="H29" t="n">
-        <v>5.511820670007674</v>
+        <v>5.511820670007672</v>
       </c>
       <c r="I29" t="n">
         <v>20.7488799102132</v>
       </c>
       <c r="J29" t="n">
-        <v>45.67888583825842</v>
+        <v>45.67888583825841</v>
       </c>
       <c r="K29" t="n">
-        <v>68.46080884193717</v>
+        <v>68.46080884193714</v>
       </c>
       <c r="L29" t="n">
-        <v>84.93168708724389</v>
+        <v>84.93168708724386</v>
       </c>
       <c r="M29" t="n">
-        <v>94.50286646869137</v>
+        <v>94.50286646869132</v>
       </c>
       <c r="N29" t="n">
-        <v>96.03202164785986</v>
+        <v>96.03202164785982</v>
       </c>
       <c r="O29" t="n">
-        <v>90.68031489454471</v>
+        <v>90.68031489454467</v>
       </c>
       <c r="P29" t="n">
-        <v>77.39355079926194</v>
+        <v>77.39355079926192</v>
       </c>
       <c r="Q29" t="n">
-        <v>58.11933351673785</v>
+        <v>58.11933351673782</v>
       </c>
       <c r="R29" t="n">
-        <v>33.80758258634149</v>
+        <v>33.80758258634147</v>
       </c>
       <c r="S29" t="n">
         <v>12.26418782060783</v>
@@ -33214,7 +33214,7 @@
         <v>2.355961917047098</v>
       </c>
       <c r="U29" t="n">
-        <v>0.04305584314420736</v>
+        <v>0.04305584314420735</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2879613377268542</v>
+        <v>0.2879613377268541</v>
       </c>
       <c r="H30" t="n">
-        <v>2.781100288046197</v>
+        <v>2.781100288046196</v>
       </c>
       <c r="I30" t="n">
-        <v>9.914458338402655</v>
+        <v>9.914458338402651</v>
       </c>
       <c r="J30" t="n">
-        <v>27.20603147357091</v>
+        <v>27.20603147357089</v>
       </c>
       <c r="K30" t="n">
-        <v>46.49944110127013</v>
+        <v>46.49944110127011</v>
       </c>
       <c r="L30" t="n">
-        <v>62.5242369481049</v>
+        <v>62.52423694810487</v>
       </c>
       <c r="M30" t="n">
-        <v>72.96283544070334</v>
+        <v>72.96283544070332</v>
       </c>
       <c r="N30" t="n">
-        <v>74.89394458712599</v>
+        <v>74.89394458712596</v>
       </c>
       <c r="O30" t="n">
-        <v>68.51332757749411</v>
+        <v>68.51332757749408</v>
       </c>
       <c r="P30" t="n">
-        <v>54.98798562259552</v>
+        <v>54.98798562259549</v>
       </c>
       <c r="Q30" t="n">
-        <v>36.75801216316827</v>
+        <v>36.75801216316825</v>
       </c>
       <c r="R30" t="n">
-        <v>17.87886270553223</v>
+        <v>17.87886270553222</v>
       </c>
       <c r="S30" t="n">
-        <v>5.348755549443976</v>
+        <v>5.348755549443974</v>
       </c>
       <c r="T30" t="n">
-        <v>1.16068626917096</v>
+        <v>1.160686269170959</v>
       </c>
       <c r="U30" t="n">
-        <v>0.01894482485045094</v>
+        <v>0.01894482485045093</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2414171123019211</v>
+        <v>0.241417112301921</v>
       </c>
       <c r="H31" t="n">
-        <v>2.146417598466173</v>
+        <v>2.146417598466172</v>
       </c>
       <c r="I31" t="n">
-        <v>7.260070977225048</v>
+        <v>7.260070977225046</v>
       </c>
       <c r="J31" t="n">
         <v>17.06818983974582</v>
       </c>
       <c r="K31" t="n">
-        <v>28.04827904744138</v>
+        <v>28.04827904744137</v>
       </c>
       <c r="L31" t="n">
-        <v>35.8921404962329</v>
+        <v>35.89214049623288</v>
       </c>
       <c r="M31" t="n">
-        <v>37.84322970383659</v>
+        <v>37.84322970383658</v>
       </c>
       <c r="N31" t="n">
-        <v>36.94340228525674</v>
+        <v>36.94340228525672</v>
       </c>
       <c r="O31" t="n">
-        <v>34.1232114733661</v>
+        <v>34.12321147336608</v>
       </c>
       <c r="P31" t="n">
-        <v>29.19830238240689</v>
+        <v>29.19830238240687</v>
       </c>
       <c r="Q31" t="n">
-        <v>20.21539110375451</v>
+        <v>20.2153911037545</v>
       </c>
       <c r="R31" t="n">
         <v>10.85499124950274</v>
       </c>
       <c r="S31" t="n">
-        <v>4.207241857116206</v>
+        <v>4.207241857116204</v>
       </c>
       <c r="T31" t="n">
-        <v>1.031509479835481</v>
+        <v>1.03150947983548</v>
       </c>
       <c r="U31" t="n">
-        <v>0.01316820612555935</v>
+        <v>0.01316820612555934</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,40 +33409,40 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.5381980393025922</v>
+        <v>0.538198039302592</v>
       </c>
       <c r="H32" t="n">
-        <v>5.511820670007674</v>
+        <v>5.511820670007672</v>
       </c>
       <c r="I32" t="n">
         <v>20.7488799102132</v>
       </c>
       <c r="J32" t="n">
-        <v>45.67888583825842</v>
+        <v>45.67888583825841</v>
       </c>
       <c r="K32" t="n">
-        <v>68.46080884193717</v>
+        <v>68.46080884193714</v>
       </c>
       <c r="L32" t="n">
-        <v>84.93168708724389</v>
+        <v>84.93168708724386</v>
       </c>
       <c r="M32" t="n">
-        <v>94.50286646869137</v>
+        <v>94.50286646869132</v>
       </c>
       <c r="N32" t="n">
-        <v>96.03202164785986</v>
+        <v>96.03202164785982</v>
       </c>
       <c r="O32" t="n">
-        <v>90.68031489454471</v>
+        <v>90.68031489454467</v>
       </c>
       <c r="P32" t="n">
-        <v>77.39355079926194</v>
+        <v>77.39355079926192</v>
       </c>
       <c r="Q32" t="n">
-        <v>58.11933351673785</v>
+        <v>58.11933351673782</v>
       </c>
       <c r="R32" t="n">
-        <v>33.80758258634149</v>
+        <v>33.80758258634147</v>
       </c>
       <c r="S32" t="n">
         <v>12.26418782060783</v>
@@ -33451,7 +33451,7 @@
         <v>2.355961917047098</v>
       </c>
       <c r="U32" t="n">
-        <v>0.04305584314420736</v>
+        <v>0.04305584314420735</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2879613377268542</v>
+        <v>0.2879613377268541</v>
       </c>
       <c r="H33" t="n">
-        <v>2.781100288046197</v>
+        <v>2.781100288046196</v>
       </c>
       <c r="I33" t="n">
-        <v>9.914458338402655</v>
+        <v>9.914458338402651</v>
       </c>
       <c r="J33" t="n">
-        <v>27.20603147357091</v>
+        <v>27.20603147357089</v>
       </c>
       <c r="K33" t="n">
-        <v>46.49944110127013</v>
+        <v>46.49944110127011</v>
       </c>
       <c r="L33" t="n">
-        <v>62.5242369481049</v>
+        <v>62.52423694810487</v>
       </c>
       <c r="M33" t="n">
-        <v>72.96283544070334</v>
+        <v>72.96283544070332</v>
       </c>
       <c r="N33" t="n">
-        <v>74.89394458712599</v>
+        <v>74.89394458712596</v>
       </c>
       <c r="O33" t="n">
-        <v>68.51332757749411</v>
+        <v>68.51332757749408</v>
       </c>
       <c r="P33" t="n">
-        <v>54.98798562259552</v>
+        <v>54.98798562259549</v>
       </c>
       <c r="Q33" t="n">
-        <v>36.75801216316827</v>
+        <v>36.75801216316825</v>
       </c>
       <c r="R33" t="n">
-        <v>17.87886270553223</v>
+        <v>17.87886270553222</v>
       </c>
       <c r="S33" t="n">
-        <v>5.348755549443976</v>
+        <v>5.348755549443974</v>
       </c>
       <c r="T33" t="n">
-        <v>1.16068626917096</v>
+        <v>1.160686269170959</v>
       </c>
       <c r="U33" t="n">
-        <v>0.01894482485045094</v>
+        <v>0.01894482485045093</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.2414171123019211</v>
+        <v>0.241417112301921</v>
       </c>
       <c r="H34" t="n">
-        <v>2.146417598466173</v>
+        <v>2.146417598466172</v>
       </c>
       <c r="I34" t="n">
-        <v>7.260070977225048</v>
+        <v>7.260070977225046</v>
       </c>
       <c r="J34" t="n">
         <v>17.06818983974582</v>
       </c>
       <c r="K34" t="n">
-        <v>28.04827904744138</v>
+        <v>28.04827904744137</v>
       </c>
       <c r="L34" t="n">
-        <v>35.8921404962329</v>
+        <v>35.89214049623288</v>
       </c>
       <c r="M34" t="n">
-        <v>37.84322970383659</v>
+        <v>37.84322970383658</v>
       </c>
       <c r="N34" t="n">
-        <v>36.94340228525674</v>
+        <v>36.94340228525672</v>
       </c>
       <c r="O34" t="n">
-        <v>34.1232114733661</v>
+        <v>34.12321147336608</v>
       </c>
       <c r="P34" t="n">
-        <v>29.19830238240689</v>
+        <v>29.19830238240687</v>
       </c>
       <c r="Q34" t="n">
-        <v>20.21539110375451</v>
+        <v>20.2153911037545</v>
       </c>
       <c r="R34" t="n">
         <v>10.85499124950274</v>
       </c>
       <c r="S34" t="n">
-        <v>4.207241857116206</v>
+        <v>4.207241857116204</v>
       </c>
       <c r="T34" t="n">
-        <v>1.031509479835481</v>
+        <v>1.03150947983548</v>
       </c>
       <c r="U34" t="n">
-        <v>0.01316820612555935</v>
+        <v>0.01316820612555934</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,40 +33646,40 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.5381980393025922</v>
+        <v>0.538198039302592</v>
       </c>
       <c r="H35" t="n">
-        <v>5.511820670007674</v>
+        <v>5.511820670007672</v>
       </c>
       <c r="I35" t="n">
         <v>20.7488799102132</v>
       </c>
       <c r="J35" t="n">
-        <v>45.67888583825842</v>
+        <v>45.67888583825841</v>
       </c>
       <c r="K35" t="n">
-        <v>68.46080884193717</v>
+        <v>68.46080884193714</v>
       </c>
       <c r="L35" t="n">
-        <v>84.93168708724389</v>
+        <v>84.93168708724386</v>
       </c>
       <c r="M35" t="n">
-        <v>94.50286646869137</v>
+        <v>94.50286646869132</v>
       </c>
       <c r="N35" t="n">
-        <v>96.03202164785986</v>
+        <v>96.03202164785982</v>
       </c>
       <c r="O35" t="n">
-        <v>90.68031489454471</v>
+        <v>90.68031489454467</v>
       </c>
       <c r="P35" t="n">
-        <v>77.39355079926194</v>
+        <v>77.39355079926192</v>
       </c>
       <c r="Q35" t="n">
-        <v>58.11933351673785</v>
+        <v>58.11933351673782</v>
       </c>
       <c r="R35" t="n">
-        <v>33.80758258634149</v>
+        <v>33.80758258634147</v>
       </c>
       <c r="S35" t="n">
         <v>12.26418782060783</v>
@@ -33688,7 +33688,7 @@
         <v>2.355961917047098</v>
       </c>
       <c r="U35" t="n">
-        <v>0.04305584314420736</v>
+        <v>0.04305584314420735</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2879613377268542</v>
+        <v>0.2879613377268541</v>
       </c>
       <c r="H36" t="n">
-        <v>2.781100288046197</v>
+        <v>2.781100288046196</v>
       </c>
       <c r="I36" t="n">
-        <v>9.914458338402655</v>
+        <v>9.914458338402651</v>
       </c>
       <c r="J36" t="n">
-        <v>27.20603147357091</v>
+        <v>27.20603147357089</v>
       </c>
       <c r="K36" t="n">
-        <v>46.49944110127013</v>
+        <v>46.49944110127011</v>
       </c>
       <c r="L36" t="n">
-        <v>62.5242369481049</v>
+        <v>62.52423694810487</v>
       </c>
       <c r="M36" t="n">
-        <v>72.96283544070334</v>
+        <v>72.96283544070332</v>
       </c>
       <c r="N36" t="n">
-        <v>74.89394458712599</v>
+        <v>74.89394458712596</v>
       </c>
       <c r="O36" t="n">
-        <v>68.51332757749411</v>
+        <v>68.51332757749408</v>
       </c>
       <c r="P36" t="n">
-        <v>54.98798562259552</v>
+        <v>54.98798562259549</v>
       </c>
       <c r="Q36" t="n">
-        <v>36.75801216316827</v>
+        <v>36.75801216316825</v>
       </c>
       <c r="R36" t="n">
-        <v>17.87886270553223</v>
+        <v>17.87886270553222</v>
       </c>
       <c r="S36" t="n">
-        <v>5.348755549443976</v>
+        <v>5.348755549443974</v>
       </c>
       <c r="T36" t="n">
-        <v>1.16068626917096</v>
+        <v>1.160686269170959</v>
       </c>
       <c r="U36" t="n">
-        <v>0.01894482485045094</v>
+        <v>0.01894482485045093</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.2414171123019211</v>
+        <v>0.241417112301921</v>
       </c>
       <c r="H37" t="n">
-        <v>2.146417598466173</v>
+        <v>2.146417598466172</v>
       </c>
       <c r="I37" t="n">
-        <v>7.260070977225048</v>
+        <v>7.260070977225046</v>
       </c>
       <c r="J37" t="n">
         <v>17.06818983974582</v>
       </c>
       <c r="K37" t="n">
-        <v>28.04827904744138</v>
+        <v>28.04827904744137</v>
       </c>
       <c r="L37" t="n">
-        <v>35.8921404962329</v>
+        <v>35.89214049623288</v>
       </c>
       <c r="M37" t="n">
-        <v>37.84322970383659</v>
+        <v>37.84322970383658</v>
       </c>
       <c r="N37" t="n">
-        <v>36.94340228525674</v>
+        <v>36.94340228525672</v>
       </c>
       <c r="O37" t="n">
-        <v>34.1232114733661</v>
+        <v>34.12321147336608</v>
       </c>
       <c r="P37" t="n">
-        <v>29.19830238240689</v>
+        <v>29.19830238240687</v>
       </c>
       <c r="Q37" t="n">
-        <v>20.21539110375451</v>
+        <v>20.2153911037545</v>
       </c>
       <c r="R37" t="n">
         <v>10.85499124950274</v>
       </c>
       <c r="S37" t="n">
-        <v>4.207241857116206</v>
+        <v>4.207241857116204</v>
       </c>
       <c r="T37" t="n">
-        <v>1.031509479835481</v>
+        <v>1.03150947983548</v>
       </c>
       <c r="U37" t="n">
-        <v>0.01316820612555935</v>
+        <v>0.01316820612555934</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,40 +33883,40 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5381980393025922</v>
+        <v>0.538198039302592</v>
       </c>
       <c r="H38" t="n">
-        <v>5.511820670007674</v>
+        <v>5.511820670007672</v>
       </c>
       <c r="I38" t="n">
         <v>20.7488799102132</v>
       </c>
       <c r="J38" t="n">
-        <v>45.67888583825842</v>
+        <v>45.67888583825841</v>
       </c>
       <c r="K38" t="n">
-        <v>68.46080884193717</v>
+        <v>68.46080884193714</v>
       </c>
       <c r="L38" t="n">
-        <v>84.93168708724389</v>
+        <v>84.93168708724386</v>
       </c>
       <c r="M38" t="n">
-        <v>94.50286646869137</v>
+        <v>94.50286646869132</v>
       </c>
       <c r="N38" t="n">
-        <v>96.03202164785986</v>
+        <v>96.03202164785982</v>
       </c>
       <c r="O38" t="n">
-        <v>90.68031489454471</v>
+        <v>90.68031489454467</v>
       </c>
       <c r="P38" t="n">
-        <v>77.39355079926194</v>
+        <v>77.39355079926192</v>
       </c>
       <c r="Q38" t="n">
-        <v>58.11933351673785</v>
+        <v>58.11933351673782</v>
       </c>
       <c r="R38" t="n">
-        <v>33.80758258634149</v>
+        <v>33.80758258634147</v>
       </c>
       <c r="S38" t="n">
         <v>12.26418782060783</v>
@@ -33925,7 +33925,7 @@
         <v>2.355961917047098</v>
       </c>
       <c r="U38" t="n">
-        <v>0.04305584314420736</v>
+        <v>0.04305584314420735</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2879613377268542</v>
+        <v>0.2879613377268541</v>
       </c>
       <c r="H39" t="n">
-        <v>2.781100288046197</v>
+        <v>2.781100288046196</v>
       </c>
       <c r="I39" t="n">
-        <v>9.914458338402655</v>
+        <v>9.914458338402651</v>
       </c>
       <c r="J39" t="n">
-        <v>27.20603147357091</v>
+        <v>27.20603147357089</v>
       </c>
       <c r="K39" t="n">
-        <v>46.49944110127013</v>
+        <v>46.49944110127011</v>
       </c>
       <c r="L39" t="n">
-        <v>62.5242369481049</v>
+        <v>62.52423694810487</v>
       </c>
       <c r="M39" t="n">
-        <v>72.96283544070334</v>
+        <v>72.96283544070332</v>
       </c>
       <c r="N39" t="n">
-        <v>74.89394458712599</v>
+        <v>74.89394458712596</v>
       </c>
       <c r="O39" t="n">
-        <v>68.51332757749411</v>
+        <v>68.51332757749408</v>
       </c>
       <c r="P39" t="n">
-        <v>54.98798562259552</v>
+        <v>54.98798562259549</v>
       </c>
       <c r="Q39" t="n">
-        <v>36.75801216316827</v>
+        <v>36.75801216316825</v>
       </c>
       <c r="R39" t="n">
-        <v>17.87886270553223</v>
+        <v>17.87886270553222</v>
       </c>
       <c r="S39" t="n">
-        <v>5.348755549443976</v>
+        <v>5.348755549443974</v>
       </c>
       <c r="T39" t="n">
-        <v>1.16068626917096</v>
+        <v>1.160686269170959</v>
       </c>
       <c r="U39" t="n">
-        <v>0.01894482485045094</v>
+        <v>0.01894482485045093</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.2414171123019211</v>
+        <v>0.241417112301921</v>
       </c>
       <c r="H40" t="n">
-        <v>2.146417598466173</v>
+        <v>2.146417598466172</v>
       </c>
       <c r="I40" t="n">
-        <v>7.260070977225048</v>
+        <v>7.260070977225046</v>
       </c>
       <c r="J40" t="n">
         <v>17.06818983974582</v>
       </c>
       <c r="K40" t="n">
-        <v>28.04827904744138</v>
+        <v>28.04827904744137</v>
       </c>
       <c r="L40" t="n">
-        <v>35.8921404962329</v>
+        <v>35.89214049623288</v>
       </c>
       <c r="M40" t="n">
-        <v>37.84322970383659</v>
+        <v>37.84322970383658</v>
       </c>
       <c r="N40" t="n">
-        <v>36.94340228525674</v>
+        <v>36.94340228525672</v>
       </c>
       <c r="O40" t="n">
-        <v>34.1232114733661</v>
+        <v>34.12321147336608</v>
       </c>
       <c r="P40" t="n">
-        <v>29.19830238240689</v>
+        <v>29.19830238240687</v>
       </c>
       <c r="Q40" t="n">
-        <v>20.21539110375451</v>
+        <v>20.2153911037545</v>
       </c>
       <c r="R40" t="n">
         <v>10.85499124950274</v>
       </c>
       <c r="S40" t="n">
-        <v>4.207241857116206</v>
+        <v>4.207241857116204</v>
       </c>
       <c r="T40" t="n">
-        <v>1.031509479835481</v>
+        <v>1.03150947983548</v>
       </c>
       <c r="U40" t="n">
-        <v>0.01316820612555935</v>
+        <v>0.01316820612555934</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,40 +34120,40 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5381980393025922</v>
+        <v>0.538198039302592</v>
       </c>
       <c r="H41" t="n">
-        <v>5.511820670007674</v>
+        <v>5.511820670007672</v>
       </c>
       <c r="I41" t="n">
         <v>20.7488799102132</v>
       </c>
       <c r="J41" t="n">
-        <v>45.67888583825842</v>
+        <v>45.67888583825841</v>
       </c>
       <c r="K41" t="n">
-        <v>68.46080884193717</v>
+        <v>68.46080884193714</v>
       </c>
       <c r="L41" t="n">
-        <v>84.93168708724389</v>
+        <v>84.93168708724386</v>
       </c>
       <c r="M41" t="n">
-        <v>94.50286646869137</v>
+        <v>94.50286646869132</v>
       </c>
       <c r="N41" t="n">
-        <v>96.03202164785986</v>
+        <v>96.03202164785982</v>
       </c>
       <c r="O41" t="n">
-        <v>90.68031489454471</v>
+        <v>90.68031489454467</v>
       </c>
       <c r="P41" t="n">
-        <v>77.39355079926194</v>
+        <v>77.39355079926192</v>
       </c>
       <c r="Q41" t="n">
-        <v>58.11933351673785</v>
+        <v>58.11933351673782</v>
       </c>
       <c r="R41" t="n">
-        <v>33.80758258634149</v>
+        <v>33.80758258634147</v>
       </c>
       <c r="S41" t="n">
         <v>12.26418782060783</v>
@@ -34162,7 +34162,7 @@
         <v>2.355961917047098</v>
       </c>
       <c r="U41" t="n">
-        <v>0.04305584314420736</v>
+        <v>0.04305584314420735</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2879613377268542</v>
+        <v>0.2879613377268541</v>
       </c>
       <c r="H42" t="n">
-        <v>2.781100288046197</v>
+        <v>2.781100288046196</v>
       </c>
       <c r="I42" t="n">
-        <v>9.914458338402655</v>
+        <v>9.914458338402651</v>
       </c>
       <c r="J42" t="n">
-        <v>27.20603147357091</v>
+        <v>27.20603147357089</v>
       </c>
       <c r="K42" t="n">
-        <v>46.49944110127013</v>
+        <v>46.49944110127011</v>
       </c>
       <c r="L42" t="n">
-        <v>62.5242369481049</v>
+        <v>62.52423694810487</v>
       </c>
       <c r="M42" t="n">
-        <v>72.96283544070334</v>
+        <v>72.96283544070332</v>
       </c>
       <c r="N42" t="n">
-        <v>74.89394458712599</v>
+        <v>74.89394458712596</v>
       </c>
       <c r="O42" t="n">
-        <v>68.51332757749411</v>
+        <v>68.51332757749408</v>
       </c>
       <c r="P42" t="n">
-        <v>54.98798562259552</v>
+        <v>54.98798562259549</v>
       </c>
       <c r="Q42" t="n">
-        <v>36.75801216316827</v>
+        <v>36.75801216316825</v>
       </c>
       <c r="R42" t="n">
-        <v>17.87886270553223</v>
+        <v>17.87886270553222</v>
       </c>
       <c r="S42" t="n">
-        <v>5.348755549443976</v>
+        <v>5.348755549443974</v>
       </c>
       <c r="T42" t="n">
-        <v>1.16068626917096</v>
+        <v>1.160686269170959</v>
       </c>
       <c r="U42" t="n">
-        <v>0.01894482485045094</v>
+        <v>0.01894482485045093</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.2414171123019211</v>
+        <v>0.241417112301921</v>
       </c>
       <c r="H43" t="n">
-        <v>2.146417598466173</v>
+        <v>2.146417598466172</v>
       </c>
       <c r="I43" t="n">
-        <v>7.260070977225048</v>
+        <v>7.260070977225046</v>
       </c>
       <c r="J43" t="n">
         <v>17.06818983974582</v>
       </c>
       <c r="K43" t="n">
-        <v>28.04827904744138</v>
+        <v>28.04827904744137</v>
       </c>
       <c r="L43" t="n">
-        <v>35.8921404962329</v>
+        <v>35.89214049623288</v>
       </c>
       <c r="M43" t="n">
-        <v>37.84322970383659</v>
+        <v>37.84322970383658</v>
       </c>
       <c r="N43" t="n">
-        <v>36.94340228525674</v>
+        <v>36.94340228525672</v>
       </c>
       <c r="O43" t="n">
-        <v>34.1232114733661</v>
+        <v>34.12321147336608</v>
       </c>
       <c r="P43" t="n">
-        <v>29.19830238240689</v>
+        <v>29.19830238240687</v>
       </c>
       <c r="Q43" t="n">
-        <v>20.21539110375451</v>
+        <v>20.2153911037545</v>
       </c>
       <c r="R43" t="n">
         <v>10.85499124950274</v>
       </c>
       <c r="S43" t="n">
-        <v>4.207241857116206</v>
+        <v>4.207241857116204</v>
       </c>
       <c r="T43" t="n">
-        <v>1.031509479835481</v>
+        <v>1.03150947983548</v>
       </c>
       <c r="U43" t="n">
-        <v>0.01316820612555935</v>
+        <v>0.01316820612555934</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,40 +34357,40 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5381980393025922</v>
+        <v>0.538198039302592</v>
       </c>
       <c r="H44" t="n">
-        <v>5.511820670007674</v>
+        <v>5.511820670007672</v>
       </c>
       <c r="I44" t="n">
         <v>20.7488799102132</v>
       </c>
       <c r="J44" t="n">
-        <v>45.67888583825842</v>
+        <v>45.67888583825841</v>
       </c>
       <c r="K44" t="n">
-        <v>68.46080884193717</v>
+        <v>68.46080884193714</v>
       </c>
       <c r="L44" t="n">
-        <v>84.93168708724389</v>
+        <v>84.93168708724386</v>
       </c>
       <c r="M44" t="n">
-        <v>94.50286646869137</v>
+        <v>94.50286646869132</v>
       </c>
       <c r="N44" t="n">
-        <v>96.03202164785986</v>
+        <v>96.03202164785982</v>
       </c>
       <c r="O44" t="n">
-        <v>90.68031489454471</v>
+        <v>90.68031489454467</v>
       </c>
       <c r="P44" t="n">
-        <v>77.39355079926194</v>
+        <v>77.39355079926192</v>
       </c>
       <c r="Q44" t="n">
-        <v>58.11933351673785</v>
+        <v>58.11933351673782</v>
       </c>
       <c r="R44" t="n">
-        <v>33.80758258634149</v>
+        <v>33.80758258634147</v>
       </c>
       <c r="S44" t="n">
         <v>12.26418782060783</v>
@@ -34399,7 +34399,7 @@
         <v>2.355961917047098</v>
       </c>
       <c r="U44" t="n">
-        <v>0.04305584314420736</v>
+        <v>0.04305584314420735</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2879613377268542</v>
+        <v>0.2879613377268541</v>
       </c>
       <c r="H45" t="n">
-        <v>2.781100288046197</v>
+        <v>2.781100288046196</v>
       </c>
       <c r="I45" t="n">
-        <v>9.914458338402655</v>
+        <v>9.914458338402651</v>
       </c>
       <c r="J45" t="n">
-        <v>27.20603147357091</v>
+        <v>27.20603147357089</v>
       </c>
       <c r="K45" t="n">
-        <v>46.49944110127013</v>
+        <v>46.49944110127011</v>
       </c>
       <c r="L45" t="n">
-        <v>62.5242369481049</v>
+        <v>62.52423694810487</v>
       </c>
       <c r="M45" t="n">
-        <v>72.96283544070334</v>
+        <v>72.96283544070332</v>
       </c>
       <c r="N45" t="n">
-        <v>74.89394458712599</v>
+        <v>74.89394458712596</v>
       </c>
       <c r="O45" t="n">
-        <v>68.51332757749411</v>
+        <v>68.51332757749408</v>
       </c>
       <c r="P45" t="n">
-        <v>54.98798562259552</v>
+        <v>54.98798562259549</v>
       </c>
       <c r="Q45" t="n">
-        <v>36.75801216316827</v>
+        <v>36.75801216316825</v>
       </c>
       <c r="R45" t="n">
-        <v>17.87886270553223</v>
+        <v>17.87886270553222</v>
       </c>
       <c r="S45" t="n">
-        <v>5.348755549443976</v>
+        <v>5.348755549443974</v>
       </c>
       <c r="T45" t="n">
-        <v>1.16068626917096</v>
+        <v>1.160686269170959</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01894482485045094</v>
+        <v>0.01894482485045093</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2414171123019211</v>
+        <v>0.241417112301921</v>
       </c>
       <c r="H46" t="n">
-        <v>2.146417598466173</v>
+        <v>2.146417598466172</v>
       </c>
       <c r="I46" t="n">
-        <v>7.260070977225048</v>
+        <v>7.260070977225046</v>
       </c>
       <c r="J46" t="n">
         <v>17.06818983974582</v>
       </c>
       <c r="K46" t="n">
-        <v>28.04827904744138</v>
+        <v>28.04827904744137</v>
       </c>
       <c r="L46" t="n">
-        <v>35.8921404962329</v>
+        <v>35.89214049623288</v>
       </c>
       <c r="M46" t="n">
-        <v>37.84322970383659</v>
+        <v>37.84322970383658</v>
       </c>
       <c r="N46" t="n">
-        <v>36.94340228525674</v>
+        <v>36.94340228525672</v>
       </c>
       <c r="O46" t="n">
-        <v>34.1232114733661</v>
+        <v>34.12321147336608</v>
       </c>
       <c r="P46" t="n">
-        <v>29.19830238240689</v>
+        <v>29.19830238240687</v>
       </c>
       <c r="Q46" t="n">
-        <v>20.21539110375451</v>
+        <v>20.2153911037545</v>
       </c>
       <c r="R46" t="n">
         <v>10.85499124950274</v>
       </c>
       <c r="S46" t="n">
-        <v>4.207241857116206</v>
+        <v>4.207241857116204</v>
       </c>
       <c r="T46" t="n">
-        <v>1.031509479835481</v>
+        <v>1.03150947983548</v>
       </c>
       <c r="U46" t="n">
-        <v>0.01316820612555935</v>
+        <v>0.01316820612555934</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35407,28 +35407,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>118.4046881340217</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>274.6809602572441</v>
+        <v>311.0268412104045</v>
       </c>
       <c r="L11" t="n">
-        <v>436.3310538397149</v>
+        <v>436.3310538397148</v>
       </c>
       <c r="M11" t="n">
-        <v>491.7141455122146</v>
+        <v>420.2675043414534</v>
       </c>
       <c r="N11" t="n">
-        <v>478.1849092112092</v>
+        <v>478.1849092112091</v>
       </c>
       <c r="O11" t="n">
-        <v>398.7657537559932</v>
+        <v>398.7657537559931</v>
       </c>
       <c r="P11" t="n">
-        <v>307.8550623710329</v>
+        <v>307.8550623710328</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>153.5054483516237</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>52.47551947899267</v>
+        <v>88.06880574943568</v>
       </c>
       <c r="K12" t="n">
-        <v>278.3080800509557</v>
+        <v>170.8089203394296</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>432.041252271454</v>
       </c>
       <c r="M12" t="n">
-        <v>562.8955157540635</v>
+        <v>562.8955157540634</v>
       </c>
       <c r="N12" t="n">
-        <v>591.3238901660372</v>
+        <v>591.3238901660371</v>
       </c>
       <c r="O12" t="n">
-        <v>464.6748940261314</v>
+        <v>464.6748940261313</v>
       </c>
       <c r="P12" t="n">
-        <v>360.1353788303705</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>196.1232947748796</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>60.12241407749271</v>
+        <v>60.12241407749269</v>
       </c>
       <c r="K13" t="n">
         <v>164.5027934696456</v>
@@ -35577,7 +35577,7 @@
         <v>259.5394798664027</v>
       </c>
       <c r="N13" t="n">
-        <v>259.072819742771</v>
+        <v>259.0728197427709</v>
       </c>
       <c r="O13" t="n">
         <v>236.0923306946069</v>
@@ -35586,7 +35586,7 @@
         <v>195.3137218384438</v>
       </c>
       <c r="Q13" t="n">
-        <v>84.57431360862253</v>
+        <v>84.57431360862252</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,28 +35644,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>82.05880718086118</v>
+        <v>118.4046881340217</v>
       </c>
       <c r="K14" t="n">
-        <v>311.0268412104047</v>
+        <v>311.0268412104045</v>
       </c>
       <c r="L14" t="n">
-        <v>436.3310538397149</v>
+        <v>436.3310538397148</v>
       </c>
       <c r="M14" t="n">
-        <v>491.7141455122146</v>
+        <v>491.7141455122145</v>
       </c>
       <c r="N14" t="n">
-        <v>478.1849092112092</v>
+        <v>478.1849092112091</v>
       </c>
       <c r="O14" t="n">
-        <v>398.7657537559932</v>
+        <v>398.7657537559931</v>
       </c>
       <c r="P14" t="n">
-        <v>307.8550623710329</v>
+        <v>118.0037330662491</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>153.5054483516237</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35726,19 +35726,19 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>278.3080800509557</v>
       </c>
       <c r="L15" t="n">
-        <v>432.0412522714541</v>
+        <v>432.041252271454</v>
       </c>
       <c r="M15" t="n">
-        <v>562.8955157540635</v>
+        <v>183.3297829616017</v>
       </c>
       <c r="N15" t="n">
-        <v>490.0662374245306</v>
+        <v>591.3238901660371</v>
       </c>
       <c r="O15" t="n">
-        <v>464.6748940261314</v>
+        <v>464.6748940261313</v>
       </c>
       <c r="P15" t="n">
         <v>360.1353788303705</v>
@@ -35808,13 +35808,13 @@
         <v>164.5027934696456</v>
       </c>
       <c r="L16" t="n">
-        <v>240.0263434594628</v>
+        <v>240.0263434594634</v>
       </c>
       <c r="M16" t="n">
-        <v>259.5394798664028</v>
+        <v>259.5394798664027</v>
       </c>
       <c r="N16" t="n">
-        <v>259.072819742771</v>
+        <v>259.0728197427709</v>
       </c>
       <c r="O16" t="n">
         <v>236.0923306946069</v>
@@ -35884,22 +35884,22 @@
         <v>118.4046881340217</v>
       </c>
       <c r="K17" t="n">
-        <v>311.0268412104047</v>
+        <v>311.0268412104045</v>
       </c>
       <c r="L17" t="n">
-        <v>246.4797245349308</v>
+        <v>436.3310538397148</v>
       </c>
       <c r="M17" t="n">
-        <v>491.7141455122146</v>
+        <v>491.7141455122145</v>
       </c>
       <c r="N17" t="n">
-        <v>478.1849092112092</v>
+        <v>288.3335799064259</v>
       </c>
       <c r="O17" t="n">
-        <v>398.7657537559932</v>
+        <v>398.7657537559931</v>
       </c>
       <c r="P17" t="n">
-        <v>307.8550623710329</v>
+        <v>307.8550623710328</v>
       </c>
       <c r="Q17" t="n">
         <v>153.5054483516237</v>
@@ -35960,22 +35960,22 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>88.06880574943571</v>
+        <v>88.06880574943568</v>
       </c>
       <c r="K18" t="n">
         <v>278.3080800509557</v>
       </c>
       <c r="L18" t="n">
-        <v>432.0412522714541</v>
+        <v>432.041252271454</v>
       </c>
       <c r="M18" t="n">
-        <v>562.8955157540635</v>
+        <v>562.8955157540634</v>
       </c>
       <c r="N18" t="n">
-        <v>123.6893516241391</v>
+        <v>123.6893516241397</v>
       </c>
       <c r="O18" t="n">
-        <v>464.6748940261314</v>
+        <v>464.6748940261313</v>
       </c>
       <c r="P18" t="n">
         <v>360.1353788303705</v>
@@ -36042,10 +36042,10 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>61.9919030319297</v>
+        <v>61.99190303192967</v>
       </c>
       <c r="L19" t="n">
-        <v>137.5154530217476</v>
+        <v>137.5154530217475</v>
       </c>
       <c r="M19" t="n">
         <v>157.0285894286868</v>
@@ -36054,10 +36054,10 @@
         <v>156.5619293050551</v>
       </c>
       <c r="O19" t="n">
-        <v>133.5814402568911</v>
+        <v>133.581440256891</v>
       </c>
       <c r="P19" t="n">
-        <v>92.80283140072791</v>
+        <v>92.80283140072788</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36121,22 +36121,22 @@
         <v>118.4046881340217</v>
       </c>
       <c r="K20" t="n">
-        <v>311.0268412104047</v>
+        <v>311.0268412104045</v>
       </c>
       <c r="L20" t="n">
-        <v>246.4797245349308</v>
+        <v>436.3310538397148</v>
       </c>
       <c r="M20" t="n">
-        <v>491.7141455122146</v>
+        <v>301.8628162074315</v>
       </c>
       <c r="N20" t="n">
-        <v>478.1849092112092</v>
+        <v>478.1849092112091</v>
       </c>
       <c r="O20" t="n">
-        <v>398.7657537559932</v>
+        <v>398.7657537559931</v>
       </c>
       <c r="P20" t="n">
-        <v>307.8550623710329</v>
+        <v>307.8550623710328</v>
       </c>
       <c r="Q20" t="n">
         <v>153.5054483516237</v>
@@ -36197,22 +36197,22 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>88.06880574943571</v>
+        <v>88.06880574943568</v>
       </c>
       <c r="K21" t="n">
         <v>278.3080800509557</v>
       </c>
       <c r="L21" t="n">
-        <v>432.0412522714541</v>
+        <v>432.041252271454</v>
       </c>
       <c r="M21" t="n">
-        <v>562.8955157540635</v>
+        <v>95.26097721216679</v>
       </c>
       <c r="N21" t="n">
-        <v>123.68935162414</v>
+        <v>591.3238901660371</v>
       </c>
       <c r="O21" t="n">
-        <v>464.6748940261314</v>
+        <v>464.6748940261313</v>
       </c>
       <c r="P21" t="n">
         <v>360.1353788303705</v>
@@ -36279,10 +36279,10 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>61.9919030319297</v>
+        <v>61.99190303192967</v>
       </c>
       <c r="L22" t="n">
-        <v>137.5154530217476</v>
+        <v>137.5154530217475</v>
       </c>
       <c r="M22" t="n">
         <v>157.0285894286868</v>
@@ -36291,10 +36291,10 @@
         <v>156.5619293050551</v>
       </c>
       <c r="O22" t="n">
-        <v>133.5814402568911</v>
+        <v>133.581440256891</v>
       </c>
       <c r="P22" t="n">
-        <v>92.80283140072791</v>
+        <v>92.80283140072788</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36358,22 +36358,22 @@
         <v>118.4046881340217</v>
       </c>
       <c r="K23" t="n">
-        <v>311.0268412104046</v>
+        <v>311.0268412104045</v>
       </c>
       <c r="L23" t="n">
-        <v>436.3310538397149</v>
+        <v>436.3310538397148</v>
       </c>
       <c r="M23" t="n">
         <v>491.7141455122145</v>
       </c>
       <c r="N23" t="n">
-        <v>288.3335799064243</v>
+        <v>288.3335799064259</v>
       </c>
       <c r="O23" t="n">
-        <v>398.7657537559932</v>
+        <v>398.7657537559931</v>
       </c>
       <c r="P23" t="n">
-        <v>307.8550623710329</v>
+        <v>307.8550623710328</v>
       </c>
       <c r="Q23" t="n">
         <v>153.5054483516237</v>
@@ -36434,22 +36434,22 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>88.0688057494357</v>
+        <v>88.06880574943568</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>278.3080800509557</v>
       </c>
       <c r="L24" t="n">
-        <v>242.7147937805119</v>
+        <v>432.041252271454</v>
       </c>
       <c r="M24" t="n">
         <v>562.8955157540634</v>
       </c>
       <c r="N24" t="n">
-        <v>591.3238901660372</v>
+        <v>123.6893516241407</v>
       </c>
       <c r="O24" t="n">
-        <v>464.6748940261314</v>
+        <v>464.6748940261313</v>
       </c>
       <c r="P24" t="n">
         <v>360.1353788303705</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>220.9155785717376</v>
+        <v>119.023547298001</v>
       </c>
       <c r="K26" t="n">
-        <v>413.5377316481205</v>
+        <v>413.5377316481204</v>
       </c>
       <c r="L26" t="n">
-        <v>538.8419442774308</v>
+        <v>538.8419442774307</v>
       </c>
       <c r="M26" t="n">
-        <v>594.2250359499305</v>
+        <v>594.2250359499303</v>
       </c>
       <c r="N26" t="n">
-        <v>580.695799648925</v>
+        <v>580.6957996489249</v>
       </c>
       <c r="O26" t="n">
-        <v>501.2766441937091</v>
+        <v>501.2766441937089</v>
       </c>
       <c r="P26" t="n">
-        <v>410.3659528087488</v>
+        <v>410.3659528087487</v>
       </c>
       <c r="Q26" t="n">
-        <v>154.1243075156024</v>
+        <v>256.0163387893396</v>
       </c>
       <c r="R26" t="n">
-        <v>46.58656938495221</v>
+        <v>46.58656938495215</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,22 +36671,22 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>88.06880574943573</v>
+        <v>88.06880574943568</v>
       </c>
       <c r="K27" t="n">
         <v>278.3080800509557</v>
       </c>
       <c r="L27" t="n">
-        <v>432.0412522714541</v>
+        <v>432.041252271454</v>
       </c>
       <c r="M27" t="n">
-        <v>562.8955157540635</v>
+        <v>562.8955157540634</v>
       </c>
       <c r="N27" t="n">
-        <v>123.6893516241395</v>
+        <v>123.68935162414</v>
       </c>
       <c r="O27" t="n">
-        <v>464.6748940261314</v>
+        <v>464.6748940261313</v>
       </c>
       <c r="P27" t="n">
         <v>360.1353788303705</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>60.12241407749271</v>
+        <v>60.12241407749268</v>
       </c>
       <c r="K28" t="n">
-        <v>164.5027934696456</v>
+        <v>164.5027934696455</v>
       </c>
       <c r="L28" t="n">
         <v>240.0263434594634</v>
       </c>
       <c r="M28" t="n">
-        <v>259.5394798664028</v>
+        <v>259.5394798664026</v>
       </c>
       <c r="N28" t="n">
-        <v>259.072819742771</v>
+        <v>259.0728197427709</v>
       </c>
       <c r="O28" t="n">
         <v>236.0923306946069</v>
       </c>
       <c r="P28" t="n">
-        <v>195.3137218384438</v>
+        <v>195.3137218384437</v>
       </c>
       <c r="Q28" t="n">
-        <v>84.57431360862255</v>
+        <v>84.5743136086225</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>220.9155785717376</v>
+        <v>220.9155785717375</v>
       </c>
       <c r="K29" t="n">
-        <v>311.6457003743828</v>
+        <v>413.5377316481204</v>
       </c>
       <c r="L29" t="n">
         <v>538.8419442774307</v>
       </c>
       <c r="M29" t="n">
-        <v>594.2250359499304</v>
+        <v>492.3330046761941</v>
       </c>
       <c r="N29" t="n">
-        <v>580.695799648925</v>
+        <v>580.6957996489249</v>
       </c>
       <c r="O29" t="n">
-        <v>501.276644193709</v>
+        <v>501.2766441937089</v>
       </c>
       <c r="P29" t="n">
-        <v>410.3659528087488</v>
+        <v>410.3659528087487</v>
       </c>
       <c r="Q29" t="n">
-        <v>256.0163387893396</v>
+        <v>256.0163387893395</v>
       </c>
       <c r="R29" t="n">
-        <v>46.58656938495218</v>
+        <v>46.58656938495213</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>88.06880574943568</v>
       </c>
       <c r="K30" t="n">
         <v>278.3080800509557</v>
@@ -36920,16 +36920,16 @@
         <v>562.8955157540634</v>
       </c>
       <c r="N30" t="n">
-        <v>591.3238901660372</v>
+        <v>123.68935162414</v>
       </c>
       <c r="O30" t="n">
-        <v>281.2324560085492</v>
+        <v>464.6748940261313</v>
       </c>
       <c r="P30" t="n">
         <v>360.1353788303705</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>196.1232947748796</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>60.12241407749269</v>
+        <v>60.12241407749266</v>
       </c>
       <c r="K31" t="n">
-        <v>164.5027934696456</v>
+        <v>164.5027934696455</v>
       </c>
       <c r="L31" t="n">
         <v>240.0263434594634</v>
       </c>
       <c r="M31" t="n">
-        <v>259.5394798664027</v>
+        <v>259.5394798664026</v>
       </c>
       <c r="N31" t="n">
-        <v>259.0728197427709</v>
+        <v>259.0728197427715</v>
       </c>
       <c r="O31" t="n">
-        <v>236.092330694607</v>
+        <v>236.0923306946069</v>
       </c>
       <c r="P31" t="n">
-        <v>195.3137218384438</v>
+        <v>195.3137218384437</v>
       </c>
       <c r="Q31" t="n">
-        <v>84.57431360862253</v>
+        <v>84.57431360862249</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>220.9155785717376</v>
+        <v>220.9155785717374</v>
       </c>
       <c r="K32" t="n">
-        <v>413.5377316481205</v>
+        <v>413.5377316481203</v>
       </c>
       <c r="L32" t="n">
-        <v>538.8419442774307</v>
+        <v>538.8419442774305</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9195740611448</v>
+        <v>492.3330046761951</v>
       </c>
       <c r="N32" t="n">
-        <v>580.695799648925</v>
+        <v>580.6957996489248</v>
       </c>
       <c r="O32" t="n">
-        <v>501.276644193709</v>
+        <v>501.2766441937088</v>
       </c>
       <c r="P32" t="n">
-        <v>410.3659528087488</v>
+        <v>410.3659528087485</v>
       </c>
       <c r="Q32" t="n">
-        <v>256.0163387893396</v>
+        <v>256.0163387893394</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>46.58656938495202</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37157,16 +37157,16 @@
         <v>562.8955157540634</v>
       </c>
       <c r="N33" t="n">
-        <v>591.3238901660372</v>
+        <v>211.7581573735755</v>
       </c>
       <c r="O33" t="n">
-        <v>464.6748940261314</v>
+        <v>464.6748940261313</v>
       </c>
       <c r="P33" t="n">
-        <v>176.6929408127885</v>
+        <v>360.1353788303705</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>196.1232947748796</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>60.12241407749272</v>
+        <v>60.12241407749255</v>
       </c>
       <c r="K34" t="n">
-        <v>164.5027934696448</v>
+        <v>164.5027934696454</v>
       </c>
       <c r="L34" t="n">
-        <v>240.0263434594635</v>
+        <v>240.0263434594633</v>
       </c>
       <c r="M34" t="n">
-        <v>259.5394798664027</v>
+        <v>259.5394798664025</v>
       </c>
       <c r="N34" t="n">
-        <v>259.072819742771</v>
+        <v>259.0728197427708</v>
       </c>
       <c r="O34" t="n">
-        <v>236.0923306946069</v>
+        <v>236.0923306946098</v>
       </c>
       <c r="P34" t="n">
-        <v>195.3137218384438</v>
+        <v>195.3137218384436</v>
       </c>
       <c r="Q34" t="n">
-        <v>84.57431360862256</v>
+        <v>84.57431360862238</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,25 +37306,25 @@
         <v>118.4046881340217</v>
       </c>
       <c r="K35" t="n">
-        <v>311.0268412104046</v>
+        <v>311.0268412104045</v>
       </c>
       <c r="L35" t="n">
-        <v>436.3310538397149</v>
+        <v>436.3310538397148</v>
       </c>
       <c r="M35" t="n">
         <v>491.7141455122145</v>
       </c>
       <c r="N35" t="n">
-        <v>288.3335799064257</v>
+        <v>478.1849092112091</v>
       </c>
       <c r="O35" t="n">
-        <v>398.7657537559932</v>
+        <v>362.4198728028329</v>
       </c>
       <c r="P35" t="n">
-        <v>307.8550623710329</v>
+        <v>307.8550623710328</v>
       </c>
       <c r="Q35" t="n">
-        <v>153.5054483516237</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>88.0688057494357</v>
+        <v>88.06880574943568</v>
       </c>
       <c r="K36" t="n">
         <v>278.3080800509557</v>
@@ -37394,16 +37394,16 @@
         <v>562.8955157540634</v>
       </c>
       <c r="N36" t="n">
-        <v>591.3238901660372</v>
+        <v>591.3238901660371</v>
       </c>
       <c r="O36" t="n">
-        <v>357.1757343146056</v>
+        <v>464.6748940261313</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>88.62413506335267</v>
       </c>
       <c r="Q36" t="n">
-        <v>196.1232947748796</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37543,22 +37543,22 @@
         <v>118.4046881340217</v>
       </c>
       <c r="K38" t="n">
-        <v>121.175511905621</v>
+        <v>311.0268412104045</v>
       </c>
       <c r="L38" t="n">
-        <v>436.3310538397149</v>
+        <v>436.3310538397148</v>
       </c>
       <c r="M38" t="n">
-        <v>491.7141455122145</v>
+        <v>301.8628162074315</v>
       </c>
       <c r="N38" t="n">
         <v>478.1849092112091</v>
       </c>
       <c r="O38" t="n">
-        <v>398.7657537559932</v>
+        <v>398.7657537559931</v>
       </c>
       <c r="P38" t="n">
-        <v>307.8550623710329</v>
+        <v>307.8550623710328</v>
       </c>
       <c r="Q38" t="n">
         <v>153.5054483516237</v>
@@ -37619,22 +37619,22 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>88.0688057494357</v>
+        <v>88.06880574943568</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>278.3080800509557</v>
       </c>
       <c r="L39" t="n">
-        <v>432.041252271454</v>
+        <v>429.081607755688</v>
       </c>
       <c r="M39" t="n">
         <v>562.8955157540634</v>
       </c>
       <c r="N39" t="n">
-        <v>591.3238901660372</v>
+        <v>591.3238901660371</v>
       </c>
       <c r="O39" t="n">
-        <v>275.3484355351893</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>360.1353788303705</v>
@@ -37780,10 +37780,10 @@
         <v>118.4046881340217</v>
       </c>
       <c r="K41" t="n">
-        <v>311.0268412104046</v>
+        <v>311.0268412104045</v>
       </c>
       <c r="L41" t="n">
-        <v>399.9851728865548</v>
+        <v>399.9851728865549</v>
       </c>
       <c r="M41" t="n">
         <v>491.7141455122145</v>
@@ -37792,10 +37792,10 @@
         <v>478.1849092112091</v>
       </c>
       <c r="O41" t="n">
-        <v>398.7657537559932</v>
+        <v>398.7657537559931</v>
       </c>
       <c r="P41" t="n">
-        <v>307.8550623710329</v>
+        <v>307.8550623710328</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37856,22 +37856,22 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>88.0688057494357</v>
+        <v>88.06880574943568</v>
       </c>
       <c r="K42" t="n">
         <v>278.3080800509557</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>429.081607755688</v>
       </c>
       <c r="M42" t="n">
         <v>562.8955157540634</v>
       </c>
       <c r="N42" t="n">
-        <v>555.7306038955935</v>
+        <v>591.3238901660371</v>
       </c>
       <c r="O42" t="n">
-        <v>464.6748940261314</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>360.1353788303705</v>
@@ -37956,10 +37956,10 @@
         <v>92.80283140072788</v>
       </c>
       <c r="Q43" t="n">
-        <v>85.20064107451893</v>
+        <v>77.46939993241477</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>7.73124114210332</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38017,22 +38017,22 @@
         <v>118.4046881340217</v>
       </c>
       <c r="K44" t="n">
-        <v>311.0268412104046</v>
+        <v>311.0268412104045</v>
       </c>
       <c r="L44" t="n">
-        <v>436.3310538397149</v>
+        <v>436.3310538397148</v>
       </c>
       <c r="M44" t="n">
         <v>491.7141455122145</v>
       </c>
       <c r="N44" t="n">
-        <v>478.1849092112091</v>
+        <v>288.3335799064259</v>
       </c>
       <c r="O44" t="n">
-        <v>398.7657537559932</v>
+        <v>398.7657537559931</v>
       </c>
       <c r="P44" t="n">
-        <v>118.0037330662496</v>
+        <v>307.8550623710328</v>
       </c>
       <c r="Q44" t="n">
         <v>153.5054483516237</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>52.47551947899365</v>
       </c>
       <c r="K45" t="n">
         <v>278.3080800509557</v>
       </c>
       <c r="L45" t="n">
-        <v>432.041252271454</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>562.8955157540634</v>
       </c>
       <c r="N45" t="n">
-        <v>591.3238901660372</v>
+        <v>591.3238901660371</v>
       </c>
       <c r="O45" t="n">
-        <v>464.6748940261314</v>
+        <v>464.6748940261313</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>360.1353788303705</v>
       </c>
       <c r="Q45" t="n">
-        <v>176.6929408127885</v>
+        <v>196.1232947748796</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,10 +38172,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>85.20064107451893</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>61.99190303192967</v>
+        <v>147.192544106448</v>
       </c>
       <c r="L46" t="n">
         <v>137.5154530217475</v>
